--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="594">
   <si>
     <t>Level1</t>
   </si>
@@ -850,60 +850,6 @@
     <t>Code</t>
   </si>
   <si>
-    <t>A.2.1.1</t>
-  </si>
-  <si>
-    <t>A.2.1.2</t>
-  </si>
-  <si>
-    <t>A.2.1.3</t>
-  </si>
-  <si>
-    <t>A.2.1.4</t>
-  </si>
-  <si>
-    <t>A.2.1.5</t>
-  </si>
-  <si>
-    <t>A.2.1.6</t>
-  </si>
-  <si>
-    <t>A.2.2.1</t>
-  </si>
-  <si>
-    <t>A.2.3.2</t>
-  </si>
-  <si>
-    <t>A.2.3.1</t>
-  </si>
-  <si>
-    <t>A.2.3.5</t>
-  </si>
-  <si>
-    <t>A.2.3.3</t>
-  </si>
-  <si>
-    <t>A.2.3.4</t>
-  </si>
-  <si>
-    <t>A.2.4</t>
-  </si>
-  <si>
-    <t>A.2.5</t>
-  </si>
-  <si>
-    <t>A.2.6.1</t>
-  </si>
-  <si>
-    <t>A.2.6.3</t>
-  </si>
-  <si>
-    <t>A.2.6.2</t>
-  </si>
-  <si>
-    <t>A.2.7</t>
-  </si>
-  <si>
     <t>diarrhea_other</t>
   </si>
   <si>
@@ -913,9 +859,6 @@
     <t>diarrhea_salmonella</t>
   </si>
   <si>
-    <t>A.2.1.7</t>
-  </si>
-  <si>
     <t>diarrhea_campylobac</t>
   </si>
   <si>
@@ -943,12 +886,6 @@
     <t>hiv_other</t>
   </si>
   <si>
-    <t>A.2.8</t>
-  </si>
-  <si>
-    <t>A.2.9</t>
-  </si>
-  <si>
     <t>A.2.10</t>
   </si>
   <si>
@@ -1691,6 +1628,174 @@
   </si>
   <si>
     <t>Diphtheria</t>
+  </si>
+  <si>
+    <t>Collective violence and legal intervention</t>
+  </si>
+  <si>
+    <t>Exposure to forces of nature</t>
+  </si>
+  <si>
+    <t>Indirect maternal causes</t>
+  </si>
+  <si>
+    <t>Induced abortion</t>
+  </si>
+  <si>
+    <t>Leprosy</t>
+  </si>
+  <si>
+    <t>Measles</t>
+  </si>
+  <si>
+    <t>Obstructed labor</t>
+  </si>
+  <si>
+    <t>Rabies</t>
+  </si>
+  <si>
+    <t>Rotaviral enteritis</t>
+  </si>
+  <si>
+    <t>Syphilis</t>
+  </si>
+  <si>
+    <t>inj_war</t>
+  </si>
+  <si>
+    <t>inj_disaster</t>
+  </si>
+  <si>
+    <t>maternal_indirect</t>
+  </si>
+  <si>
+    <t>maternal_abort_induc</t>
+  </si>
+  <si>
+    <t>leprosy</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>maternal_obstruct</t>
+  </si>
+  <si>
+    <t>ntd_rabies</t>
+  </si>
+  <si>
+    <t>diarrhea_rotavirus</t>
+  </si>
+  <si>
+    <t>std_syphilis</t>
+  </si>
+  <si>
+    <t>Maternal abortion and miscarriage</t>
+  </si>
+  <si>
+    <t>Maternal obstructed labor and uterine rupture</t>
+  </si>
+  <si>
+    <t>Indirect maternal deaths</t>
+  </si>
+  <si>
+    <t>Late maternal deaths</t>
+  </si>
+  <si>
+    <t>Maternal sepsis and other maternal infections</t>
+  </si>
+  <si>
+    <t>Maternal hypertensive disorders</t>
+  </si>
+  <si>
+    <t>A.2.11</t>
+  </si>
+  <si>
+    <t>A.2.12</t>
+  </si>
+  <si>
+    <t>A.4.7</t>
+  </si>
+  <si>
+    <t>A.4.8</t>
+  </si>
+  <si>
+    <t>A.4.9</t>
+  </si>
+  <si>
+    <t>A.3.5</t>
+  </si>
+  <si>
+    <t>A.3.6</t>
+  </si>
+  <si>
+    <t>A.2.01.1</t>
+  </si>
+  <si>
+    <t>A.2.01.2</t>
+  </si>
+  <si>
+    <t>A.2.01.3</t>
+  </si>
+  <si>
+    <t>A.2.01.4</t>
+  </si>
+  <si>
+    <t>A.2.01.5</t>
+  </si>
+  <si>
+    <t>A.2.01.6</t>
+  </si>
+  <si>
+    <t>A.2.01.7</t>
+  </si>
+  <si>
+    <t>A.2.01.8</t>
+  </si>
+  <si>
+    <t>A.2.02.1</t>
+  </si>
+  <si>
+    <t>A.2.03.1</t>
+  </si>
+  <si>
+    <t>A.2.03.2</t>
+  </si>
+  <si>
+    <t>A.2.03.3</t>
+  </si>
+  <si>
+    <t>A.2.03.4</t>
+  </si>
+  <si>
+    <t>A.2.03.5</t>
+  </si>
+  <si>
+    <t>A.2.04</t>
+  </si>
+  <si>
+    <t>A.2.05</t>
+  </si>
+  <si>
+    <t>A.2.06.1</t>
+  </si>
+  <si>
+    <t>A.2.06.2</t>
+  </si>
+  <si>
+    <t>A.2.06.3</t>
+  </si>
+  <si>
+    <t>A.2.06.4</t>
+  </si>
+  <si>
+    <t>A.2.07</t>
+  </si>
+  <si>
+    <t>A.2.08</t>
+  </si>
+  <si>
+    <t>A.2.09</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1886,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G233" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G233"/>
-  <sortState ref="A2:G227">
-    <sortCondition ref="F1:F227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G243" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G243"/>
+  <sortState ref="A2:G243">
+    <sortCondition ref="E1:E243"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Level1" dataCellStyle="Normal"/>
@@ -2086,21 +2191,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,13 +2220,13 @@
         <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -2143,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>205</v>
       </c>
@@ -2166,10 +2269,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>205</v>
       </c>
@@ -2189,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>205</v>
       </c>
@@ -2212,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -2235,10 +2338,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -2252,16 +2355,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>278</v>
+        <v>571</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -2275,16 +2378,16 @@
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>279</v>
+        <v>572</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>205</v>
       </c>
@@ -2298,16 +2401,16 @@
         <v>252</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>280</v>
+        <v>573</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>205</v>
       </c>
@@ -2321,16 +2424,16 @@
         <v>259</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>281</v>
+        <v>574</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>205</v>
       </c>
@@ -2344,16 +2447,16 @@
         <v>260</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>282</v>
+        <v>575</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>205</v>
       </c>
@@ -2367,16 +2470,16 @@
         <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>283</v>
+        <v>576</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -2390,16 +2493,16 @@
         <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>299</v>
+        <v>577</v>
       </c>
       <c r="F13" s="2">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -2407,22 +2510,22 @@
         <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
+        <v>276</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>284</v>
+        <v>578</v>
       </c>
       <c r="F14" s="2">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -2430,22 +2533,22 @@
         <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>286</v>
+        <v>579</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -2456,19 +2559,19 @@
         <v>237</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>285</v>
+        <v>580</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -2479,19 +2582,19 @@
         <v>237</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>288</v>
+        <v>581</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -2502,19 +2605,19 @@
         <v>237</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>289</v>
+        <v>582</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -2525,42 +2628,42 @@
         <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>583</v>
       </c>
       <c r="F19" s="2">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>205</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="2">
         <v>18</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>205</v>
       </c>
@@ -2568,45 +2671,45 @@
         <v>215</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>291</v>
+        <v>585</v>
       </c>
       <c r="F21" s="3">
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="C22" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F22" s="3">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
@@ -2617,19 +2720,19 @@
         <v>234</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>294</v>
+        <v>587</v>
       </c>
       <c r="F23" s="2">
         <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -2640,65 +2743,65 @@
         <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>293</v>
+        <v>588</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F25" s="2">
         <v>23</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="G25" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>205</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>215</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F26" s="2">
         <v>24</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>205</v>
       </c>
@@ -2706,22 +2809,22 @@
         <v>215</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>310</v>
+        <v>591</v>
       </c>
       <c r="F27" s="3">
         <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>205</v>
       </c>
@@ -2729,649 +2832,679 @@
         <v>215</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>311</v>
+        <v>592</v>
       </c>
       <c r="F28" s="3">
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>313</v>
+        <v>593</v>
       </c>
       <c r="F29" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="F30" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>316</v>
+        <v>564</v>
       </c>
       <c r="F31" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>315</v>
+        <v>565</v>
       </c>
       <c r="F32" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="F33" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>258</v>
+        <v>48</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F34" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="F35" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="F36" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>257</v>
+        <v>542</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>257</v>
+        <v>542</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>321</v>
+        <v>569</v>
       </c>
       <c r="F37" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>133</v>
+        <v>545</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>133</v>
+        <v>545</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>322</v>
+        <v>570</v>
       </c>
       <c r="F38" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="F39" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>110</v>
+        <v>562</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="F40" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>264</v>
+        <v>563</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="F41" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="F42" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>137</v>
+        <v>561</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="F44" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>255</v>
+        <v>560</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>255</v>
+        <v>540</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F45" s="3">
-        <v>42</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>558</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>89</v>
+        <v>541</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F46" s="3">
-        <v>43</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>140</v>
+        <v>559</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>140</v>
+        <v>544</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F47" s="3">
-        <v>44</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F48" s="3">
+        <v>36</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" t="s">
-        <v>245</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B49" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="3">
+        <v>37</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B50" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" s="3">
+        <v>38</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" t="s">
-        <v>545</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="3">
+        <v>39</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F52" s="3">
+        <v>40</v>
+      </c>
       <c r="G52" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B53" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B53" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" s="3">
+        <v>41</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B54" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="B54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F54" s="3">
+        <v>42</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B55" t="s">
-        <v>204</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="3">
+        <v>43</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F56" s="3">
+        <v>44</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>182</v>
+      <c r="B57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -3379,18 +3512,18 @@
         <v>204</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -3398,512 +3531,512 @@
         <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>524</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
-      </c>
-      <c r="D70" t="s">
-        <v>104</v>
+        <v>177</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>209</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>209</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>161</v>
+        <v>220</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>209</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B79" t="s">
-        <v>208</v>
-      </c>
-      <c r="C79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>209</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>209</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C85" t="s">
-        <v>228</v>
-      </c>
-      <c r="D85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -3911,18 +4044,18 @@
         <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -3930,18 +4063,18 @@
         <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -3949,18 +4082,18 @@
         <v>208</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>209</v>
       </c>
@@ -3968,265 +4101,265 @@
         <v>208</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>202</v>
-      </c>
-      <c r="B95" t="s">
-        <v>212</v>
-      </c>
-      <c r="C95" t="s">
-        <v>232</v>
-      </c>
-      <c r="D95" t="s">
-        <v>183</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>202</v>
       </c>
@@ -4234,18 +4367,18 @@
         <v>212</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>202</v>
       </c>
@@ -4253,493 +4386,493 @@
         <v>212</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" t="s">
+        <v>73</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>202</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="D108" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>202</v>
-      </c>
-      <c r="B110" t="s">
-        <v>219</v>
-      </c>
-      <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>180</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>202</v>
-      </c>
-      <c r="B111" t="s">
-        <v>219</v>
-      </c>
-      <c r="C111" t="s">
-        <v>218</v>
-      </c>
-      <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C112" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="D113" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+      <c r="C115" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" t="s">
+        <v>197</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" t="s">
-        <v>214</v>
-      </c>
-      <c r="C117" t="s">
-        <v>38</v>
-      </c>
-      <c r="D117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" t="s">
-        <v>38</v>
-      </c>
-      <c r="D118" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>202</v>
-      </c>
-      <c r="B119" t="s">
-        <v>214</v>
-      </c>
-      <c r="C119" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C121" t="s">
+        <v>121</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>202</v>
-      </c>
-      <c r="B120" t="s">
-        <v>214</v>
-      </c>
-      <c r="C120" t="s">
-        <v>38</v>
-      </c>
-      <c r="D120" t="s">
-        <v>37</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>202</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C123" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D124" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>202</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C125" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D125" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>202</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C127" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D127" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C128" t="s">
-        <v>229</v>
-      </c>
-      <c r="D128" t="s">
-        <v>69</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>202</v>
-      </c>
-      <c r="B129" t="s">
-        <v>214</v>
-      </c>
-      <c r="C129" t="s">
-        <v>229</v>
-      </c>
-      <c r="D129" t="s">
-        <v>70</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C129" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -4747,18 +4880,18 @@
         <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -4766,18 +4899,18 @@
         <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>202</v>
       </c>
@@ -4785,18 +4918,18 @@
         <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -4804,56 +4937,56 @@
         <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>202</v>
-      </c>
-      <c r="B134" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C134" t="s">
-        <v>213</v>
-      </c>
-      <c r="D134" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C135" t="s">
-        <v>213</v>
-      </c>
-      <c r="D135" t="s">
-        <v>178</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -4861,18 +4994,18 @@
         <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>202</v>
       </c>
@@ -4880,18 +5013,18 @@
         <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>202</v>
       </c>
@@ -4899,18 +5032,18 @@
         <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D138" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -4918,18 +5051,18 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>202</v>
       </c>
@@ -4937,265 +5070,265 @@
         <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="D140" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s">
+        <v>214</v>
+      </c>
+      <c r="C141" t="s">
+        <v>229</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" t="s">
+        <v>229</v>
+      </c>
+      <c r="D142" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" t="s">
+        <v>85</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>214</v>
+      </c>
+      <c r="C144" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>202</v>
+      </c>
+      <c r="B145" t="s">
+        <v>214</v>
+      </c>
+      <c r="C145" t="s">
+        <v>213</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="D147" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>202</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="D150" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>202</v>
+      </c>
+      <c r="B151" t="s">
+        <v>214</v>
+      </c>
+      <c r="C151" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" t="s">
+        <v>163</v>
+      </c>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>202</v>
+      </c>
+      <c r="B152" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" t="s">
+        <v>222</v>
+      </c>
+      <c r="D152" t="s">
+        <v>190</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>202</v>
+      </c>
+      <c r="B153" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>202</v>
       </c>
@@ -5203,18 +5336,18 @@
         <v>217</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>202</v>
       </c>
@@ -5222,550 +5355,550 @@
         <v>217</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>202</v>
-      </c>
-      <c r="B157" t="s">
-        <v>210</v>
-      </c>
-      <c r="C157" t="s">
-        <v>225</v>
-      </c>
-      <c r="D157" t="s">
-        <v>246</v>
-      </c>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>202</v>
-      </c>
-      <c r="B158" t="s">
-        <v>210</v>
-      </c>
-      <c r="C158" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" t="s">
-        <v>27</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>202</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="D159" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>202</v>
       </c>
       <c r="B160" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="D160" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C161" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="D161" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>202</v>
       </c>
       <c r="B162" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C162" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>202</v>
-      </c>
-      <c r="B164" t="s">
-        <v>235</v>
-      </c>
-      <c r="C164" t="s">
-        <v>135</v>
-      </c>
-      <c r="D164" t="s">
-        <v>119</v>
-      </c>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>202</v>
+      </c>
+      <c r="B163" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" t="s">
+        <v>74</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>202</v>
-      </c>
-      <c r="B166" t="s">
-        <v>235</v>
-      </c>
-      <c r="C166" t="s">
-        <v>135</v>
-      </c>
-      <c r="D166" t="s">
-        <v>166</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>202</v>
-      </c>
-      <c r="B167" t="s">
-        <v>235</v>
-      </c>
-      <c r="C167" t="s">
-        <v>135</v>
-      </c>
-      <c r="D167" t="s">
-        <v>184</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>202</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C170" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="D170" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>202</v>
       </c>
       <c r="B171" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="D171" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C172" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D172" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>202</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C173" t="s">
-        <v>26</v>
+        <v>225</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>202</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="D174" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>202</v>
-      </c>
-      <c r="B176" t="s">
-        <v>201</v>
-      </c>
-      <c r="C176" t="s">
-        <v>58</v>
-      </c>
-      <c r="D176" t="s">
-        <v>58</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" t="s">
-        <v>201</v>
-      </c>
-      <c r="C177" t="s">
-        <v>65</v>
-      </c>
-      <c r="D177" t="s">
-        <v>65</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>202</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C178" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="D178" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>202</v>
-      </c>
-      <c r="B179" t="s">
-        <v>201</v>
-      </c>
-      <c r="C179" t="s">
-        <v>92</v>
-      </c>
-      <c r="D179" t="s">
-        <v>92</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>202</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C180" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>202</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C181" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>202</v>
-      </c>
-      <c r="B182" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C182" t="s">
-        <v>94</v>
-      </c>
-      <c r="D182" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" t="s">
-        <v>201</v>
-      </c>
-      <c r="C183" t="s">
-        <v>94</v>
-      </c>
-      <c r="D183" t="s">
-        <v>247</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C183" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>202</v>
       </c>
@@ -5773,18 +5906,18 @@
         <v>201</v>
       </c>
       <c r="C184" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -5792,18 +5925,18 @@
         <v>201</v>
       </c>
       <c r="C185" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -5811,18 +5944,18 @@
         <v>201</v>
       </c>
       <c r="C186" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>202</v>
       </c>
@@ -5830,18 +5963,18 @@
         <v>201</v>
       </c>
       <c r="C187" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>202</v>
       </c>
@@ -5849,18 +5982,18 @@
         <v>201</v>
       </c>
       <c r="C188" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -5868,18 +6001,18 @@
         <v>201</v>
       </c>
       <c r="C189" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D189" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -5887,18 +6020,18 @@
         <v>201</v>
       </c>
       <c r="C190" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D190" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -5906,18 +6039,18 @@
         <v>201</v>
       </c>
       <c r="C191" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>202</v>
       </c>
@@ -5925,18 +6058,18 @@
         <v>201</v>
       </c>
       <c r="C192" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D192" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>202</v>
       </c>
@@ -5944,18 +6077,18 @@
         <v>201</v>
       </c>
       <c r="C193" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D193" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>202</v>
       </c>
@@ -5963,18 +6096,18 @@
         <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D194" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -5982,18 +6115,18 @@
         <v>201</v>
       </c>
       <c r="C195" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D195" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -6001,18 +6134,18 @@
         <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="D196" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -6020,10 +6153,10 @@
         <v>201</v>
       </c>
       <c r="C197" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="D197" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -6031,7 +6164,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -6039,18 +6172,18 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -6058,18 +6191,18 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="D199" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -6077,18 +6210,18 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="D200" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -6096,18 +6229,18 @@
         <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="D201" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -6115,18 +6248,18 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="D202" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -6134,18 +6267,18 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="D203" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -6153,436 +6286,436 @@
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="D204" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C206" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="D206" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>202</v>
       </c>
       <c r="B207" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C207" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D207" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>202</v>
       </c>
       <c r="B208" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C208" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D208" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D209" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>202</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D210" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>202</v>
       </c>
       <c r="B211" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C211" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D211" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D212" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>202</v>
       </c>
       <c r="B213" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D213" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>202</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D214" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>202</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>202</v>
       </c>
       <c r="B216" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C216" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D216" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>202</v>
       </c>
       <c r="B217" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C217" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D217" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>202</v>
       </c>
       <c r="B218" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C218" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D218" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>202</v>
       </c>
       <c r="B219" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C219" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>202</v>
       </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C220" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="D220" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>202</v>
       </c>
       <c r="B221" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C221" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="D221" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>202</v>
       </c>
       <c r="B222" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D222" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>202</v>
       </c>
       <c r="B223" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C223" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="D223" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>202</v>
       </c>
       <c r="B224" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C224" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="D224" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>202</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C225" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="D225" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>202</v>
       </c>
       <c r="B226" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C226" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="D226" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>202</v>
       </c>
@@ -6590,129 +6723,319 @@
         <v>207</v>
       </c>
       <c r="C227" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D227" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>210</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>202</v>
+      </c>
+      <c r="B228" t="s">
+        <v>207</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>202</v>
       </c>
       <c r="B229" t="s">
         <v>207</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" t="s">
         <v>226</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>548</v>
+      <c r="D229" t="s">
+        <v>44</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>558</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>202</v>
+      </c>
+      <c r="B230" t="s">
+        <v>207</v>
+      </c>
+      <c r="C230" t="s">
+        <v>226</v>
+      </c>
+      <c r="D230" t="s">
+        <v>45</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B231" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C231" t="s">
-        <v>234</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>549</v>
+        <v>226</v>
+      </c>
+      <c r="D231" t="s">
+        <v>46</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>202</v>
       </c>
       <c r="B232" t="s">
         <v>207</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" t="s">
         <v>226</v>
       </c>
-      <c r="D232" s="2" t="s">
-        <v>550</v>
+      <c r="D232" t="s">
+        <v>52</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>551</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>202</v>
+      </c>
+      <c r="B233" t="s">
+        <v>207</v>
+      </c>
+      <c r="C233" t="s">
+        <v>226</v>
+      </c>
+      <c r="D233" t="s">
+        <v>256</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2" t="s">
-        <v>557</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>202</v>
+      </c>
+      <c r="B234" t="s">
+        <v>207</v>
+      </c>
+      <c r="C234" t="s">
+        <v>226</v>
+      </c>
+      <c r="D234" t="s">
+        <v>111</v>
+      </c>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>202</v>
+      </c>
+      <c r="B235" t="s">
+        <v>207</v>
+      </c>
+      <c r="C235" t="s">
+        <v>226</v>
+      </c>
+      <c r="D235" t="s">
+        <v>122</v>
+      </c>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>202</v>
+      </c>
+      <c r="B236" t="s">
+        <v>207</v>
+      </c>
+      <c r="C236" t="s">
+        <v>226</v>
+      </c>
+      <c r="D236" t="s">
+        <v>268</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>202</v>
+      </c>
+      <c r="B237" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>202</v>
+      </c>
+      <c r="B238" t="s">
+        <v>207</v>
+      </c>
+      <c r="C238" t="s">
+        <v>206</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>202</v>
+      </c>
+      <c r="B239" t="s">
+        <v>207</v>
+      </c>
+      <c r="C239" t="s">
+        <v>206</v>
+      </c>
+      <c r="D239" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>202</v>
+      </c>
+      <c r="B240" t="s">
+        <v>207</v>
+      </c>
+      <c r="C240" t="s">
+        <v>206</v>
+      </c>
+      <c r="D240" t="s">
+        <v>49</v>
+      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>202</v>
+      </c>
+      <c r="B241" t="s">
+        <v>207</v>
+      </c>
+      <c r="C241" t="s">
+        <v>206</v>
+      </c>
+      <c r="D241" t="s">
+        <v>143</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>202</v>
+      </c>
+      <c r="B242" t="s">
+        <v>207</v>
+      </c>
+      <c r="C242" t="s">
+        <v>206</v>
+      </c>
+      <c r="D242" t="s">
+        <v>171</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>202</v>
+      </c>
+      <c r="B243" t="s">
+        <v>207</v>
+      </c>
+      <c r="C243" t="s">
+        <v>266</v>
+      </c>
+      <c r="D243" t="s">
+        <v>266</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="601">
   <si>
     <t>Level1</t>
   </si>
@@ -511,9 +511,6 @@
     <t>Protein-energy malnutrition</t>
   </si>
   <si>
-    <t>Pulmonary aspiration and foreign body in treachea or lung</t>
-  </si>
-  <si>
     <t>Pyogenic and reactive arthritis</t>
   </si>
   <si>
@@ -1796,6 +1793,30 @@
   </si>
   <si>
     <t>A.2.09</t>
+  </si>
+  <si>
+    <t>Anogenital herpes</t>
+  </si>
+  <si>
+    <t>std_herpes</t>
+  </si>
+  <si>
+    <t>Chagas disease</t>
+  </si>
+  <si>
+    <t>ntd_chagas</t>
+  </si>
+  <si>
+    <t>A.3.7</t>
+  </si>
+  <si>
+    <t>Other sexually transmitted diseases</t>
+  </si>
+  <si>
+    <t>std_other</t>
+  </si>
+  <si>
+    <t>Pulmonary aspiration and foreign body in trachea or lung</t>
   </si>
 </sst>
 </file>
@@ -1886,8 +1907,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G243" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G243"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G246" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G246"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2191,7 +2212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2217,13 +2238,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,38 +2267,38 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>79</v>
@@ -2286,21 +2307,21 @@
         <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2309,21 +2330,21 @@
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -2332,481 +2353,481 @@
         <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F10" s="2">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D12" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D13" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F13" s="2">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F14" s="2">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D16" t="s">
         <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F19" s="2">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F20" s="2">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F21" s="3">
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F22" s="3">
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
         <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F23" s="2">
         <v>21</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D25" t="s">
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F25" s="2">
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F26" s="2">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>54</v>
@@ -2815,136 +2836,136 @@
         <v>54</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F27" s="3">
         <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F28" s="3">
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F29" s="3">
         <v>27</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" s="3">
         <v>28</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F31" s="3">
         <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F32" s="3">
         <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>97</v>
@@ -2953,56 +2974,56 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>595</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>595</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F34" s="3">
         <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>335</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F35" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>334</v>
@@ -3010,160 +3031,160 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F36" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>542</v>
+        <v>136</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>542</v>
+        <v>136</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F37" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>552</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F38" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>99</v>
+        <v>544</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>99</v>
+        <v>544</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>597</v>
       </c>
       <c r="F39" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>477</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>562</v>
+        <v>99</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F40" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F41" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>251</v>
+        <v>562</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F42" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>475</v>
@@ -3171,484 +3192,488 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>561</v>
+        <v>250</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F43" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>133</v>
+        <v>560</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F44" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>560</v>
+        <v>133</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>540</v>
+        <v>133</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>42</v>
+      </c>
       <c r="G45" s="3" t="s">
-        <v>550</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>263</v>
+        <v>558</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>263</v>
+        <v>543</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F48" s="3">
-        <v>36</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F49" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F52" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F53" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F55" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F56" s="3">
+        <v>43</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F56" s="3">
+      <c r="E57" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" s="3">
         <v>44</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2" t="s">
-        <v>536</v>
+      <c r="G57" s="3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="A58" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" t="s">
-        <v>244</v>
+      <c r="B58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>324</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>525</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="A62" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" t="s">
+        <v>523</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>322</v>
+      <c r="D63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C64" t="s">
         <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
         <v>129</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3658,187 +3683,187 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
         <v>129</v>
       </c>
       <c r="D66" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
         <v>129</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
         <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>547</v>
+        <v>176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>557</v>
+        <v>332</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" t="s">
-        <v>16</v>
+        <v>176</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
+        <v>176</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" t="s">
-        <v>18</v>
+        <v>176</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>522</v>
+        <v>599</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>538</v>
+        <v>219</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -3848,890 +3873,890 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
-      </c>
-      <c r="D77" t="s">
-        <v>175</v>
+        <v>219</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
         <v>517</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>209</v>
-      </c>
-      <c r="B82" t="s">
-        <v>240</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="A82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D82" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2" t="s">
-        <v>498</v>
+      <c r="C82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="A85" t="s">
         <v>208</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3" t="s">
-        <v>523</v>
+      <c r="B85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>374</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>209</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="A88" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C88" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" t="s">
-        <v>199</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2" t="s">
-        <v>512</v>
+      <c r="B88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="A89" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3" t="s">
-        <v>501</v>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="A90" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3" t="s">
-        <v>510</v>
+      <c r="B90" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" t="s">
+        <v>215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>115</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>209</v>
+      <c r="A91" t="s">
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>539</v>
+        <v>207</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>198</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>209</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="A92" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C92" t="s">
-        <v>223</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2" t="s">
-        <v>503</v>
+      <c r="B92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>209</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="A93" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C93" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" t="s">
-        <v>191</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2" t="s">
-        <v>504</v>
+      <c r="B93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>209</v>
+      <c r="A94" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
-      </c>
-      <c r="C94" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" t="s">
-        <v>193</v>
+        <v>207</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="A95" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3" t="s">
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>222</v>
+      </c>
+      <c r="D95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="A96" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3" t="s">
-        <v>511</v>
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>209</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="A98" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2" t="s">
-        <v>509</v>
+      <c r="B98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="A99" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C99" t="s">
-        <v>241</v>
-      </c>
-      <c r="D99" t="s">
-        <v>159</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2" t="s">
-        <v>514</v>
+      <c r="B99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D101" t="s">
-        <v>262</v>
+        <v>600</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="A102" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3" t="s">
-        <v>505</v>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3" t="s">
-        <v>423</v>
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3" t="s">
-        <v>419</v>
+      <c r="A104" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>240</v>
+      </c>
+      <c r="D104" t="s">
+        <v>261</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>202</v>
-      </c>
-      <c r="B106" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" t="s">
-        <v>232</v>
-      </c>
-      <c r="D106" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" t="s">
         <v>73</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>202</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107" t="s">
-        <v>232</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" t="s">
         <v>91</v>
       </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>202</v>
-      </c>
-      <c r="B108" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" t="s">
-        <v>183</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111" t="s">
+        <v>182</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>202</v>
-      </c>
-      <c r="B112" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" t="s">
-        <v>120</v>
-      </c>
-      <c r="D112" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>202</v>
-      </c>
-      <c r="B113" t="s">
-        <v>212</v>
-      </c>
-      <c r="C113" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" t="s">
-        <v>120</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>202</v>
-      </c>
-      <c r="B114" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" t="s">
-        <v>120</v>
-      </c>
-      <c r="D114" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2" t="s">
-        <v>424</v>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" t="s">
         <v>120</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3" t="s">
-        <v>422</v>
+      <c r="A116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" t="s">
+        <v>120</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3" t="s">
-        <v>410</v>
+      <c r="A117" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3" t="s">
-        <v>436</v>
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>88</v>
+        <v>167</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>202</v>
-      </c>
-      <c r="B121" t="s">
-        <v>219</v>
-      </c>
-      <c r="C121" t="s">
-        <v>121</v>
-      </c>
-      <c r="D121" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2" t="s">
-        <v>433</v>
+      <c r="A121" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4740,587 +4765,587 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>202</v>
-      </c>
-      <c r="B123" t="s">
-        <v>219</v>
-      </c>
-      <c r="C123" t="s">
-        <v>121</v>
-      </c>
-      <c r="D123" t="s">
-        <v>180</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2" t="s">
-        <v>406</v>
+      <c r="A123" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>202</v>
-      </c>
-      <c r="B125" t="s">
-        <v>219</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="A125" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D125" t="s">
-        <v>42</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2" t="s">
-        <v>437</v>
+      <c r="C125" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>218</v>
+      </c>
+      <c r="C128" t="s">
+        <v>217</v>
+      </c>
+      <c r="D128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129" t="s">
+        <v>141</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>202</v>
-      </c>
-      <c r="B131" t="s">
-        <v>214</v>
-      </c>
-      <c r="C131" t="s">
-        <v>38</v>
-      </c>
-      <c r="D131" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2" t="s">
-        <v>465</v>
+      <c r="A131" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>202</v>
-      </c>
-      <c r="B132" t="s">
-        <v>214</v>
-      </c>
-      <c r="C132" t="s">
-        <v>38</v>
-      </c>
-      <c r="D132" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2" t="s">
-        <v>412</v>
+      <c r="A132" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C134" s="3" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" t="s">
+        <v>213</v>
+      </c>
+      <c r="C135" t="s">
         <v>38</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3" t="s">
-        <v>385</v>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>202</v>
-      </c>
-      <c r="B137" t="s">
-        <v>214</v>
-      </c>
-      <c r="C137" t="s">
-        <v>238</v>
-      </c>
-      <c r="D137" t="s">
-        <v>83</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>202</v>
-      </c>
-      <c r="B138" t="s">
-        <v>214</v>
-      </c>
-      <c r="C138" t="s">
-        <v>238</v>
-      </c>
-      <c r="D138" t="s">
-        <v>95</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D139" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D140" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>331</v>
+        <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D146" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>375</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D147" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D148" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C149" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D149" t="s">
-        <v>267</v>
+        <v>63</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D150" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D151" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -5329,1575 +5354,1575 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3" t="s">
-        <v>446</v>
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" t="s">
+        <v>213</v>
+      </c>
+      <c r="C154" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3" t="s">
-        <v>453</v>
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" t="s">
+        <v>213</v>
+      </c>
+      <c r="C155" t="s">
+        <v>221</v>
+      </c>
+      <c r="D155" t="s">
+        <v>189</v>
+      </c>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3" t="s">
-        <v>443</v>
+      <c r="A156" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" t="s">
+        <v>221</v>
+      </c>
+      <c r="D156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>202</v>
-      </c>
-      <c r="B159" t="s">
-        <v>217</v>
-      </c>
-      <c r="C159" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" t="s">
-        <v>29</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2" t="s">
-        <v>455</v>
+      <c r="A159" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>202</v>
-      </c>
-      <c r="B160" t="s">
-        <v>217</v>
-      </c>
-      <c r="C160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D160" t="s">
-        <v>47</v>
-      </c>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2" t="s">
-        <v>452</v>
+      <c r="A160" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>202</v>
-      </c>
-      <c r="B161" t="s">
-        <v>217</v>
-      </c>
-      <c r="C161" t="s">
-        <v>124</v>
-      </c>
-      <c r="D161" t="s">
-        <v>51</v>
-      </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2" t="s">
-        <v>451</v>
+      <c r="A161" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" t="s">
         <v>124</v>
       </c>
       <c r="D162" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" t="s">
         <v>124</v>
       </c>
       <c r="D163" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="A164" t="s">
+        <v>201</v>
+      </c>
+      <c r="B164" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" t="s">
         <v>124</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>201</v>
+      </c>
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165" t="s">
         <v>124</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3" t="s">
-        <v>454</v>
+      <c r="D165" t="s">
+        <v>68</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3" t="s">
-        <v>450</v>
+      <c r="A166" t="s">
+        <v>201</v>
+      </c>
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" t="s">
+        <v>124</v>
+      </c>
+      <c r="D166" t="s">
+        <v>74</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>202</v>
-      </c>
-      <c r="B170" t="s">
-        <v>210</v>
-      </c>
-      <c r="C170" t="s">
-        <v>225</v>
-      </c>
-      <c r="D170" t="s">
-        <v>246</v>
-      </c>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2" t="s">
-        <v>397</v>
+      <c r="A170" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>202</v>
-      </c>
-      <c r="B171" t="s">
-        <v>210</v>
-      </c>
-      <c r="C171" t="s">
-        <v>225</v>
-      </c>
-      <c r="D171" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2" t="s">
-        <v>394</v>
+      <c r="A171" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>202</v>
-      </c>
-      <c r="B172" t="s">
-        <v>210</v>
-      </c>
-      <c r="C172" t="s">
-        <v>225</v>
-      </c>
-      <c r="D172" t="s">
-        <v>249</v>
-      </c>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2" t="s">
-        <v>396</v>
+      <c r="A172" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C173" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D173" t="s">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C174" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D174" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C175" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>526</v>
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" t="s">
+        <v>209</v>
+      </c>
+      <c r="C176" t="s">
+        <v>224</v>
+      </c>
+      <c r="D176" t="s">
+        <v>118</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2" t="s">
-        <v>531</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3" t="s">
-        <v>391</v>
+      <c r="A177" t="s">
+        <v>201</v>
+      </c>
+      <c r="B177" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" t="s">
+        <v>224</v>
+      </c>
+      <c r="D177" t="s">
+        <v>125</v>
+      </c>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C178" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3" t="s">
-        <v>414</v>
+      <c r="A179" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>202</v>
-      </c>
-      <c r="B180" t="s">
-        <v>235</v>
-      </c>
-      <c r="C180" t="s">
-        <v>135</v>
-      </c>
-      <c r="D180" t="s">
-        <v>166</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2" t="s">
-        <v>460</v>
+      <c r="A180" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B181" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C181" t="s">
         <v>135</v>
       </c>
       <c r="D181" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3" t="s">
-        <v>359</v>
+      <c r="A183" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" t="s">
+        <v>234</v>
+      </c>
+      <c r="C183" t="s">
+        <v>135</v>
+      </c>
+      <c r="D183" t="s">
+        <v>165</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B184" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>371</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>202</v>
-      </c>
-      <c r="B185" t="s">
-        <v>201</v>
-      </c>
-      <c r="C185" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" t="s">
-        <v>23</v>
-      </c>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2" t="s">
-        <v>360</v>
+      <c r="A185" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>202</v>
-      </c>
-      <c r="B186" t="s">
-        <v>201</v>
-      </c>
-      <c r="C186" t="s">
-        <v>24</v>
-      </c>
-      <c r="D186" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2" t="s">
-        <v>352</v>
+      <c r="A186" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B188" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C189" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C190" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D190" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C191" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D191" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C192" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D192" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D193" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C194" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D194" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C195" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D195" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C196" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D197" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
         <v>94</v>
       </c>
       <c r="D198" t="s">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
         <v>94</v>
       </c>
       <c r="D199" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D201" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D202" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D203" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C204" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D204" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B205" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C205" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D205" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D206" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D207" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D208" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C209" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D209" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B210" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C210" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D210" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D211" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="D212" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B213" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C213" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D213" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C214" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="D214" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B215" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C215" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D215" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B216" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C216" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D216" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B217" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C217" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D217" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D218" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B219" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D219" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B220" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C220" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="D220" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C221" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="D221" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>201</v>
+      </c>
+      <c r="B222" t="s">
         <v>202</v>
       </c>
-      <c r="B222" t="s">
-        <v>203</v>
-      </c>
       <c r="C222" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D222" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>201</v>
+      </c>
+      <c r="B223" t="s">
         <v>202</v>
       </c>
-      <c r="B223" t="s">
-        <v>203</v>
-      </c>
       <c r="C223" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D223" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>201</v>
+      </c>
+      <c r="B224" t="s">
         <v>202</v>
       </c>
-      <c r="B224" t="s">
-        <v>203</v>
-      </c>
       <c r="C224" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D224" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>201</v>
+      </c>
+      <c r="B225" t="s">
         <v>202</v>
       </c>
-      <c r="B225" t="s">
-        <v>203</v>
-      </c>
       <c r="C225" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D225" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>201</v>
+      </c>
+      <c r="B226" t="s">
         <v>202</v>
       </c>
-      <c r="B226" t="s">
-        <v>203</v>
-      </c>
       <c r="C226" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D226" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>201</v>
+      </c>
+      <c r="B227" t="s">
         <v>202</v>
       </c>
-      <c r="B227" t="s">
-        <v>207</v>
-      </c>
       <c r="C227" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="D227" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>491</v>
+        <v>406</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>201</v>
+      </c>
+      <c r="B228" t="s">
         <v>202</v>
       </c>
-      <c r="B228" t="s">
-        <v>207</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>527</v>
+      <c r="C228" t="s">
+        <v>138</v>
+      </c>
+      <c r="D228" t="s">
+        <v>138</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2" t="s">
-        <v>532</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>201</v>
+      </c>
+      <c r="B229" t="s">
         <v>202</v>
       </c>
-      <c r="B229" t="s">
-        <v>207</v>
-      </c>
       <c r="C229" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="D229" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2" t="s">
-        <v>488</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B230" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B231" t="s">
-        <v>207</v>
-      </c>
-      <c r="C231" t="s">
-        <v>226</v>
-      </c>
-      <c r="D231" t="s">
-        <v>46</v>
+        <v>206</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B232" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D232" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B233" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D233" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B234" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D234" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B235" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C235" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D235" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B236" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C236" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D236" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -6907,135 +6932,192 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B237" t="s">
-        <v>207</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>529</v>
+        <v>206</v>
+      </c>
+      <c r="C237" t="s">
+        <v>225</v>
+      </c>
+      <c r="D237" t="s">
+        <v>111</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B238" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C238" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D238" t="s">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2" t="s">
-        <v>314</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B239" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C239" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D239" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B240" t="s">
-        <v>207</v>
-      </c>
-      <c r="C240" t="s">
         <v>206</v>
       </c>
-      <c r="D240" t="s">
-        <v>49</v>
+      <c r="C240" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B241" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C241" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D241" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B242" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C242" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D242" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2" t="s">
-        <v>336</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B243" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C243" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="D243" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2" t="s">
-        <v>494</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>201</v>
+      </c>
+      <c r="B244" t="s">
+        <v>206</v>
+      </c>
+      <c r="C244" t="s">
+        <v>205</v>
+      </c>
+      <c r="D244" t="s">
+        <v>143</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>201</v>
+      </c>
+      <c r="B245" t="s">
+        <v>206</v>
+      </c>
+      <c r="C245" t="s">
+        <v>205</v>
+      </c>
+      <c r="D245" t="s">
+        <v>170</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>201</v>
+      </c>
+      <c r="B246" t="s">
+        <v>206</v>
+      </c>
+      <c r="C246" t="s">
+        <v>265</v>
+      </c>
+      <c r="D246" t="s">
+        <v>265</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="609">
   <si>
     <t>Level1</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Gastroesophageal reflux disease</t>
   </si>
   <si>
-    <t>genital candidiasis</t>
-  </si>
-  <si>
     <t>Genital prolapse</t>
   </si>
   <si>
@@ -1817,6 +1814,33 @@
   </si>
   <si>
     <t>Pulmonary aspiration and foreign body in trachea or lung</t>
+  </si>
+  <si>
+    <t>Amoebiasis</t>
+  </si>
+  <si>
+    <t>diarrhea_amoebiasis</t>
+  </si>
+  <si>
+    <t>A.2.01.9</t>
+  </si>
+  <si>
+    <t>gyne_endometr</t>
+  </si>
+  <si>
+    <t>Genital candidiasis</t>
+  </si>
+  <si>
+    <t>Endometriosis</t>
+  </si>
+  <si>
+    <t>Yellow fever</t>
+  </si>
+  <si>
+    <t>ntd_yellowfever</t>
+  </si>
+  <si>
+    <t>A.3.8</t>
   </si>
 </sst>
 </file>
@@ -1907,8 +1931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G246" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G246"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G249" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G249"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2212,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2238,13 +2262,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,371 +2291,371 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="2">
+        <v>272</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="2">
+        <v>273</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>274</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>280</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F8" s="2">
+        <v>570</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F9" s="2">
+        <v>571</v>
+      </c>
+      <c r="F9">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F10" s="2">
+        <v>572</v>
+      </c>
+      <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F11" s="2">
+        <v>573</v>
+      </c>
+      <c r="F11">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" s="2">
+        <v>574</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F13" s="2">
+        <v>575</v>
+      </c>
+      <c r="F13">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>545</v>
+        <v>274</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F14" s="2">
+        <v>576</v>
+      </c>
+      <c r="F14">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>555</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
+        <v>274</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>284</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F16" s="2">
+        <v>577</v>
+      </c>
+      <c r="F16">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>427</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F17" s="2">
+        <v>578</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F18" s="2">
+        <v>579</v>
+      </c>
+      <c r="F18">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2640,21 +2664,21 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F19" s="2">
+        <v>580</v>
+      </c>
+      <c r="F19">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2663,21 +2687,21 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F20" s="2">
+        <v>581</v>
+      </c>
+      <c r="F20">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2685,204 +2709,204 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>426</v>
+      <c r="G21" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F22" s="3">
         <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="A23" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F23" s="3">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>398</v>
+      <c r="G23" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F24" s="2">
+        <v>585</v>
+      </c>
+      <c r="F24">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F25" s="2">
+        <v>586</v>
+      </c>
+      <c r="F25">
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>233</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>527</v>
+        <v>232</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F26" s="2">
+        <v>587</v>
+      </c>
+      <c r="F26">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>533</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F27" s="2">
         <v>25</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>319</v>
+      <c r="G27" s="2" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F28" s="3">
         <v>26</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F29" s="3">
         <v>27</v>
@@ -2893,160 +2917,160 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>289</v>
+        <v>591</v>
       </c>
       <c r="F30" s="3">
         <v>28</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>536</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>536</v>
+        <v>194</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>563</v>
+        <v>288</v>
       </c>
       <c r="F31" s="3">
         <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>532</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F32" s="3">
         <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>97</v>
+        <v>541</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>291</v>
+        <v>563</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>331</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>595</v>
+        <v>96</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>595</v>
+        <v>96</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F34" s="3">
         <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>596</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>594</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>594</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F35" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>249</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>293</v>
       </c>
       <c r="F36" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>333</v>
@@ -3054,137 +3078,137 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>568</v>
+        <v>292</v>
       </c>
       <c r="F37" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F38" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>551</v>
+        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>544</v>
+        <v>135</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>544</v>
+        <v>135</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="F39" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>554</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>99</v>
+        <v>540</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>99</v>
+        <v>540</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>295</v>
+        <v>596</v>
       </c>
       <c r="F40" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>257</v>
+        <v>543</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>296</v>
+        <v>608</v>
       </c>
       <c r="F41" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>562</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F42" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>475</v>
@@ -3192,68 +3216,68 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F44" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F45" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>473</v>
@@ -3261,3863 +3285,4314 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>559</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>539</v>
+        <v>255</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>298</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44</v>
+      </c>
       <c r="G46" s="3" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>540</v>
+        <v>132</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45</v>
+      </c>
       <c r="G47" s="3" t="s">
-        <v>550</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>558</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>564</v>
+      </c>
+      <c r="F48" s="3">
+        <v>46</v>
+      </c>
       <c r="G48" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>262</v>
+        <v>556</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>262</v>
+        <v>539</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>301</v>
+        <v>565</v>
       </c>
       <c r="F49" s="3">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>557</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>110</v>
+        <v>542</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>302</v>
+        <v>566</v>
       </c>
       <c r="F50" s="3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F51" s="3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F52" s="3">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F53" s="3">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>164</v>
+        <v>251</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F54" s="3">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F55" s="3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F56" s="3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F57" s="3">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>535</v>
+      <c r="A58" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F58" s="3">
+        <v>56</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>204</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2" t="s">
-        <v>323</v>
+      <c r="B59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" s="3">
+        <v>57</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>204</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="A60" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" t="s">
-        <v>244</v>
+      <c r="B60" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2">
+        <v>58</v>
+      </c>
       <c r="G60" s="2" t="s">
-        <v>324</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
+      <c r="F61">
+        <v>59</v>
+      </c>
       <c r="G61" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62">
+        <v>60</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>203</v>
       </c>
-      <c r="C62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" t="s">
-        <v>523</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3" t="s">
-        <v>326</v>
+      <c r="B63" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63">
+        <v>61</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>522</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64">
+        <v>62</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>204</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
-      </c>
-      <c r="C65" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2" t="s">
-        <v>329</v>
+      <c r="B65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
+        <v>63</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
+      <c r="F66">
+        <v>64</v>
+      </c>
       <c r="G66" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
+      <c r="F67">
+        <v>65</v>
+      </c>
       <c r="G67" s="2" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+      <c r="F68">
+        <v>66</v>
+      </c>
       <c r="G68" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="F69">
+        <v>67</v>
+      </c>
       <c r="G69" s="2" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
+      <c r="F70">
+        <v>68</v>
+      </c>
       <c r="G70" s="2" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>593</v>
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>268</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+      <c r="F71">
+        <v>69</v>
+      </c>
       <c r="G71" s="2" t="s">
-        <v>594</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>546</v>
+        <v>175</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
+      <c r="F72">
+        <v>70</v>
+      </c>
       <c r="G72" s="2" t="s">
-        <v>556</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2">
+        <v>71</v>
+      </c>
       <c r="G73" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2">
+        <v>72</v>
+      </c>
       <c r="G74" s="2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
+      <c r="F75" s="2">
+        <v>73</v>
+      </c>
       <c r="G75" s="2" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
+      <c r="F76">
+        <v>74</v>
+      </c>
       <c r="G76" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>537</v>
+        <v>218</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
+      <c r="F77">
+        <v>75</v>
+      </c>
       <c r="G77" s="2" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
+      <c r="F78">
+        <v>76</v>
+      </c>
       <c r="G78" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
-      </c>
-      <c r="D79" t="s">
-        <v>173</v>
+        <v>218</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2">
+        <v>77</v>
+      </c>
       <c r="G79" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
+      <c r="F80">
+        <v>78</v>
+      </c>
       <c r="G80" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
+      <c r="F81">
+        <v>79</v>
+      </c>
       <c r="G81" s="2" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3" t="s">
-        <v>494</v>
+      <c r="A82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82">
+        <v>80</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+      <c r="F83">
+        <v>81</v>
+      </c>
       <c r="G83" s="2" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="A84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D84" t="s">
-        <v>103</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2" t="s">
-        <v>498</v>
+      <c r="C84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3">
+        <v>82</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+      <c r="F85">
+        <v>83</v>
+      </c>
       <c r="G85" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="F86">
+        <v>84</v>
+      </c>
       <c r="G86" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C87" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s">
         <v>238</v>
       </c>
-      <c r="D87" t="s">
-        <v>153</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
+      <c r="C88" t="s">
+        <v>237</v>
+      </c>
+      <c r="D88" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88">
+        <v>86</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89">
+        <v>87</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B90" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D89" t="s">
-        <v>161</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" t="s">
-        <v>207</v>
-      </c>
-      <c r="C90" t="s">
-        <v>215</v>
-      </c>
-      <c r="D90" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2" t="s">
-        <v>506</v>
+      <c r="D90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3">
+        <v>88</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91">
+        <v>89</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>207</v>
       </c>
-      <c r="C91" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>214</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93">
+        <v>91</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="3">
+        <v>92</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="B95" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="E95" s="3"/>
+      <c r="F95" s="3">
+        <v>93</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" t="s">
-        <v>222</v>
-      </c>
-      <c r="D95" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>208</v>
-      </c>
       <c r="B96" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" t="s">
-        <v>222</v>
-      </c>
-      <c r="D96" t="s">
-        <v>190</v>
+        <v>206</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2">
+        <v>94</v>
+      </c>
       <c r="G96" s="2" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97">
+        <v>95</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>207</v>
       </c>
-      <c r="C97" t="s">
-        <v>222</v>
-      </c>
-      <c r="D97" t="s">
-        <v>192</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98">
+        <v>96</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99">
+        <v>97</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="E100" s="3"/>
+      <c r="F100" s="3">
+        <v>98</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="B101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>207</v>
-      </c>
-      <c r="C101" t="s">
-        <v>227</v>
-      </c>
-      <c r="D101" t="s">
-        <v>600</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2" t="s">
-        <v>508</v>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
+        <v>99</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
+      <c r="F102">
+        <v>100</v>
+      </c>
       <c r="G102" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>599</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+      <c r="F103">
+        <v>101</v>
+      </c>
       <c r="G103" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104">
+        <v>102</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>207</v>
       </c>
-      <c r="C104" t="s">
-        <v>240</v>
-      </c>
-      <c r="D104" t="s">
-        <v>261</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105">
+        <v>103</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3" t="s">
-        <v>422</v>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" t="s">
+        <v>260</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106">
+        <v>104</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3">
+        <v>105</v>
+      </c>
       <c r="G107" s="3" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3">
+        <v>106</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3">
+        <v>107</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>201</v>
-      </c>
-      <c r="B109" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" t="s">
-        <v>231</v>
-      </c>
-      <c r="D109" t="s">
-        <v>73</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>201</v>
-      </c>
-      <c r="B110" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" t="s">
-        <v>231</v>
-      </c>
-      <c r="D110" t="s">
-        <v>91</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2" t="s">
-        <v>404</v>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3">
+        <v>108</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D111" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
+      <c r="F111">
+        <v>109</v>
+      </c>
       <c r="G111" s="2" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3" t="s">
-        <v>415</v>
+      <c r="A112" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112">
+        <v>110</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3" t="s">
-        <v>410</v>
+      <c r="A113" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" t="s">
+        <v>230</v>
+      </c>
+      <c r="D113" t="s">
+        <v>181</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113">
+        <v>111</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3">
+        <v>112</v>
+      </c>
       <c r="G114" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>201</v>
-      </c>
-      <c r="B115" t="s">
-        <v>211</v>
-      </c>
-      <c r="C115" t="s">
-        <v>120</v>
-      </c>
-      <c r="D115" t="s">
-        <v>116</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
-        <v>416</v>
+      <c r="A115" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3">
+        <v>113</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>201</v>
-      </c>
-      <c r="B116" t="s">
-        <v>211</v>
-      </c>
-      <c r="C116" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" t="s">
-        <v>120</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2" t="s">
-        <v>414</v>
+      <c r="A116" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3">
+        <v>114</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="F117">
+        <v>115</v>
+      </c>
       <c r="G117" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="F118">
+        <v>116</v>
+      </c>
       <c r="G118" s="2" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="A119" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" t="s">
         <v>155</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3" t="s">
-        <v>421</v>
+      <c r="E119" s="2"/>
+      <c r="F119">
+        <v>117</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3" t="s">
-        <v>409</v>
+      <c r="A120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120">
+        <v>118</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="F121" s="3">
+        <v>119</v>
+      </c>
       <c r="G121" s="3" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
+      <c r="F122" s="3">
+        <v>120</v>
+      </c>
       <c r="G122" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+      <c r="F123" s="3">
+        <v>121</v>
+      </c>
       <c r="G123" s="3" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>201</v>
-      </c>
-      <c r="B124" t="s">
-        <v>218</v>
-      </c>
-      <c r="C124" t="s">
-        <v>121</v>
-      </c>
-      <c r="D124" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2" t="s">
-        <v>432</v>
+      <c r="A124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3">
+        <v>122</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
+      <c r="F125" s="3">
+        <v>123</v>
+      </c>
       <c r="G125" s="3" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
-        <v>179</v>
+        <v>33</v>
       </c>
       <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
+      <c r="F126">
+        <v>124</v>
+      </c>
       <c r="G126" s="2" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>201</v>
-      </c>
-      <c r="B127" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="A127" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2" t="s">
-        <v>437</v>
+      <c r="C127" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3">
+        <v>125</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C128" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
+      <c r="F128">
+        <v>126</v>
+      </c>
       <c r="G128" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
+      <c r="F129">
+        <v>127</v>
+      </c>
       <c r="G129" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C130" t="s">
+        <v>216</v>
+      </c>
+      <c r="D130" t="s">
+        <v>42</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130">
+        <v>128</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" t="s">
         <v>217</v>
       </c>
-      <c r="D130" t="s">
-        <v>178</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2" t="s">
+      <c r="C131" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131">
+        <v>129</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B131" s="3" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" t="s">
+        <v>217</v>
+      </c>
+      <c r="C132" t="s">
+        <v>216</v>
+      </c>
+      <c r="D132" t="s">
+        <v>177</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132">
+        <v>130</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>201</v>
-      </c>
-      <c r="B133" t="s">
-        <v>213</v>
-      </c>
-      <c r="C133" t="s">
-        <v>38</v>
-      </c>
-      <c r="D133" t="s">
-        <v>34</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2" t="s">
-        <v>385</v>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3">
+        <v>131</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" t="s">
-        <v>35</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2" t="s">
-        <v>464</v>
+      <c r="A134" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3">
+        <v>132</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="F135">
+        <v>133</v>
+      </c>
       <c r="G135" s="2" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="F136">
+        <v>134</v>
+      </c>
       <c r="G136" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="A137" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" t="s">
         <v>38</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137">
+        <v>135</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" t="s">
+        <v>212</v>
+      </c>
+      <c r="C138" t="s">
         <v>38</v>
       </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" t="s">
+        <v>37</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138">
+        <v>136</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3">
+        <v>137</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>201</v>
-      </c>
-      <c r="B139" t="s">
-        <v>213</v>
-      </c>
-      <c r="C139" t="s">
-        <v>237</v>
-      </c>
-      <c r="D139" t="s">
-        <v>82</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2" t="s">
+      <c r="E140" s="3"/>
+      <c r="F140" s="3">
+        <v>138</v>
+      </c>
+      <c r="G140" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>201</v>
-      </c>
-      <c r="B140" t="s">
-        <v>213</v>
-      </c>
-      <c r="C140" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" t="s">
-        <v>83</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="F141">
+        <v>139</v>
+      </c>
       <c r="G141" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
+      <c r="F142">
+        <v>140</v>
+      </c>
       <c r="G142" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="F143">
+        <v>141</v>
+      </c>
       <c r="G143" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="F144">
+        <v>142</v>
+      </c>
       <c r="G144" s="2" t="s">
-        <v>330</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
+      <c r="F145">
+        <v>143</v>
+      </c>
       <c r="G145" s="2" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C146" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D146" t="s">
-        <v>85</v>
+        <v>604</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
+      <c r="F146">
+        <v>144</v>
+      </c>
       <c r="G146" s="2" t="s">
-        <v>470</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C147" t="s">
-        <v>228</v>
-      </c>
-      <c r="D147" t="s">
-        <v>147</v>
+        <v>227</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
+      <c r="F147" s="2">
+        <v>145</v>
+      </c>
       <c r="G147" s="2" t="s">
-        <v>472</v>
+        <v>603</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
+      <c r="F148">
+        <v>146</v>
+      </c>
       <c r="G148" s="2" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="F149">
+        <v>147</v>
+      </c>
       <c r="G149" s="2" t="s">
-        <v>374</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D150" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="F150">
+        <v>148</v>
+      </c>
       <c r="G150" s="2" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
+      <c r="F151">
+        <v>149</v>
+      </c>
       <c r="G151" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D152" t="s">
-        <v>266</v>
+        <v>63</v>
       </c>
       <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
+      <c r="F152">
+        <v>150</v>
+      </c>
       <c r="G152" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D153" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+      <c r="F153">
+        <v>151</v>
+      </c>
       <c r="G153" s="2" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="F154">
+        <v>152</v>
+      </c>
       <c r="G154" s="2" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
+      <c r="F155">
+        <v>153</v>
+      </c>
       <c r="G155" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
+      <c r="F156">
+        <v>154</v>
+      </c>
       <c r="G156" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3" t="s">
-        <v>445</v>
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>220</v>
+      </c>
+      <c r="D157" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" s="2"/>
+      <c r="F157">
+        <v>155</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3" t="s">
-        <v>452</v>
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" t="s">
+        <v>212</v>
+      </c>
+      <c r="C158" t="s">
+        <v>220</v>
+      </c>
+      <c r="D158" t="s">
+        <v>188</v>
+      </c>
+      <c r="E158" s="2"/>
+      <c r="F158">
+        <v>156</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3" t="s">
-        <v>442</v>
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" t="s">
+        <v>212</v>
+      </c>
+      <c r="C159" t="s">
+        <v>220</v>
+      </c>
+      <c r="D159" t="s">
+        <v>192</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159">
+        <v>157</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
+      <c r="F160" s="3">
+        <v>158</v>
+      </c>
       <c r="G160" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
+      <c r="F161" s="3">
+        <v>159</v>
+      </c>
       <c r="G161" s="3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>201</v>
-      </c>
-      <c r="B162" t="s">
-        <v>216</v>
-      </c>
-      <c r="C162" t="s">
-        <v>124</v>
-      </c>
-      <c r="D162" t="s">
-        <v>29</v>
-      </c>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2" t="s">
-        <v>454</v>
+      <c r="A162" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3">
+        <v>160</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>201</v>
-      </c>
-      <c r="B163" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163" t="s">
-        <v>124</v>
-      </c>
-      <c r="D163" t="s">
-        <v>47</v>
-      </c>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2" t="s">
-        <v>451</v>
+      <c r="A163" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3">
+        <v>161</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>201</v>
-      </c>
-      <c r="B164" t="s">
-        <v>216</v>
-      </c>
-      <c r="C164" t="s">
-        <v>124</v>
-      </c>
-      <c r="D164" t="s">
-        <v>51</v>
-      </c>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2" t="s">
-        <v>450</v>
+      <c r="A164" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3">
+        <v>162</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D165" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
+      <c r="F165">
+        <v>163</v>
+      </c>
       <c r="G165" s="2" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D166" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
+      <c r="F166">
+        <v>164</v>
+      </c>
       <c r="G166" s="2" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3" t="s">
-        <v>443</v>
+      <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" t="s">
+        <v>123</v>
+      </c>
+      <c r="D167" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167">
+        <v>165</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3" t="s">
-        <v>453</v>
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>215</v>
+      </c>
+      <c r="C168" t="s">
+        <v>123</v>
+      </c>
+      <c r="D168" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168">
+        <v>166</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3" t="s">
-        <v>449</v>
+      <c r="A169" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169" t="s">
+        <v>123</v>
+      </c>
+      <c r="D169" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169">
+        <v>167</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="3">
+        <v>168</v>
+      </c>
       <c r="G170" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
+      <c r="F171" s="3">
+        <v>169</v>
+      </c>
       <c r="G171" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3">
+        <v>170</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3">
+        <v>171</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3">
+        <v>172</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>201</v>
-      </c>
-      <c r="B173" t="s">
-        <v>209</v>
-      </c>
-      <c r="C173" t="s">
-        <v>224</v>
-      </c>
-      <c r="D173" t="s">
-        <v>245</v>
-      </c>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>201</v>
-      </c>
-      <c r="B174" t="s">
-        <v>209</v>
-      </c>
-      <c r="C174" t="s">
-        <v>224</v>
-      </c>
-      <c r="D174" t="s">
-        <v>27</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>201</v>
-      </c>
-      <c r="B175" t="s">
-        <v>209</v>
-      </c>
-      <c r="C175" t="s">
-        <v>224</v>
-      </c>
-      <c r="D175" t="s">
-        <v>248</v>
-      </c>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2" t="s">
-        <v>395</v>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3">
+        <v>173</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C176" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D176" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
+      <c r="F176">
+        <v>174</v>
+      </c>
       <c r="G176" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D177" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
+      <c r="F177">
+        <v>175</v>
+      </c>
       <c r="G177" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C178" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
+      <c r="F178">
+        <v>176</v>
+      </c>
       <c r="G178" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>525</v>
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" t="s">
+        <v>223</v>
+      </c>
+      <c r="D179" t="s">
+        <v>117</v>
       </c>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="F179">
+        <v>177</v>
+      </c>
       <c r="G179" s="2" t="s">
-        <v>530</v>
+        <v>391</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3" t="s">
-        <v>390</v>
+      <c r="A180" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" t="s">
+        <v>208</v>
+      </c>
+      <c r="C180" t="s">
+        <v>223</v>
+      </c>
+      <c r="D180" t="s">
+        <v>124</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180">
+        <v>178</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B181" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C181" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="F181">
+        <v>179</v>
+      </c>
       <c r="G181" s="2" t="s">
-        <v>461</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3" t="s">
-        <v>413</v>
+      <c r="A182" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2">
+        <v>180</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>201</v>
-      </c>
-      <c r="B183" t="s">
-        <v>234</v>
-      </c>
-      <c r="C183" t="s">
-        <v>135</v>
-      </c>
-      <c r="D183" t="s">
-        <v>165</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2" t="s">
-        <v>459</v>
+      <c r="A183" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3">
+        <v>181</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B184" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C184" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D184" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
+      <c r="F184">
+        <v>182</v>
+      </c>
       <c r="G184" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
+      <c r="F185" s="3">
+        <v>183</v>
+      </c>
       <c r="G185" s="3" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3" t="s">
-        <v>358</v>
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186" t="s">
+        <v>164</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186">
+        <v>184</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D187" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
+      <c r="F187">
+        <v>185</v>
+      </c>
       <c r="G187" s="2" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>201</v>
-      </c>
-      <c r="B188" t="s">
-        <v>200</v>
-      </c>
-      <c r="C188" t="s">
-        <v>23</v>
-      </c>
-      <c r="D188" t="s">
-        <v>23</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2" t="s">
-        <v>359</v>
+      <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3">
+        <v>186</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>201</v>
-      </c>
-      <c r="B189" t="s">
-        <v>200</v>
-      </c>
-      <c r="C189" t="s">
-        <v>24</v>
-      </c>
-      <c r="D189" t="s">
-        <v>24</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2" t="s">
-        <v>351</v>
+      <c r="A189" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3">
+        <v>187</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C190" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2"/>
-      <c r="F190" s="2"/>
+      <c r="F190">
+        <v>188</v>
+      </c>
       <c r="G190" s="2" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="F191">
+        <v>189</v>
+      </c>
       <c r="G191" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
+      <c r="F192">
+        <v>190</v>
+      </c>
       <c r="G192" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D193" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
+      <c r="F193">
+        <v>191</v>
+      </c>
       <c r="G193" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D194" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="F194" s="2"/>
+      <c r="F194">
+        <v>192</v>
+      </c>
       <c r="G194" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D195" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
+      <c r="F195">
+        <v>193</v>
+      </c>
       <c r="G195" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D196" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
+      <c r="F196">
+        <v>194</v>
+      </c>
       <c r="G196" s="2" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D197" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
+      <c r="F197">
+        <v>195</v>
+      </c>
       <c r="G197" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D198" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="2"/>
+      <c r="F198">
+        <v>196</v>
+      </c>
       <c r="G198" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
+      <c r="F199">
+        <v>197</v>
+      </c>
       <c r="G199" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D200" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
+      <c r="F200">
+        <v>198</v>
+      </c>
       <c r="G200" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D201" t="s">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
+      <c r="F201">
+        <v>199</v>
+      </c>
       <c r="G201" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D202" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
+      <c r="F202">
+        <v>200</v>
+      </c>
       <c r="G202" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" t="s">
+        <v>199</v>
+      </c>
+      <c r="C203" t="s">
+        <v>93</v>
+      </c>
+      <c r="D203" t="s">
+        <v>245</v>
+      </c>
+      <c r="E203" s="2"/>
+      <c r="F203">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
-        <v>200</v>
-      </c>
-      <c r="C203" t="s">
-        <v>96</v>
-      </c>
-      <c r="D203" t="s">
-        <v>96</v>
-      </c>
-      <c r="E203" s="2"/>
-      <c r="F203" s="2"/>
       <c r="G203" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B204" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D204" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="F204">
+        <v>202</v>
+      </c>
       <c r="G204" s="2" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="F205">
+        <v>203</v>
+      </c>
       <c r="G205" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B206" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D206" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206" s="2"/>
+      <c r="F206">
+        <v>204</v>
+      </c>
       <c r="G206" s="2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D207" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="2"/>
+      <c r="F207">
+        <v>205</v>
+      </c>
       <c r="G207" s="2" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E208" s="2"/>
-      <c r="F208" s="2"/>
+      <c r="F208">
+        <v>206</v>
+      </c>
       <c r="G208" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B209" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D209" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
+      <c r="F209">
+        <v>207</v>
+      </c>
       <c r="G209" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D210" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
+      <c r="F210">
+        <v>208</v>
+      </c>
       <c r="G210" s="2" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D211" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
+      <c r="F211">
+        <v>209</v>
+      </c>
       <c r="G211" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B212" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D212" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
+      <c r="F212">
+        <v>210</v>
+      </c>
       <c r="G212" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B213" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D213" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
+      <c r="F213">
+        <v>211</v>
+      </c>
       <c r="G213" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B214" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D214" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
+      <c r="F214">
+        <v>212</v>
+      </c>
       <c r="G214" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B215" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D215" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215" s="2"/>
+      <c r="F215">
+        <v>213</v>
+      </c>
       <c r="G215" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B216" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D216" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
+      <c r="F216">
+        <v>214</v>
+      </c>
       <c r="G216" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B217" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D217" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
+      <c r="F217">
+        <v>215</v>
+      </c>
       <c r="G217" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="D218" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
+      <c r="F218">
+        <v>216</v>
+      </c>
       <c r="G218" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B219" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D219" t="s">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
+      <c r="F219">
+        <v>217</v>
+      </c>
       <c r="G219" s="2" t="s">
-        <v>360</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B220" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D220" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
+      <c r="F220">
+        <v>218</v>
+      </c>
       <c r="G220" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B221" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D221" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="F221" s="2"/>
+      <c r="F221">
+        <v>219</v>
+      </c>
       <c r="G221" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B222" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="D222" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
+      <c r="F222">
+        <v>220</v>
+      </c>
       <c r="G222" s="2" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B223" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="D223" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="F223">
+        <v>221</v>
+      </c>
       <c r="G223" s="2" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B224" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="D224" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="F224">
+        <v>222</v>
+      </c>
       <c r="G224" s="2" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225" t="s">
         <v>201</v>
       </c>
-      <c r="B225" t="s">
-        <v>202</v>
-      </c>
       <c r="C225" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
+      <c r="F225">
+        <v>223</v>
+      </c>
       <c r="G225" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>200</v>
+      </c>
+      <c r="B226" t="s">
         <v>201</v>
       </c>
-      <c r="B226" t="s">
-        <v>202</v>
-      </c>
       <c r="C226" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="D226" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
+      <c r="F226">
+        <v>224</v>
+      </c>
       <c r="G226" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>200</v>
+      </c>
+      <c r="B227" t="s">
         <v>201</v>
       </c>
-      <c r="B227" t="s">
-        <v>202</v>
-      </c>
       <c r="C227" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D227" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
+      <c r="F227">
+        <v>225</v>
+      </c>
       <c r="G227" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>200</v>
+      </c>
+      <c r="B228" t="s">
         <v>201</v>
       </c>
-      <c r="B228" t="s">
-        <v>202</v>
-      </c>
       <c r="C228" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D228" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
+      <c r="F228">
+        <v>226</v>
+      </c>
       <c r="G228" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>200</v>
+      </c>
+      <c r="B229" t="s">
         <v>201</v>
       </c>
-      <c r="B229" t="s">
-        <v>202</v>
-      </c>
       <c r="C229" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D229" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
+      <c r="F229">
+        <v>227</v>
+      </c>
       <c r="G229" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>200</v>
+      </c>
+      <c r="B230" t="s">
         <v>201</v>
       </c>
-      <c r="B230" t="s">
-        <v>206</v>
-      </c>
       <c r="C230" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
+      <c r="F230">
+        <v>228</v>
+      </c>
       <c r="G230" s="2" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>200</v>
+      </c>
+      <c r="B231" t="s">
         <v>201</v>
       </c>
-      <c r="B231" t="s">
-        <v>206</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>526</v>
+      <c r="C231" t="s">
+        <v>137</v>
+      </c>
+      <c r="D231" t="s">
+        <v>137</v>
       </c>
       <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
+      <c r="F231">
+        <v>229</v>
+      </c>
       <c r="G231" s="2" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>200</v>
+      </c>
+      <c r="B232" t="s">
         <v>201</v>
       </c>
-      <c r="B232" t="s">
-        <v>206</v>
-      </c>
       <c r="C232" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="D232" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="F232">
+        <v>230</v>
+      </c>
       <c r="G232" s="2" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B233" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
+      <c r="F233">
+        <v>231</v>
+      </c>
       <c r="G233" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B234" t="s">
-        <v>206</v>
-      </c>
-      <c r="C234" t="s">
-        <v>225</v>
-      </c>
-      <c r="D234" t="s">
-        <v>46</v>
+        <v>205</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="F234" s="2">
+        <v>232</v>
+      </c>
       <c r="G234" s="2" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B235" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D235" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="F235" s="2"/>
+      <c r="F235">
+        <v>233</v>
+      </c>
       <c r="G235" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B236" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C236" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D236" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="F236">
+        <v>234</v>
+      </c>
       <c r="G236" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B237" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C237" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D237" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
+      <c r="F237">
+        <v>235</v>
+      </c>
       <c r="G237" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C238" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D238" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="F238">
+        <v>236</v>
+      </c>
       <c r="G238" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B239" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C239" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="F239">
+        <v>237</v>
+      </c>
       <c r="G239" s="2" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B240" t="s">
-        <v>206</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>528</v>
+        <v>205</v>
+      </c>
+      <c r="C240" t="s">
+        <v>224</v>
+      </c>
+      <c r="D240" t="s">
+        <v>110</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
+      <c r="F240">
+        <v>238</v>
+      </c>
       <c r="G240" s="2" t="s">
-        <v>534</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C241" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
+      <c r="F241">
+        <v>239</v>
+      </c>
       <c r="G241" s="2" t="s">
-        <v>313</v>
+        <v>484</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B242" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C242" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D242" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
+      <c r="F242">
+        <v>240</v>
+      </c>
       <c r="G242" s="2" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B243" t="s">
-        <v>206</v>
-      </c>
-      <c r="C243" t="s">
         <v>205</v>
       </c>
-      <c r="D243" t="s">
-        <v>49</v>
+      <c r="C243" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="F243" s="2">
+        <v>241</v>
+      </c>
       <c r="G243" s="2" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C244" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D244" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="F244">
+        <v>242</v>
+      </c>
       <c r="G244" s="2" t="s">
-        <v>456</v>
+        <v>312</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B245" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C245" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D245" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
+      <c r="F245">
+        <v>243</v>
+      </c>
       <c r="G245" s="2" t="s">
-        <v>335</v>
+        <v>454</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B246" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C246" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="D246" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
+      <c r="F246">
+        <v>244</v>
+      </c>
       <c r="G246" s="2" t="s">
-        <v>493</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>200</v>
+      </c>
+      <c r="B247" t="s">
+        <v>205</v>
+      </c>
+      <c r="C247" t="s">
+        <v>204</v>
+      </c>
+      <c r="D247" t="s">
+        <v>142</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247">
+        <v>245</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>200</v>
+      </c>
+      <c r="B248" t="s">
+        <v>205</v>
+      </c>
+      <c r="C248" t="s">
+        <v>204</v>
+      </c>
+      <c r="D248" t="s">
+        <v>169</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248">
+        <v>246</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" t="s">
+        <v>205</v>
+      </c>
+      <c r="C249" t="s">
+        <v>264</v>
+      </c>
+      <c r="D249" t="s">
+        <v>264</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249">
+        <v>247</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="612">
   <si>
     <t>Level1</t>
   </si>
@@ -1841,6 +1841,15 @@
   </si>
   <si>
     <t>A.3.8</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>ntd_dengue</t>
+  </si>
+  <si>
+    <t>A.3.9</t>
   </si>
 </sst>
 </file>
@@ -1931,8 +1940,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G249" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G249"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G250" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G250"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2236,7 +2245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2356,7 +2365,7 @@
       <c r="E5" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2379,7 +2388,7 @@
       <c r="E6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2425,7 +2434,7 @@
       <c r="E8" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2448,7 +2457,7 @@
       <c r="E9" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2471,7 +2480,7 @@
       <c r="E10" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2494,7 +2503,7 @@
       <c r="E11" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2517,7 +2526,7 @@
       <c r="E12" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -2540,7 +2549,7 @@
       <c r="E13" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -2563,7 +2572,7 @@
       <c r="E14" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2609,7 +2618,7 @@
       <c r="E16" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -2632,7 +2641,7 @@
       <c r="E17" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2655,7 +2664,7 @@
       <c r="E18" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -2678,7 +2687,7 @@
       <c r="E19" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -2701,7 +2710,7 @@
       <c r="E20" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -2724,7 +2733,7 @@
       <c r="E21" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -2793,7 +2802,7 @@
       <c r="E24" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2816,7 +2825,7 @@
       <c r="E25" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2839,7 +2848,7 @@
       <c r="E26" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>24</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3130,10 +3139,10 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>135</v>
+        <v>609</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>135</v>
+        <v>609</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>568</v>
@@ -3142,7 +3151,7 @@
         <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>317</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3196,22 +3205,22 @@
         <v>203</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>294</v>
+        <v>611</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,19 +3231,19 @@
         <v>231</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F43" s="3">
         <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,19 +3254,19 @@
         <v>231</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="3">
         <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,19 +3277,19 @@
         <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F45" s="3">
         <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,19 +3300,19 @@
         <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F46" s="3">
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3314,19 +3323,19 @@
         <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,19 +3346,19 @@
         <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="F48" s="3">
         <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3360,19 +3369,19 @@
         <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F49" s="3">
         <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3383,19 +3392,19 @@
         <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F50" s="3">
         <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,22 +3412,22 @@
         <v>203</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>261</v>
+        <v>557</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>261</v>
+        <v>542</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="F51" s="3">
         <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,19 +3438,19 @@
         <v>234</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,19 +3461,19 @@
         <v>234</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F53" s="3">
         <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,19 +3484,19 @@
         <v>234</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F54" s="3">
         <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,19 +3507,19 @@
         <v>234</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F55" s="3">
         <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,22 +3527,22 @@
         <v>203</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F56" s="3">
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,19 +3553,19 @@
         <v>229</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,19 +3576,19 @@
         <v>229</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F58" s="3">
         <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,61 +3599,63 @@
         <v>229</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F59" s="3">
         <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F60" s="3">
+        <v>58</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2">
-        <v>58</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="2">
+        <v>59</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" t="s">
-        <v>242</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61">
-        <v>59</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,14 +3669,14 @@
         <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,14 +3690,14 @@
         <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E63" s="2"/>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>61</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3700,56 +3711,56 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>62</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
         <v>522</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64">
-        <v>62</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>63</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
-        <v>63</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="E66" s="3"/>
+      <c r="F66" s="3">
+        <v>64</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66">
-        <v>64</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3763,14 +3774,14 @@
         <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>65</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3784,14 +3795,14 @@
         <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,14 +3816,14 @@
         <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2"/>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>67</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,14 +3837,14 @@
         <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>68</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3847,14 +3858,14 @@
         <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>69</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,17 +3876,17 @@
         <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>70</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3888,15 +3899,15 @@
       <c r="C73" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>592</v>
+      <c r="D73" t="s">
+        <v>175</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
         <v>71</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>593</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3910,14 +3921,14 @@
         <v>175</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
         <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3931,35 +3942,35 @@
         <v>175</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
         <v>73</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>74</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,14 +3984,14 @@
         <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>75</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,14 +4005,14 @@
         <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>76</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4014,15 +4025,15 @@
       <c r="C79" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>536</v>
+      <c r="D79" t="s">
+        <v>18</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
         <v>77</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4033,17 +4044,17 @@
         <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" t="s">
-        <v>171</v>
+        <v>218</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>78</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4057,14 +4068,14 @@
         <v>240</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>79</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,14 +4089,14 @@
         <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>80</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4099,56 +4110,56 @@
         <v>240</v>
       </c>
       <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2">
+        <v>81</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="2"/>
-      <c r="F83">
-        <v>81</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3">
-        <v>82</v>
-      </c>
-      <c r="G84" s="3" t="s">
+      <c r="E85" s="3"/>
+      <c r="F85" s="3">
+        <v>83</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>207</v>
-      </c>
-      <c r="B85" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85">
-        <v>83</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4159,17 +4170,17 @@
         <v>238</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2"/>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>84</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4183,14 +4194,14 @@
         <v>237</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>85</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4204,14 +4215,14 @@
         <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,56 +4236,56 @@
         <v>237</v>
       </c>
       <c r="D89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
+        <v>87</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" t="s">
         <v>152</v>
       </c>
-      <c r="E89" s="2"/>
-      <c r="F89">
-        <v>87</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3">
-        <v>88</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="E91" s="3"/>
+      <c r="F91" s="3">
+        <v>89</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>207</v>
-      </c>
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>160</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91">
-        <v>89</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4285,17 +4296,17 @@
         <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>90</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4309,35 +4320,35 @@
         <v>214</v>
       </c>
       <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2">
+        <v>91</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
         <v>197</v>
       </c>
-      <c r="E93" s="2"/>
-      <c r="F93">
-        <v>91</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2">
+        <v>92</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3">
-        <v>92</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4348,59 +4359,59 @@
         <v>206</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3">
         <v>93</v>
       </c>
       <c r="G95" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3">
+        <v>94</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B96" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2">
-        <v>94</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B97" t="s">
         <v>206</v>
       </c>
-      <c r="C97" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
+      <c r="C97" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>95</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,14 +4425,14 @@
         <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>96</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4435,35 +4446,35 @@
         <v>221</v>
       </c>
       <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2">
+        <v>97</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>207</v>
+      </c>
+      <c r="B100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" t="s">
         <v>191</v>
       </c>
-      <c r="E99" s="2"/>
-      <c r="F99">
-        <v>97</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2">
+        <v>98</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3">
-        <v>98</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,38 +4485,38 @@
         <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3">
         <v>99</v>
       </c>
       <c r="G101" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>226</v>
-      </c>
-      <c r="D102" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102">
-        <v>100</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,14 +4530,14 @@
         <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>599</v>
+        <v>62</v>
       </c>
       <c r="E103" s="2"/>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>101</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,17 +4548,17 @@
         <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>599</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>102</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4561,14 +4572,14 @@
         <v>239</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105">
+      <c r="F105" s="2">
         <v>103</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4582,56 +4593,56 @@
         <v>239</v>
       </c>
       <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2">
+        <v>104</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="2"/>
-      <c r="F106">
-        <v>104</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2">
+        <v>105</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3">
-        <v>105</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3">
         <v>106</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,17 +4653,17 @@
         <v>210</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3">
         <v>107</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,38 +4674,38 @@
         <v>210</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3">
         <v>108</v>
       </c>
       <c r="G110" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3">
+        <v>109</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" t="s">
-        <v>210</v>
-      </c>
-      <c r="C111" t="s">
-        <v>230</v>
-      </c>
-      <c r="D111" t="s">
-        <v>72</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111">
-        <v>109</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,14 +4719,14 @@
         <v>230</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E112" s="2"/>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>110</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4729,35 +4740,35 @@
         <v>230</v>
       </c>
       <c r="D113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2">
+        <v>111</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>200</v>
+      </c>
+      <c r="B114" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" t="s">
         <v>181</v>
       </c>
-      <c r="E113" s="2"/>
-      <c r="F113">
-        <v>111</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2">
+        <v>112</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3">
-        <v>112</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4768,17 +4779,17 @@
         <v>210</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3">
         <v>113</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4789,38 +4800,38 @@
         <v>210</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3">
         <v>114</v>
       </c>
       <c r="G116" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3">
+        <v>115</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>200</v>
-      </c>
-      <c r="B117" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" t="s">
-        <v>119</v>
-      </c>
-      <c r="D117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117">
-        <v>115</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,14 +4845,14 @@
         <v>119</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2"/>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>116</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,14 +4866,14 @@
         <v>119</v>
       </c>
       <c r="D119" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2"/>
-      <c r="F119">
+      <c r="F119" s="2">
         <v>117</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4876,35 +4887,35 @@
         <v>119</v>
       </c>
       <c r="D120" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2">
+        <v>118</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" t="s">
         <v>195</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120">
-        <v>118</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2">
+        <v>119</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3">
-        <v>119</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4915,17 +4926,17 @@
         <v>210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
         <v>120</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4933,20 +4944,20 @@
         <v>200</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3">
         <v>121</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4957,17 +4968,17 @@
         <v>217</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
         <v>122</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,80 +4989,80 @@
         <v>217</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3">
         <v>123</v>
       </c>
       <c r="G125" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3">
+        <v>124</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
         <v>217</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>120</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>33</v>
       </c>
-      <c r="E126" s="2"/>
-      <c r="F126">
-        <v>124</v>
-      </c>
-      <c r="G126" s="2" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2">
+        <v>125</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" s="3" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3">
-        <v>125</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3">
+        <v>126</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" t="s">
-        <v>178</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128">
-        <v>126</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5062,17 +5073,17 @@
         <v>217</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E129" s="2"/>
-      <c r="F129">
+      <c r="F129" s="2">
         <v>127</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5086,14 +5097,14 @@
         <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E130" s="2"/>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>128</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5107,14 +5118,14 @@
         <v>216</v>
       </c>
       <c r="D131" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E131" s="2"/>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>129</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5128,35 +5139,35 @@
         <v>216</v>
       </c>
       <c r="D132" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2">
+        <v>130</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" t="s">
+        <v>216</v>
+      </c>
+      <c r="D133" t="s">
         <v>177</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132">
-        <v>130</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="E133" s="2"/>
+      <c r="F133" s="2">
+        <v>131</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3">
-        <v>131</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5164,41 +5175,41 @@
         <v>200</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <v>132</v>
       </c>
       <c r="G134" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3">
+        <v>133</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>200</v>
-      </c>
-      <c r="B135" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" t="s">
-        <v>38</v>
-      </c>
-      <c r="D135" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135">
-        <v>133</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5212,14 +5223,14 @@
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E136" s="2"/>
-      <c r="F136">
+      <c r="F136" s="2">
         <v>134</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5233,14 +5244,14 @@
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137" s="2"/>
-      <c r="F137">
+      <c r="F137" s="2">
         <v>135</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5254,35 +5265,35 @@
         <v>38</v>
       </c>
       <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2">
+        <v>136</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>212</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s">
         <v>37</v>
       </c>
-      <c r="E138" s="2"/>
-      <c r="F138">
-        <v>136</v>
-      </c>
-      <c r="G138" s="2" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2">
+        <v>137</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3">
-        <v>137</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5293,38 +5304,38 @@
         <v>212</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3">
         <v>138</v>
       </c>
       <c r="G140" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3">
+        <v>139</v>
+      </c>
+      <c r="G141" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" t="s">
-        <v>236</v>
-      </c>
-      <c r="D141" t="s">
-        <v>81</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141">
-        <v>139</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5338,14 +5349,14 @@
         <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>140</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,14 +5370,14 @@
         <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2"/>
-      <c r="F143">
+      <c r="F143" s="2">
         <v>141</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5380,14 +5391,14 @@
         <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E144" s="2"/>
-      <c r="F144">
+      <c r="F144" s="2">
         <v>142</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5401,14 +5412,14 @@
         <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2"/>
-      <c r="F145">
+      <c r="F145" s="2">
         <v>143</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5419,17 +5430,17 @@
         <v>212</v>
       </c>
       <c r="C146" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>604</v>
+        <v>125</v>
       </c>
       <c r="E146" s="2"/>
-      <c r="F146">
+      <c r="F146" s="2">
         <v>144</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5442,15 +5453,15 @@
       <c r="C147" t="s">
         <v>227</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>605</v>
+      <c r="D147" t="s">
+        <v>604</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2">
         <v>145</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>603</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5463,15 +5474,15 @@
       <c r="C148" t="s">
         <v>227</v>
       </c>
-      <c r="D148" t="s">
-        <v>69</v>
+      <c r="D148" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148">
+      <c r="F148" s="2">
         <v>146</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>470</v>
+        <v>603</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5485,14 +5496,14 @@
         <v>227</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5506,14 +5517,14 @@
         <v>227</v>
       </c>
       <c r="D150" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>148</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5524,17 +5535,17 @@
         <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151">
+      <c r="F151" s="2">
         <v>149</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5548,14 +5559,14 @@
         <v>211</v>
       </c>
       <c r="D152" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E152" s="2"/>
-      <c r="F152">
+      <c r="F152" s="2">
         <v>150</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5569,14 +5580,14 @@
         <v>211</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E153" s="2"/>
-      <c r="F153">
+      <c r="F153" s="2">
         <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5590,14 +5601,14 @@
         <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="F154">
+      <c r="F154" s="2">
         <v>152</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5611,14 +5622,14 @@
         <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,17 +5640,17 @@
         <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D156" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156">
+      <c r="F156" s="2">
         <v>154</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,14 +5664,14 @@
         <v>220</v>
       </c>
       <c r="D157" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>155</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,14 +5685,14 @@
         <v>220</v>
       </c>
       <c r="D158" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E158" s="2"/>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>156</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5695,35 +5706,35 @@
         <v>220</v>
       </c>
       <c r="D159" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2">
+        <v>157</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>200</v>
+      </c>
+      <c r="B160" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160" t="s">
+        <v>220</v>
+      </c>
+      <c r="D160" t="s">
         <v>192</v>
       </c>
-      <c r="E159" s="2"/>
-      <c r="F159">
-        <v>157</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2">
+        <v>158</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3">
-        <v>158</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,17 +5745,17 @@
         <v>215</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3">
         <v>159</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5755,17 +5766,17 @@
         <v>215</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3">
         <v>160</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5776,17 +5787,17 @@
         <v>215</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3">
         <v>161</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,38 +5808,38 @@
         <v>215</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3">
         <v>162</v>
       </c>
       <c r="G164" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3">
+        <v>163</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>200</v>
-      </c>
-      <c r="B165" t="s">
-        <v>215</v>
-      </c>
-      <c r="C165" t="s">
-        <v>123</v>
-      </c>
-      <c r="D165" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165">
-        <v>163</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5842,14 +5853,14 @@
         <v>123</v>
       </c>
       <c r="D166" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166">
+      <c r="F166" s="2">
         <v>164</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,14 +5874,14 @@
         <v>123</v>
       </c>
       <c r="D167" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167">
+      <c r="F167" s="2">
         <v>165</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5884,14 +5895,14 @@
         <v>123</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>166</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,35 +5916,35 @@
         <v>123</v>
       </c>
       <c r="D169" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
+        <v>167</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" t="s">
+        <v>215</v>
+      </c>
+      <c r="C170" t="s">
+        <v>123</v>
+      </c>
+      <c r="D170" t="s">
         <v>73</v>
       </c>
-      <c r="E169" s="2"/>
-      <c r="F169">
-        <v>167</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="E170" s="2"/>
+      <c r="F170" s="2">
+        <v>168</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3">
-        <v>168</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5944,17 +5955,17 @@
         <v>215</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3">
         <v>169</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5965,17 +5976,17 @@
         <v>215</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3">
         <v>170</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5986,17 +5997,17 @@
         <v>215</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
         <v>171</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6007,17 +6018,17 @@
         <v>215</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3">
         <v>172</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6025,41 +6036,41 @@
         <v>200</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
         <v>173</v>
       </c>
       <c r="G175" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3">
+        <v>174</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>200</v>
-      </c>
-      <c r="B176" t="s">
-        <v>208</v>
-      </c>
-      <c r="C176" t="s">
-        <v>223</v>
-      </c>
-      <c r="D176" t="s">
-        <v>244</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176">
-        <v>174</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6073,14 +6084,14 @@
         <v>223</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E177" s="2"/>
-      <c r="F177">
+      <c r="F177" s="2">
         <v>175</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6094,14 +6105,14 @@
         <v>223</v>
       </c>
       <c r="D178" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="F178">
+      <c r="F178" s="2">
         <v>176</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6115,14 +6126,14 @@
         <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="E179" s="2"/>
-      <c r="F179">
+      <c r="F179" s="2">
         <v>177</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6136,14 +6147,14 @@
         <v>223</v>
       </c>
       <c r="D180" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E180" s="2"/>
-      <c r="F180">
+      <c r="F180" s="2">
         <v>178</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6154,122 +6165,122 @@
         <v>208</v>
       </c>
       <c r="C181" t="s">
+        <v>223</v>
+      </c>
+      <c r="D181" t="s">
+        <v>124</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2">
+        <v>179</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
         <v>209</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>11</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181">
-        <v>179</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2">
         <v>180</v>
       </c>
       <c r="G182" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2">
+        <v>181</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="3" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3">
-        <v>181</v>
-      </c>
-      <c r="G183" s="3" t="s">
+      <c r="E184" s="3"/>
+      <c r="F184" s="3">
+        <v>182</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
         <v>233</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>134</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>118</v>
       </c>
-      <c r="E184" s="2"/>
-      <c r="F184">
-        <v>182</v>
-      </c>
-      <c r="G184" s="2" t="s">
+      <c r="E185" s="2"/>
+      <c r="F185" s="2">
+        <v>183</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" s="3" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3">
-        <v>183</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="E186" s="3"/>
+      <c r="F186" s="3">
+        <v>184</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" t="s">
-        <v>233</v>
-      </c>
-      <c r="C186" t="s">
-        <v>134</v>
-      </c>
-      <c r="D186" t="s">
-        <v>164</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186">
-        <v>184</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6283,35 +6294,35 @@
         <v>134</v>
       </c>
       <c r="D187" t="s">
+        <v>164</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2">
+        <v>185</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" t="s">
+        <v>233</v>
+      </c>
+      <c r="C188" t="s">
+        <v>134</v>
+      </c>
+      <c r="D188" t="s">
         <v>182</v>
       </c>
-      <c r="E187" s="2"/>
-      <c r="F187">
-        <v>185</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2">
+        <v>186</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3">
-        <v>186</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,41 +6330,41 @@
         <v>200</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3">
         <v>187</v>
       </c>
       <c r="G189" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3">
+        <v>188</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" t="s">
-        <v>23</v>
-      </c>
-      <c r="D190" t="s">
-        <v>22</v>
-      </c>
-      <c r="E190" s="2"/>
-      <c r="F190">
-        <v>188</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6367,14 +6378,14 @@
         <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191">
+      <c r="F191" s="2">
         <v>189</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6385,17 +6396,17 @@
         <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="F192">
+      <c r="F192" s="2">
         <v>190</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6406,17 +6417,17 @@
         <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="F193">
+      <c r="F193" s="2">
         <v>191</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6427,17 +6438,17 @@
         <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D194" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="F194">
+      <c r="F194" s="2">
         <v>192</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6448,17 +6459,17 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D195" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E195" s="2"/>
-      <c r="F195">
+      <c r="F195" s="2">
         <v>193</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6469,17 +6480,17 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D196" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E196" s="2"/>
-      <c r="F196">
+      <c r="F196" s="2">
         <v>194</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6490,17 +6501,17 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D197" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E197" s="2"/>
-      <c r="F197">
+      <c r="F197" s="2">
         <v>195</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6511,17 +6522,17 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D198" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198">
+      <c r="F198" s="2">
         <v>196</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6532,17 +6543,17 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D199" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E199" s="2"/>
-      <c r="F199">
+      <c r="F199" s="2">
         <v>197</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6553,17 +6564,17 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D200" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E200" s="2"/>
-      <c r="F200">
+      <c r="F200" s="2">
         <v>198</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6574,17 +6585,17 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D201" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E201" s="2"/>
-      <c r="F201">
+      <c r="F201" s="2">
         <v>199</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6598,14 +6609,14 @@
         <v>93</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E202" s="2"/>
-      <c r="F202">
+      <c r="F202" s="2">
         <v>200</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6619,14 +6630,14 @@
         <v>93</v>
       </c>
       <c r="D203" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="E203" s="2"/>
-      <c r="F203">
+      <c r="F203" s="2">
         <v>201</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6640,14 +6651,14 @@
         <v>93</v>
       </c>
       <c r="D204" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="F204">
+      <c r="F204" s="2">
         <v>202</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6661,14 +6672,14 @@
         <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="F205">
+      <c r="F205" s="2">
         <v>203</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6679,17 +6690,17 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D206" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206">
+      <c r="F206" s="2">
         <v>204</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6700,17 +6711,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D207" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207">
+      <c r="F207" s="2">
         <v>205</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,17 +6732,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D208" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E208" s="2"/>
-      <c r="F208">
+      <c r="F208" s="2">
         <v>206</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6742,17 +6753,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D209" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E209" s="2"/>
-      <c r="F209">
+      <c r="F209" s="2">
         <v>207</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6763,17 +6774,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E210" s="2"/>
-      <c r="F210">
+      <c r="F210" s="2">
         <v>208</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6784,17 +6795,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D211" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211">
+      <c r="F211" s="2">
         <v>209</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6805,17 +6816,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D212" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212">
+      <c r="F212" s="2">
         <v>210</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6826,17 +6837,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D213" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213">
+      <c r="F213" s="2">
         <v>211</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6847,17 +6858,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D214" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214">
+      <c r="F214" s="2">
         <v>212</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6868,17 +6879,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D215" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215">
+      <c r="F215" s="2">
         <v>213</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6889,17 +6900,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D216" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216">
+      <c r="F216" s="2">
         <v>214</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6910,17 +6921,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D217" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217">
+      <c r="F217" s="2">
         <v>215</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6931,17 +6942,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D218" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218">
+      <c r="F218" s="2">
         <v>216</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6952,17 +6963,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D219" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>217</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6976,14 +6987,14 @@
         <v>179</v>
       </c>
       <c r="D220" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="F220">
+      <c r="F220" s="2">
         <v>218</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -6994,17 +7005,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D221" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="F221">
+      <c r="F221" s="2">
         <v>219</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7015,17 +7026,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D222" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="F222">
+      <c r="F222" s="2">
         <v>220</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7036,17 +7047,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D223" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223">
+      <c r="F223" s="2">
         <v>221</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7057,17 +7068,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D224" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224">
+      <c r="F224" s="2">
         <v>222</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7075,20 +7086,20 @@
         <v>200</v>
       </c>
       <c r="B225" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D225" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="F225">
+      <c r="F225" s="2">
         <v>223</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7099,17 +7110,17 @@
         <v>201</v>
       </c>
       <c r="C226" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="F226">
+      <c r="F226" s="2">
         <v>224</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7120,17 +7131,17 @@
         <v>201</v>
       </c>
       <c r="C227" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D227" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E227" s="2"/>
-      <c r="F227">
+      <c r="F227" s="2">
         <v>225</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7141,17 +7152,17 @@
         <v>201</v>
       </c>
       <c r="C228" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D228" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228">
+      <c r="F228" s="2">
         <v>226</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7162,17 +7173,17 @@
         <v>201</v>
       </c>
       <c r="C229" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D229" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="F229">
+      <c r="F229" s="2">
         <v>227</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7186,14 +7197,14 @@
         <v>137</v>
       </c>
       <c r="D230" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E230" s="2"/>
-      <c r="F230">
+      <c r="F230" s="2">
         <v>228</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7207,14 +7218,14 @@
         <v>137</v>
       </c>
       <c r="D231" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E231" s="2"/>
-      <c r="F231">
+      <c r="F231" s="2">
         <v>229</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7225,17 +7236,17 @@
         <v>201</v>
       </c>
       <c r="C232" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D232" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="F232">
+      <c r="F232" s="2">
         <v>230</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7243,20 +7254,20 @@
         <v>200</v>
       </c>
       <c r="B233" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C233" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D233" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="F233">
+      <c r="F233" s="2">
         <v>231</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7266,18 +7277,18 @@
       <c r="B234" t="s">
         <v>205</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" t="s">
         <v>224</v>
       </c>
-      <c r="D234" s="2" t="s">
-        <v>525</v>
+      <c r="D234" t="s">
+        <v>32</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
         <v>232</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7287,18 +7298,18 @@
       <c r="B235" t="s">
         <v>205</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D235" t="s">
-        <v>44</v>
+      <c r="D235" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="F235">
+      <c r="F235" s="2">
         <v>233</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7312,14 +7323,14 @@
         <v>224</v>
       </c>
       <c r="D236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E236" s="2"/>
-      <c r="F236">
+      <c r="F236" s="2">
         <v>234</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7333,14 +7344,14 @@
         <v>224</v>
       </c>
       <c r="D237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E237" s="2"/>
-      <c r="F237">
+      <c r="F237" s="2">
         <v>235</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,14 +7365,14 @@
         <v>224</v>
       </c>
       <c r="D238" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E238" s="2"/>
-      <c r="F238">
+      <c r="F238" s="2">
         <v>236</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7375,14 +7386,14 @@
         <v>224</v>
       </c>
       <c r="D239" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239">
+      <c r="F239" s="2">
         <v>237</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7396,14 +7407,14 @@
         <v>224</v>
       </c>
       <c r="D240" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="F240">
+      <c r="F240" s="2">
         <v>238</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7417,14 +7428,14 @@
         <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="F241">
+      <c r="F241" s="2">
         <v>239</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7438,14 +7449,14 @@
         <v>224</v>
       </c>
       <c r="D242" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="F242">
+      <c r="F242" s="2">
         <v>240</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7455,18 +7466,18 @@
       <c r="B243" t="s">
         <v>205</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" t="s">
         <v>224</v>
       </c>
-      <c r="D243" s="2" t="s">
-        <v>527</v>
+      <c r="D243" t="s">
+        <v>266</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <v>241</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7476,18 +7487,18 @@
       <c r="B244" t="s">
         <v>205</v>
       </c>
-      <c r="C244" t="s">
-        <v>204</v>
-      </c>
-      <c r="D244" t="s">
-        <v>4</v>
+      <c r="C244" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244">
+      <c r="F244" s="2">
         <v>242</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>312</v>
+        <v>533</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7501,14 +7512,14 @@
         <v>204</v>
       </c>
       <c r="D245" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="F245">
+      <c r="F245" s="2">
         <v>243</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7522,14 +7533,14 @@
         <v>204</v>
       </c>
       <c r="D246" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="F246">
+      <c r="F246" s="2">
         <v>244</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7543,14 +7554,14 @@
         <v>204</v>
       </c>
       <c r="D247" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E247" s="2"/>
-      <c r="F247">
+      <c r="F247" s="2">
         <v>245</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7564,14 +7575,14 @@
         <v>204</v>
       </c>
       <c r="D248" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E248" s="2"/>
-      <c r="F248">
+      <c r="F248" s="2">
         <v>246</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7582,16 +7593,37 @@
         <v>205</v>
       </c>
       <c r="C249" t="s">
+        <v>204</v>
+      </c>
+      <c r="D249" t="s">
+        <v>169</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2">
+        <v>247</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250" t="s">
+        <v>205</v>
+      </c>
+      <c r="C250" t="s">
         <v>264</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D250" t="s">
         <v>264</v>
       </c>
-      <c r="E249" s="2"/>
-      <c r="F249">
-        <v>247</v>
-      </c>
-      <c r="G249" s="2" t="s">
+      <c r="E250" s="2"/>
+      <c r="F250" s="2">
+        <v>248</v>
+      </c>
+      <c r="G250" s="2" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="616">
   <si>
     <t>Level1</t>
   </si>
@@ -1850,6 +1850,18 @@
   </si>
   <si>
     <t>A.3.9</t>
+  </si>
+  <si>
+    <t>A.3.10</t>
+  </si>
+  <si>
+    <t>ntd_leish_cut</t>
+  </si>
+  <si>
+    <t>Cutaneous and mucocutaneous leishmaniasis</t>
+  </si>
+  <si>
+    <t>Leishmaniasis</t>
   </si>
 </sst>
 </file>
@@ -1940,8 +1952,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G250" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G250"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G251" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G251"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2245,9 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3208,19 +3222,19 @@
         <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>615</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>135</v>
+        <v>614</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>611</v>
       </c>
       <c r="F42" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>317</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,22 +3242,22 @@
         <v>203</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>294</v>
+        <v>612</v>
       </c>
       <c r="F43" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3254,19 +3268,19 @@
         <v>231</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F44" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3277,19 +3291,19 @@
         <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F45" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3300,19 +3314,19 @@
         <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F46" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3323,19 +3337,19 @@
         <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F47" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3346,19 +3360,19 @@
         <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F48" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,19 +3383,19 @@
         <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="F49" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,19 +3406,19 @@
         <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F50" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,19 +3429,19 @@
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F51" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,22 +3449,22 @@
         <v>203</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>261</v>
+        <v>557</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>261</v>
+        <v>542</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="F52" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,19 +3475,19 @@
         <v>234</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F53" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3484,19 +3498,19 @@
         <v>234</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F54" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,19 +3521,19 @@
         <v>234</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F55" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3530,19 +3544,19 @@
         <v>234</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F56" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3550,22 +3564,22 @@
         <v>203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F57" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3576,19 +3590,19 @@
         <v>229</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F58" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3599,19 +3613,19 @@
         <v>229</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F59" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3622,61 +3636,63 @@
         <v>229</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" s="3">
+        <v>57</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>58</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2">
-        <v>59</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D62" t="s">
-        <v>242</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>322</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3690,14 +3706,14 @@
         <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3711,14 +3727,14 @@
         <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3732,56 +3748,56 @@
         <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
+        <v>62</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>522</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
         <v>63</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3">
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
         <v>64</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2">
-        <v>65</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3795,14 +3811,14 @@
         <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3816,14 +3832,14 @@
         <v>128</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -3837,14 +3853,14 @@
         <v>128</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,14 +3874,14 @@
         <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3879,14 +3895,14 @@
         <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3897,17 +3913,17 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,15 +3936,15 @@
       <c r="C74" t="s">
         <v>175</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>592</v>
+      <c r="D74" t="s">
+        <v>175</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>593</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3942,14 +3958,14 @@
         <v>175</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3963,35 +3979,35 @@
         <v>175</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,14 +4021,14 @@
         <v>218</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4026,14 +4042,14 @@
         <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4046,15 +4062,15 @@
       <c r="C80" t="s">
         <v>218</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>536</v>
+      <c r="D80" t="s">
+        <v>18</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,17 +4081,17 @@
         <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" t="s">
-        <v>171</v>
+        <v>218</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4089,14 +4105,14 @@
         <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4110,14 +4126,14 @@
         <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4131,56 +4147,56 @@
         <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
+        <v>81</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2">
         <v>82</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3">
+      <c r="E86" s="3"/>
+      <c r="F86" s="3">
         <v>83</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4191,17 +4207,17 @@
         <v>238</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4215,14 +4231,14 @@
         <v>237</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4236,14 +4252,14 @@
         <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4257,56 +4273,56 @@
         <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
+        <v>87</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
         <v>88</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3">
+      <c r="E92" s="3"/>
+      <c r="F92" s="3">
         <v>89</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>207</v>
-      </c>
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>160</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2">
-        <v>90</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -4317,17 +4333,17 @@
         <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,35 +4357,35 @@
         <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
+        <v>91</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2">
         <v>92</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3">
-        <v>93</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4380,59 +4396,59 @@
         <v>206</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3">
+        <v>93</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3">
         <v>94</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2">
-        <v>95</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="C98" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" t="s">
-        <v>126</v>
+      <c r="C98" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4446,14 +4462,14 @@
         <v>221</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4467,35 +4483,35 @@
         <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
+        <v>97</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
         <v>98</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3">
-        <v>99</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4506,38 +4522,38 @@
         <v>206</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3">
+        <v>99</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>226</v>
-      </c>
-      <c r="D103" t="s">
-        <v>62</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2">
-        <v>101</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4551,14 +4567,14 @@
         <v>226</v>
       </c>
       <c r="D104" t="s">
-        <v>599</v>
+        <v>62</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4569,17 +4585,17 @@
         <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D105" t="s">
-        <v>158</v>
+        <v>599</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4593,14 +4609,14 @@
         <v>239</v>
       </c>
       <c r="D106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,56 +4630,56 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2">
+        <v>104</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>239</v>
+      </c>
+      <c r="D108" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2">
         <v>105</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G108" s="2" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3">
-        <v>106</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,17 +4690,17 @@
         <v>210</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4695,38 +4711,38 @@
         <v>210</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3">
+        <v>108</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3">
         <v>109</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" t="s">
-        <v>230</v>
-      </c>
-      <c r="D112" t="s">
-        <v>72</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2">
-        <v>110</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,14 +4756,14 @@
         <v>230</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4761,35 +4777,35 @@
         <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2">
+        <v>111</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2">
         <v>112</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3">
-        <v>113</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -4800,17 +4816,17 @@
         <v>210</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4821,38 +4837,38 @@
         <v>210</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
+        <v>114</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3">
         <v>115</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" t="s">
-        <v>210</v>
-      </c>
-      <c r="C118" t="s">
-        <v>119</v>
-      </c>
-      <c r="D118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2">
-        <v>116</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4866,14 +4882,14 @@
         <v>119</v>
       </c>
       <c r="D119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4887,14 +4903,14 @@
         <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4908,35 +4924,35 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2">
+        <v>118</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" t="s">
         <v>119</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="D122" t="s">
+        <v>195</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2">
+        <v>119</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3">
-        <v>120</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4947,17 +4963,17 @@
         <v>210</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4965,20 +4981,20 @@
         <v>200</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4989,17 +5005,17 @@
         <v>217</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5010,80 +5026,80 @@
         <v>217</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3">
+        <v>123</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3">
         <v>124</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" t="s">
         <v>217</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>120</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>33</v>
       </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2">
+      <c r="E128" s="2"/>
+      <c r="F128" s="2">
         <v>125</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="3" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3">
+      <c r="E129" s="3"/>
+      <c r="F129" s="3">
         <v>126</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" t="s">
-        <v>217</v>
-      </c>
-      <c r="C129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" t="s">
-        <v>178</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2">
-        <v>127</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5094,17 +5110,17 @@
         <v>217</v>
       </c>
       <c r="C130" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5118,14 +5134,14 @@
         <v>216</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5139,14 +5155,14 @@
         <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5160,35 +5176,35 @@
         <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2">
+        <v>130</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" t="s">
+        <v>216</v>
+      </c>
+      <c r="D134" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2">
         <v>131</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3">
-        <v>132</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5196,41 +5212,41 @@
         <v>200</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3">
+        <v>132</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3">
         <v>133</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>200</v>
-      </c>
-      <c r="B136" t="s">
-        <v>212</v>
-      </c>
-      <c r="C136" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136" t="s">
-        <v>34</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2">
-        <v>134</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5244,14 +5260,14 @@
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,14 +5281,14 @@
         <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,35 +5302,35 @@
         <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2">
+        <v>136</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2">
         <v>137</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3">
-        <v>138</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5325,38 +5341,38 @@
         <v>212</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3">
+        <v>138</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3">
         <v>139</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>200</v>
-      </c>
-      <c r="B142" t="s">
-        <v>212</v>
-      </c>
-      <c r="C142" t="s">
-        <v>236</v>
-      </c>
-      <c r="D142" t="s">
-        <v>81</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2">
-        <v>140</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -5370,14 +5386,14 @@
         <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5391,14 +5407,14 @@
         <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5412,14 +5428,14 @@
         <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5433,14 +5449,14 @@
         <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5451,17 +5467,17 @@
         <v>212</v>
       </c>
       <c r="C147" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>604</v>
+        <v>125</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5474,15 +5490,15 @@
       <c r="C148" t="s">
         <v>227</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>605</v>
+      <c r="D148" t="s">
+        <v>604</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>603</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5495,15 +5511,15 @@
       <c r="C149" t="s">
         <v>227</v>
       </c>
-      <c r="D149" t="s">
-        <v>69</v>
+      <c r="D149" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>470</v>
+        <v>603</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5517,14 +5533,14 @@
         <v>227</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5538,14 +5554,14 @@
         <v>227</v>
       </c>
       <c r="D151" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5556,17 +5572,17 @@
         <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5580,14 +5596,14 @@
         <v>211</v>
       </c>
       <c r="D153" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5601,14 +5617,14 @@
         <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5622,14 +5638,14 @@
         <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5643,14 +5659,14 @@
         <v>211</v>
       </c>
       <c r="D156" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5661,17 +5677,17 @@
         <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D157" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5685,14 +5701,14 @@
         <v>220</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5706,14 +5722,14 @@
         <v>220</v>
       </c>
       <c r="D159" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5727,35 +5743,35 @@
         <v>220</v>
       </c>
       <c r="D160" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
+        <v>157</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" t="s">
+        <v>212</v>
+      </c>
+      <c r="C161" t="s">
+        <v>220</v>
+      </c>
+      <c r="D161" t="s">
+        <v>192</v>
+      </c>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2">
         <v>158</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G161" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3">
-        <v>159</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5766,17 +5782,17 @@
         <v>215</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5787,17 +5803,17 @@
         <v>215</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5808,17 +5824,17 @@
         <v>215</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5829,38 +5845,38 @@
         <v>215</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3">
+        <v>162</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3">
         <v>163</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>200</v>
-      </c>
-      <c r="B166" t="s">
-        <v>215</v>
-      </c>
-      <c r="C166" t="s">
-        <v>123</v>
-      </c>
-      <c r="D166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2">
-        <v>164</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,14 +5890,14 @@
         <v>123</v>
       </c>
       <c r="D167" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5895,14 +5911,14 @@
         <v>123</v>
       </c>
       <c r="D168" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5916,14 +5932,14 @@
         <v>123</v>
       </c>
       <c r="D169" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5937,35 +5953,35 @@
         <v>123</v>
       </c>
       <c r="D170" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2">
+        <v>167</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171" t="s">
+        <v>123</v>
+      </c>
+      <c r="D171" t="s">
+        <v>73</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2">
         <v>168</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3">
-        <v>169</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5976,17 +5992,17 @@
         <v>215</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,17 +6013,17 @@
         <v>215</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6018,17 +6034,17 @@
         <v>215</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6039,17 +6055,17 @@
         <v>215</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6057,41 +6073,41 @@
         <v>200</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3">
+        <v>173</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3">
         <v>174</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>200</v>
-      </c>
-      <c r="B177" t="s">
-        <v>208</v>
-      </c>
-      <c r="C177" t="s">
-        <v>223</v>
-      </c>
-      <c r="D177" t="s">
-        <v>244</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2">
-        <v>175</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6105,14 +6121,14 @@
         <v>223</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6126,14 +6142,14 @@
         <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6147,14 +6163,14 @@
         <v>223</v>
       </c>
       <c r="D180" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,14 +6184,14 @@
         <v>223</v>
       </c>
       <c r="D181" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6186,122 +6202,122 @@
         <v>208</v>
       </c>
       <c r="C182" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D182" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="2" t="s">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
         <v>208</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" t="s">
         <v>209</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>524</v>
+      <c r="D183" t="s">
+        <v>11</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
+        <v>180</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2">
         <v>181</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" s="3" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3">
+      <c r="E185" s="3"/>
+      <c r="F185" s="3">
         <v>182</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" t="s">
         <v>233</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>134</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>118</v>
       </c>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2">
         <v>183</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" s="3" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3">
+      <c r="E187" s="3"/>
+      <c r="F187" s="3">
         <v>184</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B187" t="s">
-        <v>233</v>
-      </c>
-      <c r="C187" t="s">
-        <v>134</v>
-      </c>
-      <c r="D187" t="s">
-        <v>164</v>
-      </c>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2">
-        <v>185</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6315,35 +6331,35 @@
         <v>134</v>
       </c>
       <c r="D188" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2">
+        <v>185</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" t="s">
+        <v>233</v>
+      </c>
+      <c r="C189" t="s">
+        <v>134</v>
+      </c>
+      <c r="D189" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2">
         <v>186</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3">
-        <v>187</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6351,41 +6367,41 @@
         <v>200</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3">
+        <v>187</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3">
         <v>188</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191" t="s">
-        <v>23</v>
-      </c>
-      <c r="D191" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2">
-        <v>189</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6399,14 +6415,14 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6417,17 +6433,17 @@
         <v>199</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6438,17 +6454,17 @@
         <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6459,17 +6475,17 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D195" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6480,17 +6496,17 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D196" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6501,17 +6517,17 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D197" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6522,17 +6538,17 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6543,17 +6559,17 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D199" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6564,17 +6580,17 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D200" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6585,17 +6601,17 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D201" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6606,17 +6622,17 @@
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6630,14 +6646,14 @@
         <v>93</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6651,14 +6667,14 @@
         <v>93</v>
       </c>
       <c r="D204" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6672,14 +6688,14 @@
         <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6693,14 +6709,14 @@
         <v>93</v>
       </c>
       <c r="D206" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6711,17 +6727,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D207" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6732,17 +6748,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D208" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6753,17 +6769,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D209" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6774,17 +6790,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D210" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6795,17 +6811,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D211" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6816,17 +6832,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D212" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6837,17 +6853,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D213" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6858,17 +6874,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D214" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6879,17 +6895,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D215" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6900,17 +6916,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D216" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6921,17 +6937,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D217" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6942,17 +6958,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D218" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,17 +6979,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D219" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -6984,17 +7000,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D220" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7008,14 +7024,14 @@
         <v>179</v>
       </c>
       <c r="D221" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7026,17 +7042,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D222" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7047,17 +7063,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D223" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7068,17 +7084,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D224" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7089,17 +7105,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D225" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7107,20 +7123,20 @@
         <v>200</v>
       </c>
       <c r="B226" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D226" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7131,17 +7147,17 @@
         <v>201</v>
       </c>
       <c r="C227" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D227" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7152,17 +7168,17 @@
         <v>201</v>
       </c>
       <c r="C228" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D228" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7173,17 +7189,17 @@
         <v>201</v>
       </c>
       <c r="C229" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D229" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7194,17 +7210,17 @@
         <v>201</v>
       </c>
       <c r="C230" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D230" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7218,14 +7234,14 @@
         <v>137</v>
       </c>
       <c r="D231" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7239,14 +7255,14 @@
         <v>137</v>
       </c>
       <c r="D232" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7257,17 +7273,17 @@
         <v>201</v>
       </c>
       <c r="C233" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7275,20 +7291,20 @@
         <v>200</v>
       </c>
       <c r="B234" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C234" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D234" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7298,18 +7314,18 @@
       <c r="B235" t="s">
         <v>205</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" t="s">
         <v>224</v>
       </c>
-      <c r="D235" s="2" t="s">
-        <v>525</v>
+      <c r="D235" t="s">
+        <v>32</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,18 +7335,18 @@
       <c r="B236" t="s">
         <v>205</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D236" t="s">
-        <v>44</v>
+      <c r="D236" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7344,14 +7360,14 @@
         <v>224</v>
       </c>
       <c r="D237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7365,14 +7381,14 @@
         <v>224</v>
       </c>
       <c r="D238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7386,14 +7402,14 @@
         <v>224</v>
       </c>
       <c r="D239" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7407,14 +7423,14 @@
         <v>224</v>
       </c>
       <c r="D240" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7428,14 +7444,14 @@
         <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7449,14 +7465,14 @@
         <v>224</v>
       </c>
       <c r="D242" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7470,14 +7486,14 @@
         <v>224</v>
       </c>
       <c r="D243" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,18 +7503,18 @@
       <c r="B244" t="s">
         <v>205</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" t="s">
         <v>224</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>527</v>
+      <c r="D244" t="s">
+        <v>266</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7508,18 +7524,18 @@
       <c r="B245" t="s">
         <v>205</v>
       </c>
-      <c r="C245" t="s">
-        <v>204</v>
-      </c>
-      <c r="D245" t="s">
-        <v>4</v>
+      <c r="C245" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>312</v>
+        <v>533</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7533,14 +7549,14 @@
         <v>204</v>
       </c>
       <c r="D246" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7554,14 +7570,14 @@
         <v>204</v>
       </c>
       <c r="D247" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7575,14 +7591,14 @@
         <v>204</v>
       </c>
       <c r="D248" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7596,14 +7612,14 @@
         <v>204</v>
       </c>
       <c r="D249" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,16 +7630,37 @@
         <v>205</v>
       </c>
       <c r="C250" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D250" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
+        <v>247</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>200</v>
+      </c>
+      <c r="B251" t="s">
+        <v>205</v>
+      </c>
+      <c r="C251" t="s">
+        <v>264</v>
+      </c>
+      <c r="D251" t="s">
+        <v>264</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2">
         <v>248</v>
       </c>
-      <c r="G250" s="2" t="s">
+      <c r="G251" s="2" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="618">
   <si>
     <t>Level1</t>
   </si>
@@ -1862,6 +1862,12 @@
   </si>
   <si>
     <t>Leishmaniasis</t>
+  </si>
+  <si>
+    <t>std_gonnorhea</t>
+  </si>
+  <si>
+    <t>Gonococcal infection</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +1958,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G251" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G251"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G252" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G252"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2257,11 +2263,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3231,7 +3235,7 @@
         <v>611</v>
       </c>
       <c r="F42" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>613</v>
@@ -3254,7 +3258,7 @@
         <v>612</v>
       </c>
       <c r="F43" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>317</v>
@@ -3277,7 +3281,7 @@
         <v>294</v>
       </c>
       <c r="F44" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>475</v>
@@ -3300,7 +3304,7 @@
         <v>295</v>
       </c>
       <c r="F45" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>476</v>
@@ -3323,7 +3327,7 @@
         <v>296</v>
       </c>
       <c r="F46" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>474</v>
@@ -3346,7 +3350,7 @@
         <v>297</v>
       </c>
       <c r="F47" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>473</v>
@@ -3369,7 +3373,7 @@
         <v>298</v>
       </c>
       <c r="F48" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>477</v>
@@ -3392,7 +3396,7 @@
         <v>299</v>
       </c>
       <c r="F49" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>472</v>
@@ -3415,7 +3419,7 @@
         <v>564</v>
       </c>
       <c r="F50" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>548</v>
@@ -3438,7 +3442,7 @@
         <v>565</v>
       </c>
       <c r="F51" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>549</v>
@@ -3461,7 +3465,7 @@
         <v>566</v>
       </c>
       <c r="F52" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>552</v>
@@ -3484,7 +3488,7 @@
         <v>300</v>
       </c>
       <c r="F53" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>479</v>
@@ -3507,7 +3511,7 @@
         <v>301</v>
       </c>
       <c r="F54" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>480</v>
@@ -3530,7 +3534,7 @@
         <v>302</v>
       </c>
       <c r="F55" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>481</v>
@@ -3553,7 +3557,7 @@
         <v>303</v>
       </c>
       <c r="F56" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>482</v>
@@ -3576,7 +3580,7 @@
         <v>304</v>
       </c>
       <c r="F57" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>478</v>
@@ -3599,7 +3603,7 @@
         <v>305</v>
       </c>
       <c r="F58" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>385</v>
@@ -3622,7 +3626,7 @@
         <v>306</v>
       </c>
       <c r="F59" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>380</v>
@@ -3645,7 +3649,7 @@
         <v>307</v>
       </c>
       <c r="F60" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>370</v>
@@ -3668,7 +3672,7 @@
         <v>308</v>
       </c>
       <c r="F61" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>371</v>
@@ -3689,7 +3693,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>534</v>
@@ -3710,7 +3714,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>322</v>
@@ -3731,7 +3735,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>323</v>
@@ -3752,7 +3756,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>324</v>
@@ -3773,7 +3777,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>523</v>
@@ -3794,7 +3798,7 @@
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>325</v>
@@ -3815,7 +3819,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>320</v>
@@ -3836,7 +3840,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>328</v>
@@ -3857,7 +3861,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>327</v>
@@ -3878,7 +3882,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>311</v>
@@ -3899,7 +3903,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>315</v>
@@ -3920,7 +3924,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>310</v>
@@ -3941,7 +3945,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>331</v>
@@ -3962,7 +3966,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>593</v>
@@ -3983,7 +3987,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>555</v>
@@ -4000,35 +4004,35 @@
         <v>175</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>218</v>
-      </c>
-      <c r="D78" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>519</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,14 +4046,14 @@
         <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4063,14 +4067,14 @@
         <v>218</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,15 +4087,15 @@
       <c r="C81" t="s">
         <v>218</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>536</v>
+      <c r="D81" t="s">
+        <v>18</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4102,17 +4106,17 @@
         <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" t="s">
-        <v>171</v>
+        <v>218</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4126,14 +4130,14 @@
         <v>240</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4147,14 +4151,14 @@
         <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,56 +4172,56 @@
         <v>240</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G85" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>219</v>
+      </c>
+      <c r="C86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2">
+        <v>84</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3">
-        <v>83</v>
-      </c>
-      <c r="G86" s="3" t="s">
+      <c r="E87" s="3"/>
+      <c r="F87" s="3">
+        <v>85</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>207</v>
-      </c>
-      <c r="B87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2">
-        <v>84</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,17 +4232,17 @@
         <v>238</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4252,14 +4256,14 @@
         <v>237</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4273,14 +4277,14 @@
         <v>237</v>
       </c>
       <c r="D90" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,56 +4298,56 @@
         <v>237</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2">
+        <v>90</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3">
-        <v>89</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="3">
+        <v>91</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>207</v>
-      </c>
-      <c r="B93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>160</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2">
-        <v>90</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,17 +4358,17 @@
         <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4378,35 +4382,35 @@
         <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2">
+        <v>94</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3">
-        <v>93</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4417,59 +4421,59 @@
         <v>206</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G97" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3">
+        <v>96</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2">
-        <v>95</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B99" t="s">
         <v>206</v>
       </c>
-      <c r="C99" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
+      <c r="C99" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,14 +4487,14 @@
         <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4504,35 +4508,35 @@
         <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
+        <v>100</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3">
-        <v>99</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,38 +4547,38 @@
         <v>206</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G103" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3">
+        <v>102</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" t="s">
-        <v>226</v>
-      </c>
-      <c r="D104" t="s">
-        <v>62</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2">
-        <v>101</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4588,14 +4592,14 @@
         <v>226</v>
       </c>
       <c r="D105" t="s">
-        <v>599</v>
+        <v>62</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4606,17 +4610,17 @@
         <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>599</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4630,14 +4634,14 @@
         <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4651,56 +4655,56 @@
         <v>239</v>
       </c>
       <c r="D108" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" t="s">
+        <v>260</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2">
+        <v>107</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3">
-        <v>106</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,17 +4715,17 @@
         <v>210</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,38 +4736,38 @@
         <v>210</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G112" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3">
+        <v>111</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" t="s">
-        <v>210</v>
-      </c>
-      <c r="C113" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2">
-        <v>110</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4777,14 +4781,14 @@
         <v>230</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4798,35 +4802,35 @@
         <v>230</v>
       </c>
       <c r="D115" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G115" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2">
+        <v>114</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3">
-        <v>113</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4837,17 +4841,17 @@
         <v>210</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4858,38 +4862,38 @@
         <v>210</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G118" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3">
+        <v>117</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" t="s">
-        <v>119</v>
-      </c>
-      <c r="D119" t="s">
-        <v>115</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2">
-        <v>116</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4903,14 +4907,14 @@
         <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4924,14 +4928,14 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -4945,35 +4949,35 @@
         <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2">
+        <v>120</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" t="s">
         <v>119</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="D123" t="s">
+        <v>195</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2">
+        <v>121</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3">
-        <v>120</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4984,17 +4988,17 @@
         <v>210</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5002,20 +5006,20 @@
         <v>200</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5026,17 +5030,17 @@
         <v>217</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5047,80 +5051,80 @@
         <v>217</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G127" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3">
+        <v>126</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
         <v>217</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>120</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>33</v>
       </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2">
-        <v>125</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2">
+        <v>127</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" s="3" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C130" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3">
-        <v>126</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="E130" s="3"/>
+      <c r="F130" s="3">
+        <v>128</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" t="s">
-        <v>217</v>
-      </c>
-      <c r="C130" t="s">
-        <v>120</v>
-      </c>
-      <c r="D130" t="s">
-        <v>178</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2">
-        <v>127</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5131,17 +5135,17 @@
         <v>217</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5155,14 +5159,14 @@
         <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5176,14 +5180,14 @@
         <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5197,35 +5201,35 @@
         <v>216</v>
       </c>
       <c r="D134" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G134" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2">
+        <v>133</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3">
-        <v>132</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5233,41 +5237,41 @@
         <v>200</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G136" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3">
+        <v>135</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>200</v>
-      </c>
-      <c r="B137" t="s">
-        <v>212</v>
-      </c>
-      <c r="C137" t="s">
-        <v>38</v>
-      </c>
-      <c r="D137" t="s">
-        <v>34</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2">
-        <v>134</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5281,14 +5285,14 @@
         <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>463</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,14 +5306,14 @@
         <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5323,35 +5327,35 @@
         <v>38</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2">
+        <v>139</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3">
-        <v>138</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5362,38 +5366,38 @@
         <v>212</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G142" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3">
+        <v>141</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" t="s">
-        <v>212</v>
-      </c>
-      <c r="C143" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" t="s">
-        <v>81</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2">
-        <v>140</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5407,14 +5411,14 @@
         <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5428,14 +5432,14 @@
         <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5449,14 +5453,14 @@
         <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,14 +5474,14 @@
         <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5488,17 +5492,17 @@
         <v>212</v>
       </c>
       <c r="C148" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>604</v>
+        <v>125</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5511,15 +5515,15 @@
       <c r="C149" t="s">
         <v>227</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>605</v>
+      <c r="D149" t="s">
+        <v>604</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>603</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5532,15 +5536,15 @@
       <c r="C150" t="s">
         <v>227</v>
       </c>
-      <c r="D150" t="s">
-        <v>69</v>
+      <c r="D150" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>470</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5554,14 +5558,14 @@
         <v>227</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5575,14 +5579,14 @@
         <v>227</v>
       </c>
       <c r="D152" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,17 +5597,17 @@
         <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5617,14 +5621,14 @@
         <v>211</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5638,14 +5642,14 @@
         <v>211</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5659,14 +5663,14 @@
         <v>211</v>
       </c>
       <c r="D156" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5680,14 +5684,14 @@
         <v>211</v>
       </c>
       <c r="D157" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,17 +5702,17 @@
         <v>212</v>
       </c>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D158" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>467</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5722,14 +5726,14 @@
         <v>220</v>
       </c>
       <c r="D159" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,14 +5747,14 @@
         <v>220</v>
       </c>
       <c r="D160" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,35 +5768,35 @@
         <v>220</v>
       </c>
       <c r="D161" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G161" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>200</v>
+      </c>
+      <c r="B162" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" t="s">
+        <v>220</v>
+      </c>
+      <c r="D162" t="s">
+        <v>192</v>
+      </c>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2">
+        <v>160</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3">
-        <v>159</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5803,17 +5807,17 @@
         <v>215</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5824,17 +5828,17 @@
         <v>215</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5845,17 +5849,17 @@
         <v>215</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5866,38 +5870,38 @@
         <v>215</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G166" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3">
+        <v>165</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" t="s">
-        <v>215</v>
-      </c>
-      <c r="C167" t="s">
-        <v>123</v>
-      </c>
-      <c r="D167" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2">
-        <v>164</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,14 +5915,14 @@
         <v>123</v>
       </c>
       <c r="D168" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5932,14 +5936,14 @@
         <v>123</v>
       </c>
       <c r="D169" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,14 +5957,14 @@
         <v>123</v>
       </c>
       <c r="D170" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,35 +5978,35 @@
         <v>123</v>
       </c>
       <c r="D171" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G171" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" t="s">
+        <v>123</v>
+      </c>
+      <c r="D172" t="s">
+        <v>73</v>
+      </c>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2">
+        <v>170</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3">
-        <v>169</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6013,17 +6017,17 @@
         <v>215</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6034,17 +6038,17 @@
         <v>215</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6055,17 +6059,17 @@
         <v>215</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6076,17 +6080,17 @@
         <v>215</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6094,41 +6098,41 @@
         <v>200</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G177" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3">
+        <v>176</v>
+      </c>
+      <c r="G178" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" t="s">
-        <v>208</v>
-      </c>
-      <c r="C178" t="s">
-        <v>223</v>
-      </c>
-      <c r="D178" t="s">
-        <v>244</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2">
-        <v>175</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6142,14 +6146,14 @@
         <v>223</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6163,14 +6167,14 @@
         <v>223</v>
       </c>
       <c r="D180" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6184,14 +6188,14 @@
         <v>223</v>
       </c>
       <c r="D181" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6205,14 +6209,14 @@
         <v>223</v>
       </c>
       <c r="D182" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6223,122 +6227,122 @@
         <v>208</v>
       </c>
       <c r="C183" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D183" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" s="2" t="s">
+      <c r="A184" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>524</v>
+      <c r="D184" t="s">
+        <v>11</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G184" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2">
+        <v>183</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" s="3" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3">
-        <v>182</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="E186" s="3"/>
+      <c r="F186" s="3">
+        <v>184</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" t="s">
         <v>233</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>134</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>118</v>
       </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2">
-        <v>183</v>
-      </c>
-      <c r="G186" s="2" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2">
+        <v>185</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B187" s="3" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3">
-        <v>184</v>
-      </c>
-      <c r="G187" s="3" t="s">
+      <c r="E188" s="3"/>
+      <c r="F188" s="3">
+        <v>186</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" t="s">
-        <v>233</v>
-      </c>
-      <c r="C188" t="s">
-        <v>134</v>
-      </c>
-      <c r="D188" t="s">
-        <v>164</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2">
-        <v>185</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6352,35 +6356,35 @@
         <v>134</v>
       </c>
       <c r="D189" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G189" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" t="s">
+        <v>134</v>
+      </c>
+      <c r="D190" t="s">
+        <v>182</v>
+      </c>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2">
+        <v>188</v>
+      </c>
+      <c r="G190" s="2" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3">
-        <v>187</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,41 +6392,41 @@
         <v>200</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G191" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3">
+        <v>190</v>
+      </c>
+      <c r="G192" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" t="s">
-        <v>199</v>
-      </c>
-      <c r="C192" t="s">
-        <v>23</v>
-      </c>
-      <c r="D192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2">
-        <v>189</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6436,14 +6440,14 @@
         <v>23</v>
       </c>
       <c r="D193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6454,17 +6458,17 @@
         <v>199</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6475,17 +6479,17 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -6496,17 +6500,17 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D196" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,17 +6521,17 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6538,17 +6542,17 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6559,17 +6563,17 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D199" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6580,17 +6584,17 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D200" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6601,17 +6605,17 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D201" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6622,17 +6626,17 @@
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D202" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,17 +6647,17 @@
         <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D203" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6667,14 +6671,14 @@
         <v>93</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6688,14 +6692,14 @@
         <v>93</v>
       </c>
       <c r="D205" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6709,14 +6713,14 @@
         <v>93</v>
       </c>
       <c r="D206" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6730,14 +6734,14 @@
         <v>93</v>
       </c>
       <c r="D207" t="s">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6748,17 +6752,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D208" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6769,17 +6773,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D209" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6790,17 +6794,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D210" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6811,17 +6815,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D211" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6832,17 +6836,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D212" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6853,17 +6857,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D213" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6874,17 +6878,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D214" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6895,17 +6899,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D215" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6916,17 +6920,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D216" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6937,17 +6941,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D217" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6958,17 +6962,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D218" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6979,17 +6983,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D219" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7000,17 +7004,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D220" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7021,17 +7025,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D221" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7045,14 +7049,14 @@
         <v>179</v>
       </c>
       <c r="D222" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7063,17 +7067,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D223" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,17 +7088,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D224" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7105,17 +7109,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D225" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7126,17 +7130,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D226" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7144,20 +7148,20 @@
         <v>200</v>
       </c>
       <c r="B227" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D227" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7168,17 +7172,17 @@
         <v>201</v>
       </c>
       <c r="C228" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D228" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7189,17 +7193,17 @@
         <v>201</v>
       </c>
       <c r="C229" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D229" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7210,17 +7214,17 @@
         <v>201</v>
       </c>
       <c r="C230" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D230" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7231,17 +7235,17 @@
         <v>201</v>
       </c>
       <c r="C231" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D231" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7255,14 +7259,14 @@
         <v>137</v>
       </c>
       <c r="D232" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7276,14 +7280,14 @@
         <v>137</v>
       </c>
       <c r="D233" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7294,17 +7298,17 @@
         <v>201</v>
       </c>
       <c r="C234" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D234" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7312,20 +7316,20 @@
         <v>200</v>
       </c>
       <c r="B235" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C235" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D235" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7335,18 +7339,18 @@
       <c r="B236" t="s">
         <v>205</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" t="s">
         <v>224</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>525</v>
+      <c r="D236" t="s">
+        <v>32</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7356,18 +7360,18 @@
       <c r="B237" t="s">
         <v>205</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D237" t="s">
-        <v>44</v>
+      <c r="D237" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7381,14 +7385,14 @@
         <v>224</v>
       </c>
       <c r="D238" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,14 +7406,14 @@
         <v>224</v>
       </c>
       <c r="D239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7423,14 +7427,14 @@
         <v>224</v>
       </c>
       <c r="D240" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7444,14 +7448,14 @@
         <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7465,14 +7469,14 @@
         <v>224</v>
       </c>
       <c r="D242" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7486,14 +7490,14 @@
         <v>224</v>
       </c>
       <c r="D243" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,14 +7511,14 @@
         <v>224</v>
       </c>
       <c r="D244" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7524,18 +7528,18 @@
       <c r="B245" t="s">
         <v>205</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" t="s">
         <v>224</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>527</v>
+      <c r="D245" t="s">
+        <v>266</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7545,18 +7549,18 @@
       <c r="B246" t="s">
         <v>205</v>
       </c>
-      <c r="C246" t="s">
-        <v>204</v>
-      </c>
-      <c r="D246" t="s">
-        <v>4</v>
+      <c r="C246" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>312</v>
+        <v>533</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7570,14 +7574,14 @@
         <v>204</v>
       </c>
       <c r="D247" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7591,14 +7595,14 @@
         <v>204</v>
       </c>
       <c r="D248" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7612,14 +7616,14 @@
         <v>204</v>
       </c>
       <c r="D249" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7633,14 +7637,14 @@
         <v>204</v>
       </c>
       <c r="D250" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7651,16 +7655,37 @@
         <v>205</v>
       </c>
       <c r="C251" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D251" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G251" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" t="s">
+        <v>205</v>
+      </c>
+      <c r="C252" t="s">
+        <v>264</v>
+      </c>
+      <c r="D252" t="s">
+        <v>264</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2">
+        <v>250</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="631">
   <si>
     <t>Level1</t>
   </si>
@@ -1868,6 +1868,45 @@
   </si>
   <si>
     <t>Gonococcal infection</t>
+  </si>
+  <si>
+    <t>diarrhea_adenovirus</t>
+  </si>
+  <si>
+    <t>diarrhea_cholera</t>
+  </si>
+  <si>
+    <t>diarrhea_shigellosis</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>Adenoviral enteritis</t>
+  </si>
+  <si>
+    <t>A.2.01.10</t>
+  </si>
+  <si>
+    <t>A.2.01.11</t>
+  </si>
+  <si>
+    <t>A.2.01.12</t>
+  </si>
+  <si>
+    <t>Shigellosis</t>
+  </si>
+  <si>
+    <t>resp_allergic</t>
+  </si>
+  <si>
+    <t>Allergic disorders in upper respiratory system</t>
+  </si>
+  <si>
+    <t>std_chlamydia</t>
+  </si>
+  <si>
+    <t>Sexually transmitted chlamydial diseases</t>
   </si>
 </sst>
 </file>
@@ -1958,8 +1997,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G252" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G257" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G257"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2263,7 +2302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G252"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
@@ -2272,7 +2311,7 @@
     <col min="1" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2424,7 +2463,7 @@
         <v>274</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>569</v>
@@ -2433,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2446,8 +2485,8 @@
       <c r="C8" t="s">
         <v>274</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
+      <c r="D8" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>570</v>
@@ -2456,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>279</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2470,7 +2509,7 @@
         <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>571</v>
@@ -2479,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2492,8 +2531,8 @@
       <c r="C10" t="s">
         <v>274</v>
       </c>
-      <c r="D10" t="s">
-        <v>250</v>
+      <c r="D10" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>572</v>
@@ -2502,7 +2541,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>281</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2516,7 +2555,7 @@
         <v>274</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>573</v>
@@ -2525,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2539,7 +2578,7 @@
         <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>574</v>
@@ -2548,7 +2587,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2562,7 +2601,7 @@
         <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>575</v>
@@ -2571,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2585,7 +2624,7 @@
         <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>576</v>
@@ -2594,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2607,8 +2646,8 @@
       <c r="C15" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>544</v>
+      <c r="D15" t="s">
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>602</v>
@@ -2617,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>554</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,19 +2667,19 @@
         <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" t="s">
-        <v>129</v>
+        <v>274</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>283</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2651,19 +2690,19 @@
         <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>578</v>
+        <v>624</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>426</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,19 +2713,19 @@
         <v>213</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
+        <v>274</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>544</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>430</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2697,19 +2736,19 @@
         <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F19" s="2">
         <v>17</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>429</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2723,16 +2762,16 @@
         <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F20" s="2">
         <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,62 +2785,62 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F21" s="2">
         <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F22" s="2">
         <v>20</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>425</v>
+      <c r="G22" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F23" s="2">
         <v>21</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>407</v>
+      <c r="G23" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2812,65 +2851,65 @@
         <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F24" s="2">
         <v>22</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="A25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C25" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="C25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" s="3">
         <v>23</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>316</v>
+      <c r="G25" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="A26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="C26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F26" s="3">
         <v>24</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>319</v>
+      <c r="G26" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,86 +2922,86 @@
       <c r="C27" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>526</v>
+      <c r="D27" t="s">
+        <v>156</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F27" s="2">
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F28" s="2">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F29" s="2">
+        <v>27</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F30" s="2">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F28" s="3">
-        <v>26</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="F29" s="3">
-        <v>27</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F30" s="3">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,19 +3012,19 @@
         <v>213</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>288</v>
+        <v>589</v>
       </c>
       <c r="F31" s="3">
         <v>29</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,19 +3035,19 @@
         <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>535</v>
+        <v>198</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>535</v>
+        <v>198</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
       <c r="F32" s="3">
         <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>531</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,19 +3058,19 @@
         <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>541</v>
+        <v>184</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>541</v>
+        <v>184</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>551</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3039,22 +3078,22 @@
         <v>203</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F34" s="3">
         <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3062,22 +3101,22 @@
         <v>203</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>291</v>
+        <v>562</v>
       </c>
       <c r="F35" s="3">
         <v>33</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>595</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,22 +3124,22 @@
         <v>203</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>541</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>541</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>293</v>
+        <v>563</v>
       </c>
       <c r="F36" s="3">
         <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>333</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,19 +3150,19 @@
         <v>225</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F37" s="3">
         <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,19 +3173,19 @@
         <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
       <c r="F38" s="3">
         <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,19 +3196,19 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>609</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>609</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>568</v>
+        <v>293</v>
       </c>
       <c r="F39" s="3">
         <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>610</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,19 +3219,19 @@
         <v>225</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>540</v>
+        <v>248</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>540</v>
+        <v>248</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>596</v>
+        <v>292</v>
       </c>
       <c r="F40" s="3">
         <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>550</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3203,19 +3242,19 @@
         <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="F41" s="3">
         <v>39</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>553</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,19 +3265,19 @@
         <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,19 +3288,19 @@
         <v>225</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>135</v>
+        <v>540</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="F43" s="3">
         <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>317</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3269,22 +3308,22 @@
         <v>203</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>294</v>
+        <v>608</v>
       </c>
       <c r="F44" s="3">
         <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3292,22 +3331,22 @@
         <v>203</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>256</v>
+        <v>614</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>295</v>
+        <v>611</v>
       </c>
       <c r="F45" s="3">
         <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>476</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,22 +3354,22 @@
         <v>203</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>561</v>
+        <v>135</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>296</v>
+        <v>612</v>
       </c>
       <c r="F46" s="3">
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>474</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,19 +3380,19 @@
         <v>231</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3364,19 +3403,19 @@
         <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F48" s="3">
         <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,19 +3426,19 @@
         <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>132</v>
+        <v>561</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F49" s="3">
         <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,19 +3449,19 @@
         <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>558</v>
+        <v>249</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="F50" s="3">
         <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>548</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,19 +3472,19 @@
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>539</v>
+        <v>255</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>565</v>
+        <v>298</v>
       </c>
       <c r="F51" s="3">
         <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,19 +3495,19 @@
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>557</v>
+        <v>132</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>542</v>
+        <v>132</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>566</v>
+        <v>299</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3476,22 +3515,22 @@
         <v>203</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>261</v>
+        <v>558</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>261</v>
+        <v>538</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>300</v>
+        <v>564</v>
       </c>
       <c r="F53" s="3">
         <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,22 +3538,22 @@
         <v>203</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>301</v>
+        <v>565</v>
       </c>
       <c r="F54" s="3">
         <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3522,22 +3561,22 @@
         <v>203</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>262</v>
+        <v>557</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>262</v>
+        <v>542</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>302</v>
+        <v>566</v>
       </c>
       <c r="F55" s="3">
         <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,19 +3587,19 @@
         <v>234</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F56" s="3">
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,19 +3610,19 @@
         <v>234</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3591,22 +3630,22 @@
         <v>203</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F58" s="3">
         <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3614,22 +3653,22 @@
         <v>203</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F59" s="3">
         <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3637,22 +3676,22 @@
         <v>203</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F60" s="3">
         <v>58</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3663,103 +3702,109 @@
         <v>229</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F61" s="3">
         <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="3">
+        <v>60</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F63" s="3">
+        <v>61</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F64" s="3">
+        <v>62</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="2" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2">
-        <v>60</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>63</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>203</v>
-      </c>
-      <c r="B63" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2">
-        <v>61</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>203</v>
-      </c>
-      <c r="B64" t="s">
-        <v>202</v>
-      </c>
-      <c r="C64" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" t="s">
-        <v>243</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2">
-        <v>62</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2">
-        <v>63</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3773,35 +3818,35 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>522</v>
+        <v>242</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2">
         <v>64</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>523</v>
+        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
         <v>202</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3">
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
         <v>65</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>325</v>
+      <c r="G67" s="2" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,17 +3857,17 @@
         <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
         <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3833,38 +3878,38 @@
         <v>202</v>
       </c>
       <c r="C69" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
         <v>67</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>328</v>
+        <v>523</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="A70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2">
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
         <v>68</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>327</v>
+      <c r="G70" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3878,14 +3923,14 @@
         <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
         <v>69</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3899,14 +3944,14 @@
         <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2">
         <v>70</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,14 +3965,14 @@
         <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
         <v>71</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,17 +3983,17 @@
         <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
         <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3959,17 +4004,17 @@
         <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>592</v>
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
         <v>73</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>593</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3980,17 +4025,17 @@
         <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>545</v>
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>268</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2">
         <v>74</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>555</v>
+        <v>310</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4003,15 +4048,15 @@
       <c r="C77" t="s">
         <v>175</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>617</v>
+      <c r="D77" t="s">
+        <v>175</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2">
         <v>75</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>616</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,98 +4070,98 @@
         <v>175</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
         <v>76</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
-      </c>
-      <c r="D79" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
         <v>77</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
         <v>78</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
-      </c>
-      <c r="D81" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
         <v>79</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>520</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
         <v>80</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>546</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4127,17 +4172,17 @@
         <v>219</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <v>81</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4148,17 +4193,17 @@
         <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4169,17 +4214,17 @@
         <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <v>83</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4190,38 +4235,38 @@
         <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
-      </c>
-      <c r="D86" t="s">
-        <v>174</v>
+        <v>218</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <v>84</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" t="s">
         <v>207</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3">
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2">
         <v>85</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>493</v>
+      <c r="G87" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4229,20 +4274,20 @@
         <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C88" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
         <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4250,20 +4295,20 @@
         <v>207</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
         <v>87</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,41 +4316,41 @@
         <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
         <v>88</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C91" t="s">
-        <v>237</v>
-      </c>
-      <c r="D91" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2">
+      <c r="C91" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3">
         <v>89</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>495</v>
+      <c r="G91" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4316,38 +4361,38 @@
         <v>238</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <v>90</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3">
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2">
         <v>91</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>521</v>
+      <c r="G93" s="2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,20 +4400,20 @@
         <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
         <v>92</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4376,20 +4421,20 @@
         <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
         <v>93</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4397,20 +4442,20 @@
         <v>207</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2">
         <v>94</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,59 +4466,59 @@
         <v>206</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3">
         <v>95</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3">
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2">
         <v>96</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>508</v>
+      <c r="G98" s="2" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>207</v>
       </c>
       <c r="B99" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>537</v>
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" t="s">
+        <v>114</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
         <v>97</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4484,101 +4529,101 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
         <v>98</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
+        <v>99</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2">
+        <v>101</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>221</v>
+      </c>
+      <c r="D104" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2">
+        <v>102</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>207</v>
-      </c>
-      <c r="B101" t="s">
-        <v>206</v>
-      </c>
-      <c r="C101" t="s">
-        <v>221</v>
-      </c>
-      <c r="D101" t="s">
-        <v>189</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2">
-        <v>99</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2">
-        <v>100</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3">
-        <v>101</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3">
-        <v>102</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,17 +4634,17 @@
         <v>206</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
         <v>103</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4610,59 +4655,59 @@
         <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>599</v>
+        <v>191</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
         <v>104</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C107" t="s">
-        <v>239</v>
-      </c>
-      <c r="D107" t="s">
-        <v>158</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2">
+      <c r="C107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3">
         <v>105</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>512</v>
+      <c r="G107" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C108" t="s">
-        <v>239</v>
-      </c>
-      <c r="D108" t="s">
-        <v>159</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2">
+      <c r="C108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3">
         <v>106</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>511</v>
+      <c r="G108" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4673,164 +4718,164 @@
         <v>206</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D109" t="s">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2">
         <v>107</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" t="s">
+        <v>599</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2">
+        <v>108</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2">
+        <v>109</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2">
+        <v>110</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" t="s">
+        <v>206</v>
+      </c>
+      <c r="C113" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2">
+        <v>111</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3">
-        <v>108</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="E114" s="3"/>
+      <c r="F114" s="3">
+        <v>112</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B111" s="3" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3">
-        <v>109</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="E115" s="3"/>
+      <c r="F115" s="3">
+        <v>113</v>
+      </c>
+      <c r="G115" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B112" s="3" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3">
-        <v>110</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="E116" s="3"/>
+      <c r="F116" s="3">
+        <v>114</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3">
-        <v>111</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>200</v>
-      </c>
-      <c r="B114" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2">
-        <v>112</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" t="s">
-        <v>230</v>
-      </c>
-      <c r="D115" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2">
-        <v>113</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>200</v>
-      </c>
-      <c r="B116" t="s">
-        <v>210</v>
-      </c>
-      <c r="C116" t="s">
-        <v>230</v>
-      </c>
-      <c r="D116" t="s">
-        <v>181</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2">
-        <v>114</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4841,59 +4886,59 @@
         <v>210</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
         <v>115</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="A118" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" t="s">
         <v>210</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3">
+      <c r="C118" t="s">
+        <v>230</v>
+      </c>
+      <c r="D118" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2">
         <v>116</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>409</v>
+      <c r="G118" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="A119" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3">
+      <c r="C119" t="s">
+        <v>230</v>
+      </c>
+      <c r="D119" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2">
         <v>117</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>411</v>
+      <c r="G119" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4904,164 +4949,164 @@
         <v>210</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D120" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
         <v>118</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3">
+        <v>119</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3">
+        <v>120</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3">
+        <v>121</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" t="s">
+        <v>115</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2">
+        <v>122</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" t="s">
         <v>210</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C125" t="s">
         <v>119</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D125" t="s">
         <v>119</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2">
+        <v>123</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" t="s">
         <v>119</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="D126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2">
+        <v>124</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" t="s">
         <v>210</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C127" t="s">
         <v>119</v>
       </c>
-      <c r="D122" t="s">
-        <v>155</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2">
-        <v>120</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" t="s">
-        <v>119</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="D127" t="s">
         <v>195</v>
       </c>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2">
-        <v>121</v>
-      </c>
-      <c r="G123" s="2" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2">
+        <v>125</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3">
-        <v>122</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3">
-        <v>123</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3">
-        <v>124</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3">
-        <v>125</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5069,41 +5114,41 @@
         <v>200</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3">
         <v>126</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" t="s">
-        <v>217</v>
-      </c>
-      <c r="C129" t="s">
-        <v>120</v>
-      </c>
-      <c r="D129" t="s">
-        <v>33</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2">
+      <c r="A129" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3">
         <v>127</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>431</v>
+      <c r="G129" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5114,59 +5159,59 @@
         <v>217</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3">
         <v>128</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>200</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="A131" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C131" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" t="s">
-        <v>178</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2">
+      <c r="C131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3">
         <v>129</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>404</v>
+      <c r="G131" s="3" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>200</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="A132" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C132" t="s">
-        <v>216</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2">
+      <c r="C132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3">
         <v>130</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>436</v>
+      <c r="G132" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,17 +5222,17 @@
         <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2">
         <v>131</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5198,17 +5243,17 @@
         <v>217</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D134" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2">
         <v>132</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5219,59 +5264,59 @@
         <v>217</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D135" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2">
         <v>133</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3">
+      <c r="A136" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" t="s">
+        <v>120</v>
+      </c>
+      <c r="D136" t="s">
+        <v>628</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2">
         <v>134</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>326</v>
+      <c r="G136" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3">
+      <c r="A137" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2">
         <v>135</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>461</v>
+      <c r="G137" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5279,20 +5324,20 @@
         <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
         <v>136</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5300,20 +5345,20 @@
         <v>200</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="D139" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2">
         <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5321,41 +5366,41 @@
         <v>200</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2">
         <v>138</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" t="s">
-        <v>212</v>
-      </c>
-      <c r="C141" t="s">
-        <v>38</v>
-      </c>
-      <c r="D141" t="s">
-        <v>37</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2">
+      <c r="A141" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3">
         <v>139</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>462</v>
+      <c r="G141" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5366,38 +5411,38 @@
         <v>212</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3">
         <v>140</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" t="s">
         <v>212</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3">
+      <c r="C143" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2">
         <v>141</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>383</v>
+      <c r="G143" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -5408,17 +5453,17 @@
         <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" s="2">
         <v>142</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5429,17 +5474,17 @@
         <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2">
         <v>143</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5450,59 +5495,59 @@
         <v>212</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2">
         <v>144</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>387</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" t="s">
+      <c r="A147" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C147" t="s">
-        <v>236</v>
-      </c>
-      <c r="D147" t="s">
-        <v>116</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2">
+      <c r="C147" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3">
         <v>145</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>386</v>
+      <c r="G147" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="A148" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C148" t="s">
-        <v>236</v>
-      </c>
-      <c r="D148" t="s">
-        <v>125</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2">
+      <c r="C148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3">
         <v>146</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>378</v>
+      <c r="G148" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,17 +5558,17 @@
         <v>212</v>
       </c>
       <c r="C149" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
-        <v>604</v>
+        <v>81</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" s="2">
         <v>147</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -5534,17 +5579,17 @@
         <v>212</v>
       </c>
       <c r="C150" t="s">
-        <v>227</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>605</v>
+        <v>236</v>
+      </c>
+      <c r="D150" t="s">
+        <v>82</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2">
         <v>148</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>603</v>
+        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5555,17 +5600,17 @@
         <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2">
         <v>149</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5576,17 +5621,17 @@
         <v>212</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2">
         <v>150</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5597,17 +5642,17 @@
         <v>212</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D153" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2">
         <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>471</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5618,17 +5663,17 @@
         <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2">
         <v>152</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5639,17 +5684,17 @@
         <v>212</v>
       </c>
       <c r="C155" t="s">
-        <v>211</v>
-      </c>
-      <c r="D155" t="s">
-        <v>63</v>
+        <v>227</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
         <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>373</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5660,17 +5705,17 @@
         <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2">
         <v>154</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,17 +5726,17 @@
         <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D157" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2">
         <v>155</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5702,17 +5747,17 @@
         <v>212</v>
       </c>
       <c r="C158" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D158" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
         <v>156</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,17 +5768,17 @@
         <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D159" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2">
         <v>157</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,17 +5789,17 @@
         <v>212</v>
       </c>
       <c r="C160" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D160" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
         <v>158</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5765,17 +5810,17 @@
         <v>212</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D161" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2">
         <v>159</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>464</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5786,332 +5831,332 @@
         <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D162" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2">
         <v>160</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" t="s">
+        <v>212</v>
+      </c>
+      <c r="C163" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2">
+        <v>161</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" t="s">
+        <v>212</v>
+      </c>
+      <c r="C164" t="s">
+        <v>220</v>
+      </c>
+      <c r="D164" t="s">
+        <v>144</v>
+      </c>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2">
+        <v>162</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" t="s">
+        <v>212</v>
+      </c>
+      <c r="C165" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" t="s">
+        <v>162</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2">
+        <v>163</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2">
+        <v>164</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" t="s">
+        <v>220</v>
+      </c>
+      <c r="D167" t="s">
+        <v>192</v>
+      </c>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2">
+        <v>165</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B163" s="3" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3">
-        <v>161</v>
-      </c>
-      <c r="G163" s="3" t="s">
+      <c r="E168" s="3"/>
+      <c r="F168" s="3">
+        <v>166</v>
+      </c>
+      <c r="G168" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B164" s="3" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3">
-        <v>162</v>
-      </c>
-      <c r="G164" s="3" t="s">
+      <c r="E169" s="3"/>
+      <c r="F169" s="3">
+        <v>167</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B165" s="3" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3">
-        <v>163</v>
-      </c>
-      <c r="G165" s="3" t="s">
+      <c r="E170" s="3"/>
+      <c r="F170" s="3">
+        <v>168</v>
+      </c>
+      <c r="G170" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B166" s="3" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3">
-        <v>164</v>
-      </c>
-      <c r="G166" s="3" t="s">
+      <c r="E171" s="3"/>
+      <c r="F171" s="3">
+        <v>169</v>
+      </c>
+      <c r="G171" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B167" s="3" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3">
-        <v>165</v>
-      </c>
-      <c r="G167" s="3" t="s">
+      <c r="E172" s="3"/>
+      <c r="F172" s="3">
+        <v>170</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" t="s">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
         <v>215</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C173" t="s">
         <v>123</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D173" t="s">
         <v>29</v>
       </c>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2">
-        <v>166</v>
-      </c>
-      <c r="G168" s="2" t="s">
+      <c r="E173" s="2"/>
+      <c r="F173" s="2">
+        <v>171</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
         <v>215</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C174" t="s">
         <v>123</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D174" t="s">
         <v>47</v>
       </c>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2">
-        <v>167</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="E174" s="2"/>
+      <c r="F174" s="2">
+        <v>172</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" t="s">
         <v>215</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C175" t="s">
         <v>123</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D175" t="s">
         <v>51</v>
       </c>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2">
-        <v>168</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2">
+        <v>173</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>200</v>
-      </c>
-      <c r="B171" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" t="s">
         <v>215</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C176" t="s">
         <v>123</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D176" t="s">
         <v>68</v>
       </c>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2">
-        <v>169</v>
-      </c>
-      <c r="G171" s="2" t="s">
+      <c r="E176" s="2"/>
+      <c r="F176" s="2">
+        <v>174</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>200</v>
-      </c>
-      <c r="B172" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" t="s">
         <v>215</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C177" t="s">
         <v>123</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D177" t="s">
         <v>73</v>
       </c>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2">
-        <v>170</v>
-      </c>
-      <c r="G172" s="2" t="s">
+      <c r="E177" s="2"/>
+      <c r="F177" s="2">
+        <v>175</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3">
-        <v>171</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3">
-        <v>172</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3">
-        <v>173</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3">
-        <v>174</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3">
-        <v>175</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6119,125 +6164,125 @@
         <v>200</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3">
         <v>176</v>
       </c>
       <c r="G178" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3">
+        <v>177</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3">
+        <v>178</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3">
+        <v>179</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3">
+        <v>180</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3">
+        <v>181</v>
+      </c>
+      <c r="G183" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>200</v>
-      </c>
-      <c r="B179" t="s">
-        <v>208</v>
-      </c>
-      <c r="C179" t="s">
-        <v>223</v>
-      </c>
-      <c r="D179" t="s">
-        <v>244</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2">
-        <v>177</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>200</v>
-      </c>
-      <c r="B180" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" t="s">
-        <v>223</v>
-      </c>
-      <c r="D180" t="s">
-        <v>27</v>
-      </c>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2">
-        <v>178</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>200</v>
-      </c>
-      <c r="B181" t="s">
-        <v>208</v>
-      </c>
-      <c r="C181" t="s">
-        <v>223</v>
-      </c>
-      <c r="D181" t="s">
-        <v>247</v>
-      </c>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2">
-        <v>179</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" t="s">
-        <v>208</v>
-      </c>
-      <c r="C182" t="s">
-        <v>223</v>
-      </c>
-      <c r="D182" t="s">
-        <v>117</v>
-      </c>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2">
-        <v>180</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" t="s">
-        <v>208</v>
-      </c>
-      <c r="C183" t="s">
-        <v>223</v>
-      </c>
-      <c r="D183" t="s">
-        <v>124</v>
-      </c>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2">
-        <v>181</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,59 +6293,59 @@
         <v>208</v>
       </c>
       <c r="C184" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D184" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" s="2">
         <v>182</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" s="2" t="s">
+      <c r="A185" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" t="s">
         <v>208</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>524</v>
+      <c r="C185" t="s">
+        <v>223</v>
+      </c>
+      <c r="D185" t="s">
+        <v>27</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2">
         <v>183</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>529</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" s="3" t="s">
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" t="s">
         <v>208</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3">
+      <c r="C186" t="s">
+        <v>223</v>
+      </c>
+      <c r="D186" t="s">
+        <v>247</v>
+      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2">
         <v>184</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>389</v>
+      <c r="G186" s="2" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6308,41 +6353,41 @@
         <v>200</v>
       </c>
       <c r="B187" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C187" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="D187" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2">
         <v>185</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188" t="s">
+        <v>124</v>
+      </c>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2">
         <v>186</v>
       </c>
-      <c r="G188" s="3" t="s">
-        <v>412</v>
+      <c r="G188" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6350,41 +6395,41 @@
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C189" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D189" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2">
         <v>187</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>458</v>
+        <v>396</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" t="s">
-        <v>233</v>
-      </c>
-      <c r="C190" t="s">
-        <v>134</v>
-      </c>
-      <c r="D190" t="s">
-        <v>182</v>
+      <c r="A190" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2">
         <v>188</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>457</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6392,62 +6437,62 @@
         <v>200</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3">
         <v>189</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" t="s">
+        <v>233</v>
+      </c>
+      <c r="C192" t="s">
+        <v>134</v>
+      </c>
+      <c r="D192" t="s">
+        <v>118</v>
+      </c>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2">
         <v>190</v>
       </c>
-      <c r="G192" s="3" t="s">
-        <v>357</v>
+      <c r="G192" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" t="s">
-        <v>199</v>
-      </c>
-      <c r="C193" t="s">
-        <v>23</v>
-      </c>
-      <c r="D193" t="s">
-        <v>22</v>
-      </c>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2">
+      <c r="A193" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3">
         <v>191</v>
       </c>
-      <c r="G193" s="2" t="s">
-        <v>369</v>
+      <c r="G193" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6455,20 +6500,20 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C194" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2">
         <v>192</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>358</v>
+        <v>458</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -6476,62 +6521,62 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D195" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E195" s="2"/>
       <c r="F195" s="2">
         <v>193</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>350</v>
+        <v>457</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" t="s">
+      <c r="A196" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3">
+        <v>194</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C196" t="s">
-        <v>26</v>
-      </c>
-      <c r="D196" t="s">
-        <v>26</v>
-      </c>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2">
-        <v>194</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" t="s">
-        <v>199</v>
-      </c>
-      <c r="C197" t="s">
-        <v>31</v>
-      </c>
-      <c r="D197" t="s">
-        <v>31</v>
-      </c>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2">
+      <c r="C197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3">
         <v>195</v>
       </c>
-      <c r="G197" s="2" t="s">
-        <v>351</v>
+      <c r="G197" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6542,17 +6587,17 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="2">
         <v>196</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -6563,17 +6608,17 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D199" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" s="2">
         <v>197</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6584,17 +6629,17 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2">
         <v>198</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6605,17 +6650,17 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D201" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2">
         <v>199</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6626,17 +6671,17 @@
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D202" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2">
         <v>200</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6647,17 +6692,17 @@
         <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D203" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2">
         <v>201</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6668,17 +6713,17 @@
         <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2">
         <v>202</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6689,17 +6734,17 @@
         <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2">
         <v>203</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,17 +6755,17 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D206" t="s">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2">
         <v>204</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6731,17 +6776,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D207" t="s">
-        <v>246</v>
+        <v>91</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2">
         <v>205</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6752,17 +6797,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D208" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2">
         <v>206</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6773,17 +6818,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D209" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2">
         <v>207</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6794,17 +6839,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D210" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2">
         <v>208</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6815,17 +6860,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D211" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2">
         <v>209</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6836,17 +6881,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D212" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2">
         <v>210</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6857,17 +6902,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D213" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2">
         <v>211</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,17 +6923,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D214" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2">
         <v>212</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6899,17 +6944,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D215" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2">
         <v>213</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6920,17 +6965,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D216" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
         <v>214</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,17 +6986,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D217" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2">
         <v>215</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -6962,17 +7007,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D218" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2">
         <v>216</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -6983,17 +7028,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D219" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2">
         <v>217</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7004,17 +7049,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D220" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
         <v>218</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7025,17 +7070,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D221" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2">
         <v>219</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7046,17 +7091,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D222" t="s">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2">
         <v>220</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>443</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7067,17 +7112,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D223" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2">
         <v>221</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7088,17 +7133,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="D224" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2">
         <v>222</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7109,17 +7154,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D225" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2">
         <v>223</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7130,17 +7175,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D226" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2">
         <v>224</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7151,17 +7196,17 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D227" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2">
         <v>225</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7169,20 +7214,20 @@
         <v>200</v>
       </c>
       <c r="B228" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D228" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2">
         <v>226</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7190,20 +7235,20 @@
         <v>200</v>
       </c>
       <c r="B229" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D229" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2">
         <v>227</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7211,20 +7256,20 @@
         <v>200</v>
       </c>
       <c r="B230" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="D230" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
         <v>228</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7232,20 +7277,20 @@
         <v>200</v>
       </c>
       <c r="B231" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D231" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
         <v>229</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7253,20 +7298,20 @@
         <v>200</v>
       </c>
       <c r="B232" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C232" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D232" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
         <v>230</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7277,17 +7322,17 @@
         <v>201</v>
       </c>
       <c r="C233" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="D233" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
         <v>231</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7298,17 +7343,17 @@
         <v>201</v>
       </c>
       <c r="C234" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D234" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
         <v>232</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,17 +7364,17 @@
         <v>201</v>
       </c>
       <c r="C235" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="D235" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
         <v>233</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7337,20 +7382,20 @@
         <v>200</v>
       </c>
       <c r="B236" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C236" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="D236" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
         <v>234</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7358,20 +7403,20 @@
         <v>200</v>
       </c>
       <c r="B237" t="s">
-        <v>205</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="C237" t="s">
+        <v>137</v>
+      </c>
+      <c r="D237" t="s">
+        <v>60</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
         <v>235</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>530</v>
+        <v>406</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7379,20 +7424,20 @@
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C238" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D238" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
         <v>236</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>486</v>
+        <v>405</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7400,20 +7445,20 @@
         <v>200</v>
       </c>
       <c r="B239" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C239" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D239" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
         <v>237</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7421,20 +7466,20 @@
         <v>200</v>
       </c>
       <c r="B240" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D240" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
         <v>238</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>487</v>
+        <v>400</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7448,14 +7493,14 @@
         <v>224</v>
       </c>
       <c r="D241" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
         <v>239</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7465,18 +7510,18 @@
       <c r="B242" t="s">
         <v>205</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D242" t="s">
-        <v>254</v>
+      <c r="D242" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
         <v>240</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7490,14 +7535,14 @@
         <v>224</v>
       </c>
       <c r="D243" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <v>241</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7511,14 +7556,14 @@
         <v>224</v>
       </c>
       <c r="D244" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
         <v>242</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7532,14 +7577,14 @@
         <v>224</v>
       </c>
       <c r="D245" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <v>243</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7549,18 +7594,18 @@
       <c r="B246" t="s">
         <v>205</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" t="s">
         <v>224</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>527</v>
+      <c r="D246" t="s">
+        <v>52</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
         <v>244</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7571,17 +7616,17 @@
         <v>205</v>
       </c>
       <c r="C247" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D247" t="s">
-        <v>4</v>
+        <v>254</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <v>245</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>312</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7592,17 +7637,17 @@
         <v>205</v>
       </c>
       <c r="C248" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D248" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
         <v>246</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,17 +7658,17 @@
         <v>205</v>
       </c>
       <c r="C249" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D249" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <v>247</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7634,17 +7679,17 @@
         <v>205</v>
       </c>
       <c r="C250" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D250" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
         <v>248</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>455</v>
+        <v>490</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7654,18 +7699,18 @@
       <c r="B251" t="s">
         <v>205</v>
       </c>
-      <c r="C251" t="s">
-        <v>204</v>
-      </c>
-      <c r="D251" t="s">
-        <v>169</v>
+      <c r="C251" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <v>249</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>334</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,23 +7721,129 @@
         <v>205</v>
       </c>
       <c r="C252" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D252" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2">
         <v>250</v>
       </c>
       <c r="G252" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>200</v>
+      </c>
+      <c r="B253" t="s">
+        <v>205</v>
+      </c>
+      <c r="C253" t="s">
+        <v>204</v>
+      </c>
+      <c r="D253" t="s">
+        <v>30</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2">
+        <v>251</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>200</v>
+      </c>
+      <c r="B254" t="s">
+        <v>205</v>
+      </c>
+      <c r="C254" t="s">
+        <v>204</v>
+      </c>
+      <c r="D254" t="s">
+        <v>49</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2">
+        <v>252</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>200</v>
+      </c>
+      <c r="B255" t="s">
+        <v>205</v>
+      </c>
+      <c r="C255" t="s">
+        <v>204</v>
+      </c>
+      <c r="D255" t="s">
+        <v>142</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2">
+        <v>253</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>200</v>
+      </c>
+      <c r="B256" t="s">
+        <v>205</v>
+      </c>
+      <c r="C256" t="s">
+        <v>204</v>
+      </c>
+      <c r="D256" t="s">
+        <v>169</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2">
+        <v>254</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>200</v>
+      </c>
+      <c r="B257" t="s">
+        <v>205</v>
+      </c>
+      <c r="C257" t="s">
+        <v>264</v>
+      </c>
+      <c r="D257" t="s">
+        <v>264</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2">
+        <v>255</v>
+      </c>
+      <c r="G257" s="2" t="s">
         <v>492</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="637">
   <si>
     <t>Level1</t>
   </si>
@@ -1907,6 +1907,24 @@
   </si>
   <si>
     <t>Sexually transmitted chlamydial diseases</t>
+  </si>
+  <si>
+    <t>Lymphatic filariasis</t>
+  </si>
+  <si>
+    <t>ntd_lf</t>
+  </si>
+  <si>
+    <t>A.3.11</t>
+  </si>
+  <si>
+    <t>Spontaneous abortion</t>
+  </si>
+  <si>
+    <t>maternal_abort_spont</t>
+  </si>
+  <si>
+    <t>A.4.10</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G257" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G257"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G259" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G259"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2302,9 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G257"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3357,10 +3377,10 @@
         <v>225</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>612</v>
@@ -3369,7 +3389,7 @@
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>317</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3377,22 +3397,22 @@
         <v>203</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>294</v>
+        <v>633</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3403,19 +3423,19 @@
         <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" s="3">
         <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3426,19 +3446,19 @@
         <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F49" s="3">
         <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3449,19 +3469,19 @@
         <v>231</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F50" s="3">
         <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3472,19 +3492,19 @@
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F51" s="3">
         <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3495,19 +3515,19 @@
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3518,19 +3538,19 @@
         <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="F53" s="3">
         <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3541,19 +3561,19 @@
         <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F54" s="3">
         <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3564,19 +3584,19 @@
         <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F55" s="3">
         <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,22 +3604,22 @@
         <v>203</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>261</v>
+        <v>556</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>261</v>
+        <v>634</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>300</v>
+        <v>566</v>
       </c>
       <c r="F56" s="3">
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3607,22 +3627,22 @@
         <v>203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>109</v>
+        <v>557</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>109</v>
+        <v>542</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>301</v>
+        <v>636</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3633,19 +3653,19 @@
         <v>234</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3656,19 +3676,19 @@
         <v>234</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F59" s="3">
         <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,19 +3699,19 @@
         <v>234</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F60" s="3">
         <v>58</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3699,22 +3719,22 @@
         <v>203</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F61" s="3">
         <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3722,22 +3742,22 @@
         <v>203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F62" s="3">
         <v>60</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>380</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3748,19 +3768,19 @@
         <v>229</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F63" s="3">
         <v>61</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3771,82 +3791,86 @@
         <v>229</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>139</v>
+        <v>253</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F64" s="3">
         <v>62</v>
       </c>
       <c r="G64" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F65" s="3">
+        <v>63</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F66" s="3">
+        <v>64</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1">
-        <v>63</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="E67" s="1"/>
+      <c r="F67" s="1">
+        <v>65</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2">
-        <v>64</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>243</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2">
-        <v>65</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3860,14 +3884,14 @@
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>242</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2">
         <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,35 +3905,35 @@
         <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>522</v>
+        <v>243</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2">
         <v>67</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>523</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3">
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
         <v>68</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>325</v>
+      <c r="G70" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3920,38 +3944,38 @@
         <v>202</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>522</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
         <v>69</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>320</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="A72" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2">
+      <c r="C72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3">
         <v>70</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>328</v>
+      <c r="G72" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,14 +3989,14 @@
         <v>128</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2">
         <v>71</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3986,14 +4010,14 @@
         <v>128</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2">
         <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4007,14 +4031,14 @@
         <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2">
         <v>73</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4028,14 +4052,14 @@
         <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2">
         <v>74</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4046,17 +4070,17 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2">
         <v>75</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4067,17 +4091,17 @@
         <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>630</v>
+        <v>128</v>
+      </c>
+      <c r="D78" t="s">
+        <v>268</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
         <v>76</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>629</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,15 +4114,15 @@
       <c r="C79" t="s">
         <v>175</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>592</v>
+      <c r="D79" t="s">
+        <v>175</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
         <v>77</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>593</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4112,14 +4136,14 @@
         <v>175</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
         <v>78</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>555</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4133,14 +4157,14 @@
         <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2">
         <v>79</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,56 +4178,56 @@
         <v>175</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2">
         <v>80</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>598</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>218</v>
-      </c>
-      <c r="D83" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <v>81</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
-      </c>
-      <c r="D84" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4217,14 +4241,14 @@
         <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <v>83</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4237,15 +4261,15 @@
       <c r="C86" t="s">
         <v>218</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>536</v>
+      <c r="D86" t="s">
+        <v>17</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <v>84</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,17 +4280,17 @@
         <v>219</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
         <v>85</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,17 +4301,17 @@
         <v>219</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
-      </c>
-      <c r="D88" t="s">
-        <v>172</v>
+        <v>218</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2">
         <v>86</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4301,14 +4325,14 @@
         <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2">
         <v>87</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4322,35 +4346,35 @@
         <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2">
         <v>88</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" t="s">
         <v>207</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3">
+      <c r="B91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C91" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2">
         <v>89</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>493</v>
+      <c r="G91" s="2" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4358,41 +4382,41 @@
         <v>207</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <v>90</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C93" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" t="s">
-        <v>102</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2">
+      <c r="C93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3">
         <v>91</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>497</v>
+      <c r="G93" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4403,17 +4427,17 @@
         <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2">
         <v>92</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4427,14 +4451,14 @@
         <v>237</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2">
         <v>93</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,35 +4472,35 @@
         <v>237</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2">
         <v>94</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" t="s">
         <v>207</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3">
+      <c r="B97" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2">
         <v>95</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>521</v>
+      <c r="G97" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4484,41 +4508,41 @@
         <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2">
         <v>96</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>372</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C99" t="s">
-        <v>214</v>
-      </c>
-      <c r="D99" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2">
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3">
         <v>97</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>505</v>
+      <c r="G99" s="3" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4529,122 +4553,122 @@
         <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2">
         <v>98</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2">
+        <v>99</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2">
+        <v>100</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3">
-        <v>99</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3">
+        <v>101</v>
+      </c>
+      <c r="G103" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="E104" s="3"/>
+      <c r="F104" s="3">
+        <v>102</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2">
-        <v>101</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" t="s">
-        <v>221</v>
-      </c>
-      <c r="D104" t="s">
-        <v>126</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2">
-        <v>102</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B105" t="s">
         <v>206</v>
       </c>
-      <c r="C105" t="s">
-        <v>221</v>
-      </c>
-      <c r="D105" t="s">
-        <v>189</v>
+      <c r="C105" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2">
         <v>103</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>502</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4658,98 +4682,98 @@
         <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
         <v>104</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2">
+        <v>105</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2">
+        <v>106</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3">
-        <v>105</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="E109" s="3"/>
+      <c r="F109" s="3">
+        <v>107</v>
+      </c>
+      <c r="G109" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3">
-        <v>106</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="E110" s="3"/>
+      <c r="F110" s="3">
+        <v>108</v>
+      </c>
+      <c r="G110" s="3" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>207</v>
-      </c>
-      <c r="B109" t="s">
-        <v>206</v>
-      </c>
-      <c r="C109" t="s">
-        <v>226</v>
-      </c>
-      <c r="D109" t="s">
-        <v>62</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2">
-        <v>107</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>207</v>
-      </c>
-      <c r="B110" t="s">
-        <v>206</v>
-      </c>
-      <c r="C110" t="s">
-        <v>226</v>
-      </c>
-      <c r="D110" t="s">
-        <v>599</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2">
-        <v>108</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4760,17 +4784,17 @@
         <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2">
         <v>109</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4781,17 +4805,17 @@
         <v>206</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>599</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2">
         <v>110</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -4805,77 +4829,77 @@
         <v>239</v>
       </c>
       <c r="D113" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2">
         <v>111</v>
       </c>
       <c r="G113" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2">
+        <v>112</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
+        <v>206</v>
+      </c>
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2">
+        <v>113</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3">
-        <v>112</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3">
-        <v>113</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3">
         <v>114</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,59 +4910,59 @@
         <v>210</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3">
         <v>115</v>
       </c>
       <c r="G117" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3">
+        <v>116</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3">
+        <v>117</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" t="s">
-        <v>210</v>
-      </c>
-      <c r="C118" t="s">
-        <v>230</v>
-      </c>
-      <c r="D118" t="s">
-        <v>72</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2">
-        <v>116</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>200</v>
-      </c>
-      <c r="B119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" t="s">
-        <v>230</v>
-      </c>
-      <c r="D119" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2">
-        <v>117</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -4952,56 +4976,56 @@
         <v>230</v>
       </c>
       <c r="D120" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
         <v>118</v>
       </c>
       <c r="G120" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" t="s">
+        <v>230</v>
+      </c>
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2">
+        <v>119</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" t="s">
+        <v>181</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2">
+        <v>120</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3">
-        <v>119</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3">
-        <v>120</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5012,59 +5036,59 @@
         <v>210</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3">
         <v>121</v>
       </c>
       <c r="G123" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3">
+        <v>122</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3">
+        <v>123</v>
+      </c>
+      <c r="G125" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D124" t="s">
-        <v>115</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2">
-        <v>122</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" t="s">
-        <v>119</v>
-      </c>
-      <c r="D125" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2">
-        <v>123</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,14 +5102,14 @@
         <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2">
         <v>124</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5099,56 +5123,56 @@
         <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2">
         <v>125</v>
       </c>
       <c r="G127" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" t="s">
+        <v>210</v>
+      </c>
+      <c r="C128" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2">
+        <v>126</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" t="s">
+        <v>195</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2">
+        <v>127</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3">
-        <v>126</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3">
-        <v>127</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5156,20 +5180,20 @@
         <v>200</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3">
         <v>128</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -5177,20 +5201,20 @@
         <v>200</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3">
         <v>129</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5201,59 +5225,59 @@
         <v>217</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3">
         <v>130</v>
       </c>
       <c r="G132" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3">
+        <v>131</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3">
+        <v>132</v>
+      </c>
+      <c r="G134" s="3" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" t="s">
-        <v>217</v>
-      </c>
-      <c r="C133" t="s">
-        <v>120</v>
-      </c>
-      <c r="D133" t="s">
-        <v>33</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2">
-        <v>131</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>200</v>
-      </c>
-      <c r="B134" t="s">
-        <v>217</v>
-      </c>
-      <c r="C134" t="s">
-        <v>120</v>
-      </c>
-      <c r="D134" t="s">
-        <v>120</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2">
-        <v>132</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -5267,14 +5291,14 @@
         <v>120</v>
       </c>
       <c r="D135" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2">
         <v>133</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -5288,14 +5312,14 @@
         <v>120</v>
       </c>
       <c r="D136" t="s">
-        <v>628</v>
+        <v>120</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="2">
         <v>134</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>627</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -5306,17 +5330,17 @@
         <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="2">
         <v>135</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5327,17 +5351,17 @@
         <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>42</v>
+        <v>628</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
         <v>136</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>435</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,14 +5375,14 @@
         <v>216</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2">
         <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5372,98 +5396,98 @@
         <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="2">
         <v>138</v>
       </c>
       <c r="G140" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" t="s">
+        <v>216</v>
+      </c>
+      <c r="D141" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2">
+        <v>139</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" t="s">
+        <v>216</v>
+      </c>
+      <c r="D142" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2">
+        <v>140</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B141" s="3" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3">
-        <v>139</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="E143" s="3"/>
+      <c r="F143" s="3">
+        <v>141</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B142" s="3" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3">
-        <v>140</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="E144" s="3"/>
+      <c r="F144" s="3">
+        <v>142</v>
+      </c>
+      <c r="G144" s="3" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" t="s">
-        <v>212</v>
-      </c>
-      <c r="C143" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143" t="s">
-        <v>34</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2">
-        <v>141</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>200</v>
-      </c>
-      <c r="B144" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" t="s">
-        <v>38</v>
-      </c>
-      <c r="D144" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2">
-        <v>142</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5477,14 +5501,14 @@
         <v>38</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2">
         <v>143</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,98 +5522,98 @@
         <v>38</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" s="2">
         <v>144</v>
       </c>
       <c r="G146" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>36</v>
+      </c>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2">
+        <v>145</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>37</v>
+      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2">
+        <v>146</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" s="3" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3">
-        <v>145</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="E149" s="3"/>
+      <c r="F149" s="3">
+        <v>147</v>
+      </c>
+      <c r="G149" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" s="3" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C150" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D150" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3">
-        <v>146</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="E150" s="3"/>
+      <c r="F150" s="3">
+        <v>148</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>200</v>
-      </c>
-      <c r="B149" t="s">
-        <v>212</v>
-      </c>
-      <c r="C149" t="s">
-        <v>236</v>
-      </c>
-      <c r="D149" t="s">
-        <v>81</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2">
-        <v>147</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>200</v>
-      </c>
-      <c r="B150" t="s">
-        <v>212</v>
-      </c>
-      <c r="C150" t="s">
-        <v>236</v>
-      </c>
-      <c r="D150" t="s">
-        <v>82</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2">
-        <v>148</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,14 +5627,14 @@
         <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2">
         <v>149</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,14 +5648,14 @@
         <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" s="2">
         <v>150</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5645,14 +5669,14 @@
         <v>236</v>
       </c>
       <c r="D153" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2">
         <v>151</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5663,17 +5687,17 @@
         <v>212</v>
       </c>
       <c r="C154" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>604</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2">
         <v>152</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5684,17 +5708,17 @@
         <v>212</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>605</v>
+        <v>236</v>
+      </c>
+      <c r="D155" t="s">
+        <v>125</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
         <v>153</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>603</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,14 +5732,14 @@
         <v>227</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>604</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2">
         <v>154</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>470</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5728,15 +5752,15 @@
       <c r="C157" t="s">
         <v>227</v>
       </c>
-      <c r="D157" t="s">
-        <v>84</v>
+      <c r="D157" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2">
         <v>155</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>469</v>
+        <v>603</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5750,14 +5774,14 @@
         <v>227</v>
       </c>
       <c r="D158" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2">
         <v>156</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5768,17 +5792,17 @@
         <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2">
         <v>157</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5789,17 +5813,17 @@
         <v>212</v>
       </c>
       <c r="C160" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
         <v>158</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>373</v>
+        <v>471</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,14 +5837,14 @@
         <v>211</v>
       </c>
       <c r="D161" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2">
         <v>159</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5834,14 +5858,14 @@
         <v>211</v>
       </c>
       <c r="D162" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2">
         <v>160</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5855,14 +5879,14 @@
         <v>211</v>
       </c>
       <c r="D163" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2">
         <v>161</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5873,17 +5897,17 @@
         <v>212</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D164" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2">
         <v>162</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5894,17 +5918,17 @@
         <v>212</v>
       </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D165" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E165" s="2"/>
       <c r="F165" s="2">
         <v>163</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,14 +5942,14 @@
         <v>220</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166" s="2">
         <v>164</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5939,56 +5963,56 @@
         <v>220</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2">
         <v>165</v>
       </c>
       <c r="G167" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="B168" t="s">
+        <v>212</v>
+      </c>
+      <c r="C168" t="s">
+        <v>220</v>
+      </c>
+      <c r="D168" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2">
+        <v>166</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>200</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" t="s">
+        <v>220</v>
+      </c>
+      <c r="D169" t="s">
+        <v>192</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2">
+        <v>167</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3">
-        <v>166</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3">
-        <v>167</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5999,17 +6023,17 @@
         <v>215</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3">
         <v>168</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,17 +6044,17 @@
         <v>215</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3">
         <v>169</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6041,59 +6065,59 @@
         <v>215</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3">
         <v>170</v>
       </c>
       <c r="G172" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3">
+        <v>171</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3">
+        <v>172</v>
+      </c>
+      <c r="G174" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" t="s">
-        <v>123</v>
-      </c>
-      <c r="D173" t="s">
-        <v>29</v>
-      </c>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2">
-        <v>171</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" t="s">
-        <v>123</v>
-      </c>
-      <c r="D174" t="s">
-        <v>47</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2">
-        <v>172</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -6107,14 +6131,14 @@
         <v>123</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2">
         <v>173</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -6128,14 +6152,14 @@
         <v>123</v>
       </c>
       <c r="D176" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" s="2">
         <v>174</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6149,56 +6173,56 @@
         <v>123</v>
       </c>
       <c r="D177" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" s="2">
         <v>175</v>
       </c>
       <c r="G177" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2">
+        <v>176</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" t="s">
+        <v>123</v>
+      </c>
+      <c r="D179" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2">
+        <v>177</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3">
-        <v>176</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3">
-        <v>177</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -6209,17 +6233,17 @@
         <v>215</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3">
         <v>178</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,17 +6254,17 @@
         <v>215</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3">
         <v>179</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6251,17 +6275,17 @@
         <v>215</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3">
         <v>180</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6269,62 +6293,62 @@
         <v>200</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3">
         <v>181</v>
       </c>
       <c r="G183" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3">
+        <v>182</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3">
+        <v>183</v>
+      </c>
+      <c r="G185" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" t="s">
-        <v>208</v>
-      </c>
-      <c r="C184" t="s">
-        <v>223</v>
-      </c>
-      <c r="D184" t="s">
-        <v>244</v>
-      </c>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2">
-        <v>182</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>200</v>
-      </c>
-      <c r="B185" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" t="s">
-        <v>223</v>
-      </c>
-      <c r="D185" t="s">
-        <v>27</v>
-      </c>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2">
-        <v>183</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -6338,14 +6362,14 @@
         <v>223</v>
       </c>
       <c r="D186" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2">
         <v>184</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6359,14 +6383,14 @@
         <v>223</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2">
         <v>185</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6380,14 +6404,14 @@
         <v>223</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" s="2">
         <v>186</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,80 +6422,80 @@
         <v>208</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D189" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2">
         <v>187</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" s="2" t="s">
+      <c r="A190" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
         <v>208</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>524</v>
+      <c r="C190" t="s">
+        <v>223</v>
+      </c>
+      <c r="D190" t="s">
+        <v>124</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" s="2">
         <v>188</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>529</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" s="3" t="s">
+      <c r="A191" t="s">
+        <v>200</v>
+      </c>
+      <c r="B191" t="s">
         <v>208</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3">
+      <c r="C191" t="s">
+        <v>209</v>
+      </c>
+      <c r="D191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2">
         <v>189</v>
       </c>
-      <c r="G191" s="3" t="s">
-        <v>389</v>
+      <c r="G191" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" t="s">
-        <v>233</v>
-      </c>
-      <c r="C192" t="s">
-        <v>134</v>
-      </c>
-      <c r="D192" t="s">
-        <v>118</v>
+      <c r="A192" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2">
         <v>190</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6479,20 +6503,20 @@
         <v>200</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3">
         <v>191</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6506,119 +6530,119 @@
         <v>134</v>
       </c>
       <c r="D194" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" s="2">
         <v>192</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3">
+        <v>193</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>233</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196" t="s">
+        <v>164</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2">
+        <v>194</v>
+      </c>
+      <c r="G196" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
         <v>233</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C197" t="s">
         <v>134</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D197" t="s">
         <v>182</v>
       </c>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2">
-        <v>193</v>
-      </c>
-      <c r="G195" s="2" t="s">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2">
+        <v>195</v>
+      </c>
+      <c r="G197" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" s="3" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3">
-        <v>194</v>
-      </c>
-      <c r="G196" s="3" t="s">
+      <c r="E198" s="3"/>
+      <c r="F198" s="3">
+        <v>196</v>
+      </c>
+      <c r="G198" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="3" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C199" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3">
-        <v>195</v>
-      </c>
-      <c r="G197" s="3" t="s">
+      <c r="E199" s="3"/>
+      <c r="F199" s="3">
+        <v>197</v>
+      </c>
+      <c r="G199" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" t="s">
-        <v>199</v>
-      </c>
-      <c r="C198" t="s">
-        <v>23</v>
-      </c>
-      <c r="D198" t="s">
-        <v>22</v>
-      </c>
-      <c r="E198" s="2"/>
-      <c r="F198" s="2">
-        <v>196</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" t="s">
-        <v>23</v>
-      </c>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2">
-        <v>197</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6629,17 +6653,17 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" s="2">
         <v>198</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -6650,17 +6674,17 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" s="2">
         <v>199</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6671,17 +6695,17 @@
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" s="2">
         <v>200</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6692,17 +6716,17 @@
         <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="2">
         <v>201</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,17 +6737,17 @@
         <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="2">
         <v>202</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,17 +6758,17 @@
         <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D205" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="2">
         <v>203</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,17 +6779,17 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="2">
         <v>204</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,17 +6800,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D207" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" s="2">
         <v>205</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6797,17 +6821,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D208" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208" s="2">
         <v>206</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6818,17 +6842,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D209" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209" s="2">
         <v>207</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6839,17 +6863,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" s="2">
         <v>208</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6863,14 +6887,14 @@
         <v>93</v>
       </c>
       <c r="D211" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" s="2">
         <v>209</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6884,14 +6908,14 @@
         <v>93</v>
       </c>
       <c r="D212" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" s="2">
         <v>210</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6905,14 +6929,14 @@
         <v>93</v>
       </c>
       <c r="D213" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" s="2">
         <v>211</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,17 +6947,17 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D214" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2">
         <v>212</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6944,17 +6968,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D215" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" s="2">
         <v>213</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6965,17 +6989,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D216" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" s="2">
         <v>214</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,17 +7010,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D217" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2">
         <v>215</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,17 +7031,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D218" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" s="2">
         <v>216</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7028,17 +7052,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D219" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2">
         <v>217</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,17 +7073,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D220" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2">
         <v>218</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,17 +7094,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D221" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" s="2">
         <v>219</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,17 +7115,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D222" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" s="2">
         <v>220</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7112,17 +7136,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D223" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2">
         <v>221</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,17 +7157,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D224" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2">
         <v>222</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7154,17 +7178,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D225" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" s="2">
         <v>223</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>344</v>
+        <v>368</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,17 +7199,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D226" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" s="2">
         <v>224</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7196,17 +7220,17 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D227" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227" s="2">
         <v>225</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7217,17 +7241,17 @@
         <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D228" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2">
         <v>226</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7238,17 +7262,17 @@
         <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D229" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2">
         <v>227</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>355</v>
+        <v>443</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7259,17 +7283,17 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D230" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230" s="2">
         <v>228</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,17 +7304,17 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D231" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" s="2">
         <v>229</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,17 +7325,17 @@
         <v>199</v>
       </c>
       <c r="C232" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D232" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232" s="2">
         <v>230</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,20 +7343,20 @@
         <v>200</v>
       </c>
       <c r="B233" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C233" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D233" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2">
         <v>231</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7340,20 +7364,20 @@
         <v>200</v>
       </c>
       <c r="B234" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C234" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="D234" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2">
         <v>232</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7364,17 +7388,17 @@
         <v>201</v>
       </c>
       <c r="C235" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D235" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2">
         <v>233</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7385,17 +7409,17 @@
         <v>201</v>
       </c>
       <c r="C236" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D236" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2">
         <v>234</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7406,17 +7430,17 @@
         <v>201</v>
       </c>
       <c r="C237" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D237" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2">
         <v>235</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7427,17 +7451,17 @@
         <v>201</v>
       </c>
       <c r="C238" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D238" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2">
         <v>236</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7451,14 +7475,14 @@
         <v>137</v>
       </c>
       <c r="D239" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2">
         <v>237</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7469,17 +7493,17 @@
         <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D240" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2">
         <v>238</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7487,20 +7511,20 @@
         <v>200</v>
       </c>
       <c r="B241" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D241" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2">
         <v>239</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7508,20 +7532,20 @@
         <v>200</v>
       </c>
       <c r="B242" t="s">
-        <v>205</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="C242" t="s">
+        <v>150</v>
+      </c>
+      <c r="D242" t="s">
+        <v>150</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" s="2">
         <v>240</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>530</v>
+        <v>400</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7535,14 +7559,14 @@
         <v>224</v>
       </c>
       <c r="D243" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <v>241</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7552,18 +7576,18 @@
       <c r="B244" t="s">
         <v>205</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D244" t="s">
-        <v>45</v>
+      <c r="D244" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
         <v>242</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>485</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7577,14 +7601,14 @@
         <v>224</v>
       </c>
       <c r="D245" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <v>243</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7598,14 +7622,14 @@
         <v>224</v>
       </c>
       <c r="D246" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
         <v>244</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7619,14 +7643,14 @@
         <v>224</v>
       </c>
       <c r="D247" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <v>245</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7640,14 +7664,14 @@
         <v>224</v>
       </c>
       <c r="D248" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
         <v>246</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7661,14 +7685,14 @@
         <v>224</v>
       </c>
       <c r="D249" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <v>247</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,14 +7706,14 @@
         <v>224</v>
       </c>
       <c r="D250" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2">
         <v>248</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7699,18 +7723,18 @@
       <c r="B251" t="s">
         <v>205</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s">
         <v>224</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>527</v>
+      <c r="D251" t="s">
+        <v>121</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <v>249</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7721,17 +7745,17 @@
         <v>205</v>
       </c>
       <c r="C252" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D252" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2">
         <v>250</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>312</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7741,18 +7765,18 @@
       <c r="B253" t="s">
         <v>205</v>
       </c>
-      <c r="C253" t="s">
-        <v>204</v>
-      </c>
-      <c r="D253" t="s">
-        <v>30</v>
+      <c r="C253" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2">
         <v>251</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7766,14 +7790,14 @@
         <v>204</v>
       </c>
       <c r="D254" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2">
         <v>252</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>456</v>
+        <v>312</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7787,14 +7811,14 @@
         <v>204</v>
       </c>
       <c r="D255" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2">
         <v>253</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7808,14 +7832,14 @@
         <v>204</v>
       </c>
       <c r="D256" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2">
         <v>254</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7826,16 +7850,58 @@
         <v>205</v>
       </c>
       <c r="C257" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2">
         <v>255</v>
       </c>
       <c r="G257" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>200</v>
+      </c>
+      <c r="B258" t="s">
+        <v>205</v>
+      </c>
+      <c r="C258" t="s">
+        <v>204</v>
+      </c>
+      <c r="D258" t="s">
+        <v>169</v>
+      </c>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2">
+        <v>256</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>200</v>
+      </c>
+      <c r="B259" t="s">
+        <v>205</v>
+      </c>
+      <c r="C259" t="s">
+        <v>264</v>
+      </c>
+      <c r="D259" t="s">
+        <v>264</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2">
+        <v>257</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="636">
   <si>
     <t>Level1</t>
   </si>
@@ -1859,9 +1859,6 @@
   </si>
   <si>
     <t>Cutaneous and mucocutaneous leishmaniasis</t>
-  </si>
-  <si>
-    <t>Leishmaniasis</t>
   </si>
   <si>
     <t>std_gonnorhea</t>
@@ -2322,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2480,7 @@
         <v>274</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>569</v>
@@ -2492,7 +2489,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,7 +2549,7 @@
         <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>572</v>
@@ -2561,7 +2558,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,16 +2687,16 @@
         <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2716,7 +2713,7 @@
         <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F17" s="2">
         <v>15</v>
@@ -2739,7 +2736,7 @@
         <v>544</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
@@ -3193,7 +3190,7 @@
         <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>594</v>
@@ -3216,7 +3213,7 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>48</v>
@@ -3239,7 +3236,7 @@
         <v>225</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>248</v>
@@ -3262,7 +3259,7 @@
         <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>606</v>
+        <v>135</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>606</v>
@@ -3285,7 +3282,7 @@
         <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>609</v>
+        <v>135</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>609</v>
@@ -3308,7 +3305,7 @@
         <v>225</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>540</v>
@@ -3331,7 +3328,7 @@
         <v>225</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>543</v>
+        <v>135</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>543</v>
@@ -3354,7 +3351,7 @@
         <v>225</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>615</v>
+        <v>135</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>614</v>
@@ -3377,10 +3374,10 @@
         <v>225</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>631</v>
+        <v>135</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>612</v>
@@ -3389,7 +3386,7 @@
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3406,7 +3403,7 @@
         <v>135</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
@@ -3610,7 +3607,7 @@
         <v>556</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>566</v>
@@ -3619,7 +3616,7 @@
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,7 +3633,7 @@
         <v>542</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
@@ -4136,14 +4133,14 @@
         <v>175</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2">
         <v>78</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,14 +4196,14 @@
         <v>175</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <v>81</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -5354,14 +5351,14 @@
         <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2">
         <v>136</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="646">
   <si>
     <t>Level1</t>
   </si>
@@ -1771,21 +1771,6 @@
     <t>A.2.05</t>
   </si>
   <si>
-    <t>A.2.06.1</t>
-  </si>
-  <si>
-    <t>A.2.06.2</t>
-  </si>
-  <si>
-    <t>A.2.06.3</t>
-  </si>
-  <si>
-    <t>A.2.06.4</t>
-  </si>
-  <si>
-    <t>A.2.07</t>
-  </si>
-  <si>
     <t>A.2.08</t>
   </si>
   <si>
@@ -1922,6 +1907,51 @@
   </si>
   <si>
     <t>A.4.10</t>
+  </si>
+  <si>
+    <t>Neglected tropical diseases</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>A.2.06</t>
+  </si>
+  <si>
+    <t>A.2.07.1</t>
+  </si>
+  <si>
+    <t>A.2.07.2</t>
+  </si>
+  <si>
+    <t>A.2.07.3</t>
+  </si>
+  <si>
+    <t>A.2.07.4</t>
+  </si>
+  <si>
+    <t>A.2.13</t>
+  </si>
+  <si>
+    <t>Visceral leishmaniasis</t>
+  </si>
+  <si>
+    <t>ntd_leish_visc</t>
+  </si>
+  <si>
+    <t>A.3.12</t>
+  </si>
+  <si>
+    <t>A.3.13</t>
+  </si>
+  <si>
+    <t>ntd_schisto</t>
+  </si>
+  <si>
+    <t>Schistosomiasis</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +1974,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1962,6 +1992,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1976,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1984,6 +2020,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2012,8 +2049,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G259" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G259"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G262" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G262"/>
   <sortState ref="A2:G243">
     <sortCondition ref="E1:E243"/>
   </sortState>
@@ -2317,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,10 +2476,10 @@
       <c r="E5" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2462,10 +2499,10 @@
       <c r="E6" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2480,7 +2517,7 @@
         <v>274</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>569</v>
@@ -2489,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2503,7 +2540,7 @@
         <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>570</v>
@@ -2512,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,10 +2568,10 @@
       <c r="E9" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2549,7 +2586,7 @@
         <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>572</v>
@@ -2558,7 +2595,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,10 +2614,10 @@
       <c r="E11" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2600,10 +2637,10 @@
       <c r="E12" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2623,10 +2660,10 @@
       <c r="E13" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>11</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2646,10 +2683,10 @@
       <c r="E14" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>12</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2667,12 +2704,12 @@
         <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F15" s="2">
+        <v>597</v>
+      </c>
+      <c r="F15">
         <v>13</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2687,16 +2724,16 @@
         <v>274</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F16" s="2">
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,12 +2750,12 @@
         <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F17" s="2">
+        <v>618</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2736,7 +2773,7 @@
         <v>544</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F18" s="2">
         <v>16</v>
@@ -2761,10 +2798,10 @@
       <c r="E19" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>17</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2784,10 +2821,10 @@
       <c r="E20" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>18</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>426</v>
       </c>
     </row>
@@ -2807,10 +2844,10 @@
       <c r="E21" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>430</v>
       </c>
     </row>
@@ -2830,10 +2867,10 @@
       <c r="E22" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>20</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>429</v>
       </c>
     </row>
@@ -2853,10 +2890,10 @@
       <c r="E23" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>428</v>
       </c>
     </row>
@@ -2876,34 +2913,34 @@
       <c r="E24" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>22</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="C25" t="s">
+        <v>632</v>
+      </c>
+      <c r="D25" t="s">
+        <v>632</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>23</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>425</v>
+      <c r="G25" s="5" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,10 +2951,10 @@
         <v>213</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>584</v>
@@ -2926,30 +2963,30 @@
         <v>24</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F27" s="3">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F27" s="2">
-        <v>25</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2963,16 +3000,16 @@
         <v>232</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F28" s="2">
+        <v>635</v>
+      </c>
+      <c r="F28">
         <v>26</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>316</v>
+      <c r="G28" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2986,16 +3023,16 @@
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F29" s="2">
+        <v>636</v>
+      </c>
+      <c r="F29">
         <v>27</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>319</v>
+      <c r="G29" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,40 +3045,40 @@
       <c r="C30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F30" s="2">
-        <v>28</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F31" s="2">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>532</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="F31" s="3">
-        <v>29</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3052,19 +3089,19 @@
         <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F32" s="3">
         <v>30</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3075,19 +3112,19 @@
         <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F33" s="3">
         <v>31</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3098,10 +3135,10 @@
         <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>288</v>
@@ -3110,7 +3147,7 @@
         <v>32</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3121,10 +3158,10 @@
         <v>213</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>562</v>
@@ -3133,7 +3170,7 @@
         <v>33</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>531</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3144,10 +3181,10 @@
         <v>213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>563</v>
@@ -3156,7 +3193,7 @@
         <v>34</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3164,22 +3201,22 @@
         <v>203</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>639</v>
       </c>
       <c r="F37" s="3">
         <v>35</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>330</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3190,19 +3227,19 @@
         <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>594</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" s="3">
         <v>36</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>595</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3213,19 +3250,19 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>589</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39" s="3">
         <v>37</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>333</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3236,19 +3273,19 @@
         <v>225</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F40" s="3">
         <v>38</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3259,19 +3296,19 @@
         <v>225</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>606</v>
+        <v>248</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="F41" s="3">
         <v>39</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>607</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,19 +3319,19 @@
         <v>225</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F42" s="3">
         <v>40</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,19 +3342,19 @@
         <v>225</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="F43" s="3">
         <v>41</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3328,19 +3365,19 @@
         <v>225</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="F44" s="3">
         <v>42</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3351,19 +3388,19 @@
         <v>225</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>614</v>
+        <v>543</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F45" s="3">
         <v>43</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3374,19 +3411,19 @@
         <v>225</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F46" s="3">
         <v>44</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3397,19 +3434,19 @@
         <v>225</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>631</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>135</v>
+        <v>640</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="F47" s="3">
         <v>45</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>317</v>
+      <c r="G47" s="5" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3417,22 +3454,22 @@
         <v>203</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>98</v>
+        <v>631</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>98</v>
+        <v>625</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>294</v>
+        <v>627</v>
       </c>
       <c r="F48" s="3">
         <v>46</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>475</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3440,22 +3477,22 @@
         <v>203</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>560</v>
+        <v>631</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>256</v>
+        <v>645</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>295</v>
+        <v>642</v>
       </c>
       <c r="F49" s="3">
         <v>47</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>476</v>
+      <c r="G49" s="5" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3463,22 +3500,22 @@
         <v>203</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>296</v>
+        <v>643</v>
       </c>
       <c r="F50" s="3">
         <v>48</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>474</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3489,19 +3526,19 @@
         <v>231</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F51" s="3">
         <v>49</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3512,19 +3549,19 @@
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F52" s="3">
         <v>50</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3535,19 +3572,19 @@
         <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>132</v>
+        <v>561</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F53" s="3">
         <v>51</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3558,19 +3595,19 @@
         <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>558</v>
+        <v>249</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>538</v>
+        <v>249</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="F54" s="3">
         <v>52</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>548</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3581,19 +3618,19 @@
         <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>539</v>
+        <v>255</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>565</v>
+        <v>298</v>
       </c>
       <c r="F55" s="3">
         <v>53</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>549</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3604,19 +3641,19 @@
         <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>556</v>
+        <v>132</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>633</v>
+        <v>132</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>566</v>
+        <v>299</v>
       </c>
       <c r="F56" s="3">
         <v>54</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>634</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,19 +3664,19 @@
         <v>231</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>635</v>
+        <v>564</v>
       </c>
       <c r="F57" s="3">
         <v>55</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3647,22 +3684,22 @@
         <v>203</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>261</v>
+        <v>556</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>261</v>
+        <v>539</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>300</v>
+        <v>565</v>
       </c>
       <c r="F58" s="3">
         <v>56</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3670,22 +3707,22 @@
         <v>203</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>556</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>109</v>
+        <v>628</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>301</v>
+        <v>566</v>
       </c>
       <c r="F59" s="3">
         <v>57</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>480</v>
+        <v>629</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3693,22 +3730,22 @@
         <v>203</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>262</v>
+        <v>557</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>262</v>
+        <v>542</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>302</v>
+        <v>630</v>
       </c>
       <c r="F60" s="3">
         <v>58</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3719,19 +3756,19 @@
         <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3742,19 +3779,19 @@
         <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F62" s="3">
         <v>60</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3762,22 +3799,22 @@
         <v>203</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F63" s="3">
         <v>61</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,22 +3822,22 @@
         <v>203</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F64" s="3">
         <v>62</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3808,22 +3845,22 @@
         <v>203</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F65" s="3">
         <v>63</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3834,103 +3871,109 @@
         <v>229</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F66" s="3">
         <v>64</v>
       </c>
       <c r="G66" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="3">
+        <v>65</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" s="3">
+        <v>66</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F69" s="3">
+        <v>67</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>65</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="E70" s="1"/>
+      <c r="F70" s="1">
+        <v>68</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" t="s">
-        <v>242</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2">
-        <v>66</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>203</v>
-      </c>
-      <c r="B69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" t="s">
-        <v>243</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2">
-        <v>67</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2">
-        <v>68</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3944,35 +3987,35 @@
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>522</v>
+        <v>242</v>
       </c>
       <c r="E71" s="2"/>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>69</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>523</v>
+      <c r="G71" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A72" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3">
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72">
         <v>70</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>325</v>
+      <c r="G72" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3983,17 +4026,17 @@
         <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>71</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>320</v>
+      <c r="G73" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4004,38 +4047,38 @@
         <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>72</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>328</v>
+      <c r="G74" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="A75" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C75" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2">
+      <c r="C75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3">
         <v>73</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>327</v>
+      <c r="G75" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4049,14 +4092,14 @@
         <v>128</v>
       </c>
       <c r="D76" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>74</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>311</v>
+      <c r="G76" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4070,14 +4113,14 @@
         <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>75</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>315</v>
+      <c r="G77" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4091,14 +4134,14 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2"/>
-      <c r="F78" s="2">
+      <c r="F78">
         <v>76</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>310</v>
+      <c r="G78" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4109,17 +4152,17 @@
         <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2"/>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>77</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>331</v>
+      <c r="G79" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,17 +4173,17 @@
         <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>629</v>
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>180</v>
       </c>
       <c r="E80" s="2"/>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>78</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>628</v>
+      <c r="G80" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4151,17 +4194,17 @@
         <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>592</v>
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>268</v>
       </c>
       <c r="E81" s="2"/>
-      <c r="F81" s="2">
+      <c r="F81">
         <v>79</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>593</v>
+      <c r="G81" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4174,15 +4217,15 @@
       <c r="C82" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>545</v>
+      <c r="D82" t="s">
+        <v>175</v>
       </c>
       <c r="E82" s="2"/>
-      <c r="F82" s="2">
+      <c r="F82">
         <v>80</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>555</v>
+      <c r="G82" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4196,14 +4239,14 @@
         <v>175</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2">
         <v>81</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4217,77 +4260,77 @@
         <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
         <v>82</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
-      </c>
-      <c r="D85" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>545</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
         <v>83</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" t="s">
-        <v>17</v>
+        <v>175</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
         <v>84</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>518</v>
+        <v>610</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
+        <v>175</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
         <v>85</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,15 +4343,15 @@
       <c r="C88" t="s">
         <v>218</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>536</v>
+      <c r="D88" t="s">
+        <v>16</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>86</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>546</v>
+      <c r="G88" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4319,17 +4362,17 @@
         <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2">
+      <c r="F89">
         <v>87</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>517</v>
+      <c r="G89" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4340,17 +4383,17 @@
         <v>219</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="E90" s="2"/>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>88</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>516</v>
+      <c r="G90" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -4361,17 +4404,17 @@
         <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>240</v>
-      </c>
-      <c r="D91" t="s">
-        <v>173</v>
+        <v>218</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2">
         <v>89</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -4385,35 +4428,35 @@
         <v>240</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>90</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>515</v>
+      <c r="G92" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3">
+      <c r="B93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s">
+        <v>240</v>
+      </c>
+      <c r="D93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93">
         <v>91</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>493</v>
+      <c r="G93" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,20 +4464,20 @@
         <v>207</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E94" s="2"/>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>92</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>498</v>
+      <c r="G94" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -4442,41 +4485,41 @@
         <v>207</v>
       </c>
       <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95">
+        <v>93</v>
+      </c>
+      <c r="G95" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C95" t="s">
-        <v>237</v>
-      </c>
-      <c r="D95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2">
-        <v>93</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>207</v>
-      </c>
-      <c r="B96" t="s">
-        <v>238</v>
-      </c>
-      <c r="C96" t="s">
-        <v>237</v>
-      </c>
-      <c r="D96" t="s">
-        <v>103</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2">
+      <c r="C96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3">
         <v>94</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>496</v>
+      <c r="G96" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4487,17 +4530,17 @@
         <v>238</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2">
+      <c r="F97">
         <v>95</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>495</v>
+      <c r="G97" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,35 +4554,35 @@
         <v>237</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2"/>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>96</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>494</v>
+      <c r="G98" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3">
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99">
         <v>97</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>521</v>
+      <c r="G99" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4547,20 +4590,20 @@
         <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>98</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>372</v>
+      <c r="G100" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4568,209 +4611,209 @@
         <v>207</v>
       </c>
       <c r="B101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103">
+        <v>101</v>
+      </c>
+      <c r="G103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
         <v>214</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D104" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2">
-        <v>99</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104">
+        <v>102</v>
+      </c>
+      <c r="G104" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>207</v>
-      </c>
-      <c r="B102" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2">
-        <v>100</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3">
-        <v>101</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3">
-        <v>102</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>207</v>
       </c>
       <c r="B105" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>537</v>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>197</v>
       </c>
       <c r="E105" s="2"/>
-      <c r="F105" s="2">
+      <c r="F105">
         <v>103</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>547</v>
+      <c r="G105" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C106" t="s">
-        <v>221</v>
-      </c>
-      <c r="D106" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2">
+      <c r="C106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3">
         <v>104</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>501</v>
+      <c r="G106" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C107" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" t="s">
-        <v>189</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2">
+      <c r="C107" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3">
         <v>105</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>502</v>
+      <c r="G107" s="3" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B108" t="s">
         <v>206</v>
       </c>
-      <c r="C108" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" t="s">
-        <v>191</v>
+      <c r="C108" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2">
         <v>106</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" t="s">
         <v>207</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3">
+      <c r="C109" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109">
         <v>107</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>500</v>
+      <c r="G109" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" t="s">
         <v>207</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" t="s">
         <v>206</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3">
+      <c r="C110" t="s">
+        <v>221</v>
+      </c>
+      <c r="D110" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110">
         <v>108</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>509</v>
+      <c r="G110" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4781,59 +4824,59 @@
         <v>206</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="E111" s="2"/>
-      <c r="F111" s="2">
+      <c r="F111">
         <v>109</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>504</v>
+      <c r="G111" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
-        <v>599</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2">
+      <c r="C112" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3">
         <v>110</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>507</v>
+      <c r="G112" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C113" t="s">
-        <v>239</v>
-      </c>
-      <c r="D113" t="s">
-        <v>158</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2">
+      <c r="C113" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3">
         <v>111</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>512</v>
+      <c r="G113" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,17 +4887,17 @@
         <v>206</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D114" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="E114" s="2"/>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>112</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>511</v>
+      <c r="G114" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4865,290 +4908,290 @@
         <v>206</v>
       </c>
       <c r="C115" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" t="s">
+        <v>594</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115">
+        <v>113</v>
+      </c>
+      <c r="G115" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" t="s">
         <v>239</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116">
+        <v>114</v>
+      </c>
+      <c r="G116" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" t="s">
+        <v>206</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117">
+        <v>115</v>
+      </c>
+      <c r="G117" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" t="s">
         <v>260</v>
       </c>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2">
-        <v>113</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E118" s="2"/>
+      <c r="F118">
+        <v>116</v>
+      </c>
+      <c r="G118" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3">
-        <v>114</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3">
-        <v>115</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3">
-        <v>116</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3">
         <v>117</v>
       </c>
       <c r="G119" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3">
+        <v>118</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3">
+        <v>119</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3">
+        <v>120</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" t="s">
         <v>210</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C123" t="s">
         <v>230</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D123" t="s">
         <v>72</v>
       </c>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2">
-        <v>118</v>
-      </c>
-      <c r="G120" s="2" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123">
+        <v>121</v>
+      </c>
+      <c r="G123" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
         <v>210</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C124" t="s">
         <v>230</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D124" t="s">
         <v>90</v>
       </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2">
-        <v>119</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="E124" s="2"/>
+      <c r="F124">
+        <v>122</v>
+      </c>
+      <c r="G124" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>200</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>200</v>
+      </c>
+      <c r="B125" t="s">
         <v>210</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C125" t="s">
         <v>230</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D125" t="s">
         <v>181</v>
       </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2">
-        <v>120</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125">
+        <v>123</v>
+      </c>
+      <c r="G125" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" s="3" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3">
-        <v>121</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="E126" s="3"/>
+      <c r="F126" s="3">
+        <v>124</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B124" s="3" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3">
-        <v>122</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="E127" s="3"/>
+      <c r="F127" s="3">
+        <v>125</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B125" s="3" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3">
-        <v>123</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="E128" s="3"/>
+      <c r="F128" s="3">
+        <v>126</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" t="s">
-        <v>210</v>
-      </c>
-      <c r="C126" t="s">
-        <v>119</v>
-      </c>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2">
-        <v>124</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>200</v>
-      </c>
-      <c r="B127" t="s">
-        <v>210</v>
-      </c>
-      <c r="C127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D127" t="s">
-        <v>119</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2">
-        <v>125</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" t="s">
-        <v>210</v>
-      </c>
-      <c r="C128" t="s">
-        <v>119</v>
-      </c>
-      <c r="D128" t="s">
-        <v>155</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2">
-        <v>126</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5162,77 +5205,77 @@
         <v>119</v>
       </c>
       <c r="D129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129">
+        <v>127</v>
+      </c>
+      <c r="G129" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130">
+        <v>128</v>
+      </c>
+      <c r="G130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>200</v>
+      </c>
+      <c r="B131" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131" t="s">
+        <v>155</v>
+      </c>
+      <c r="E131" s="2"/>
+      <c r="F131">
+        <v>129</v>
+      </c>
+      <c r="G131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>200</v>
+      </c>
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" t="s">
+        <v>119</v>
+      </c>
+      <c r="D132" t="s">
         <v>195</v>
       </c>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2">
-        <v>127</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="E132" s="2"/>
+      <c r="F132">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3">
-        <v>128</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3">
-        <v>129</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3">
-        <v>130</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -5240,20 +5283,20 @@
         <v>200</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3">
         <v>131</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -5261,83 +5304,83 @@
         <v>200</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
         <v>132</v>
       </c>
       <c r="G134" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3">
+        <v>133</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3">
+        <v>134</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3">
+        <v>135</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>200</v>
-      </c>
-      <c r="B135" t="s">
-        <v>217</v>
-      </c>
-      <c r="C135" t="s">
-        <v>120</v>
-      </c>
-      <c r="D135" t="s">
-        <v>33</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2">
-        <v>133</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>200</v>
-      </c>
-      <c r="B136" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" t="s">
-        <v>120</v>
-      </c>
-      <c r="D136" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2">
-        <v>134</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>200</v>
-      </c>
-      <c r="B137" t="s">
-        <v>217</v>
-      </c>
-      <c r="C137" t="s">
-        <v>120</v>
-      </c>
-      <c r="D137" t="s">
-        <v>178</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2">
-        <v>135</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,14 +5394,14 @@
         <v>120</v>
       </c>
       <c r="D138" t="s">
-        <v>627</v>
+        <v>33</v>
       </c>
       <c r="E138" s="2"/>
-      <c r="F138" s="2">
+      <c r="F138">
         <v>136</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>626</v>
+      <c r="G138" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -5369,17 +5412,17 @@
         <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2"/>
-      <c r="F139" s="2">
+      <c r="F139">
         <v>137</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>436</v>
+      <c r="G139" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -5390,17 +5433,17 @@
         <v>217</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E140" s="2"/>
-      <c r="F140" s="2">
+      <c r="F140">
         <v>138</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>435</v>
+      <c r="G140" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -5411,17 +5454,17 @@
         <v>217</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D141" t="s">
-        <v>140</v>
+        <v>622</v>
       </c>
       <c r="E141" s="2"/>
-      <c r="F141" s="2">
+      <c r="F141">
         <v>139</v>
       </c>
-      <c r="G141" s="2" t="s">
-        <v>438</v>
+      <c r="G141" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -5435,56 +5478,56 @@
         <v>216</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="E142" s="2"/>
-      <c r="F142" s="2">
+      <c r="F142">
         <v>140</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>437</v>
+      <c r="G142" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3">
+      <c r="A143" t="s">
+        <v>200</v>
+      </c>
+      <c r="B143" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" t="s">
+        <v>216</v>
+      </c>
+      <c r="D143" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" s="2"/>
+      <c r="F143">
         <v>141</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>326</v>
+      <c r="G143" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3">
+      <c r="A144" t="s">
+        <v>200</v>
+      </c>
+      <c r="B144" t="s">
+        <v>217</v>
+      </c>
+      <c r="C144" t="s">
+        <v>216</v>
+      </c>
+      <c r="D144" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="2"/>
+      <c r="F144">
         <v>142</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>461</v>
+      <c r="G144" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -5492,62 +5535,62 @@
         <v>200</v>
       </c>
       <c r="B145" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" s="2"/>
+      <c r="F145">
+        <v>143</v>
+      </c>
+      <c r="G145" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3">
+        <v>144</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C145" t="s">
-        <v>38</v>
-      </c>
-      <c r="D145" t="s">
-        <v>34</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2">
-        <v>143</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" t="s">
-        <v>212</v>
-      </c>
-      <c r="C146" t="s">
-        <v>38</v>
-      </c>
-      <c r="D146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2">
-        <v>144</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" t="s">
-        <v>212</v>
-      </c>
-      <c r="C147" t="s">
-        <v>38</v>
-      </c>
-      <c r="D147" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2">
+      <c r="C147" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3">
         <v>145</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>410</v>
+      <c r="G147" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,56 +5604,56 @@
         <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E148" s="2"/>
-      <c r="F148" s="2">
+      <c r="F148">
         <v>146</v>
       </c>
-      <c r="G148" s="2" t="s">
-        <v>462</v>
+      <c r="G148" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B149" s="3" t="s">
+      <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" t="s">
         <v>212</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" t="s">
         <v>38</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="2"/>
+      <c r="F149">
+        <v>147</v>
+      </c>
+      <c r="G149" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" t="s">
+        <v>212</v>
+      </c>
+      <c r="C150" t="s">
         <v>38</v>
       </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3">
-        <v>147</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3">
+      <c r="D150" t="s">
+        <v>36</v>
+      </c>
+      <c r="E150" s="2"/>
+      <c r="F150">
         <v>148</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>383</v>
+      <c r="G150" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -5621,59 +5664,59 @@
         <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="2">
+      <c r="F151">
         <v>149</v>
       </c>
-      <c r="G151" s="2" t="s">
-        <v>382</v>
+      <c r="G151" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" t="s">
+      <c r="A152" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C152" t="s">
-        <v>236</v>
-      </c>
-      <c r="D152" t="s">
-        <v>82</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2">
+      <c r="C152" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3">
         <v>150</v>
       </c>
-      <c r="G152" s="2" t="s">
-        <v>381</v>
+      <c r="G152" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>200</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C153" t="s">
-        <v>236</v>
-      </c>
-      <c r="D153" t="s">
-        <v>94</v>
-      </c>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2">
+      <c r="C153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3">
         <v>151</v>
       </c>
-      <c r="G153" s="2" t="s">
-        <v>387</v>
+      <c r="G153" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,14 +5730,14 @@
         <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E154" s="2"/>
-      <c r="F154" s="2">
+      <c r="F154">
         <v>152</v>
       </c>
-      <c r="G154" s="2" t="s">
-        <v>386</v>
+      <c r="G154" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5708,14 +5751,14 @@
         <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E155" s="2"/>
-      <c r="F155" s="2">
+      <c r="F155">
         <v>153</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>378</v>
+      <c r="G155" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5726,17 +5769,17 @@
         <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>604</v>
+        <v>94</v>
       </c>
       <c r="E156" s="2"/>
-      <c r="F156" s="2">
+      <c r="F156">
         <v>154</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>329</v>
+      <c r="G156" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5747,17 +5790,17 @@
         <v>212</v>
       </c>
       <c r="C157" t="s">
-        <v>227</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>605</v>
+        <v>236</v>
+      </c>
+      <c r="D157" t="s">
+        <v>116</v>
       </c>
       <c r="E157" s="2"/>
-      <c r="F157" s="2">
+      <c r="F157">
         <v>155</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>603</v>
+      <c r="G157" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5768,17 +5811,17 @@
         <v>212</v>
       </c>
       <c r="C158" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="E158" s="2"/>
-      <c r="F158" s="2">
+      <c r="F158">
         <v>156</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>470</v>
+      <c r="G158" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5792,14 +5835,14 @@
         <v>227</v>
       </c>
       <c r="D159" t="s">
-        <v>84</v>
+        <v>599</v>
       </c>
       <c r="E159" s="2"/>
-      <c r="F159" s="2">
+      <c r="F159">
         <v>157</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>469</v>
+      <c r="G159" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,15 +5855,15 @@
       <c r="C160" t="s">
         <v>227</v>
       </c>
-      <c r="D160" t="s">
-        <v>146</v>
+      <c r="D160" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2">
         <v>158</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>471</v>
+        <v>598</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,17 +5874,17 @@
         <v>212</v>
       </c>
       <c r="C161" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="F161" s="2">
+      <c r="F161">
         <v>159</v>
       </c>
-      <c r="G161" s="2" t="s">
-        <v>377</v>
+      <c r="G161" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5852,17 +5895,17 @@
         <v>212</v>
       </c>
       <c r="C162" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D162" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E162" s="2"/>
-      <c r="F162" s="2">
+      <c r="F162">
         <v>160</v>
       </c>
-      <c r="G162" s="2" t="s">
-        <v>373</v>
+      <c r="G162" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5873,17 +5916,17 @@
         <v>212</v>
       </c>
       <c r="C163" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D163" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2"/>
-      <c r="F163" s="2">
+      <c r="F163">
         <v>161</v>
       </c>
-      <c r="G163" s="2" t="s">
-        <v>376</v>
+      <c r="G163" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,14 +5940,14 @@
         <v>211</v>
       </c>
       <c r="D164" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="E164" s="2"/>
-      <c r="F164" s="2">
+      <c r="F164">
         <v>162</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>375</v>
+      <c r="G164" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5918,14 +5961,14 @@
         <v>211</v>
       </c>
       <c r="D165" t="s">
-        <v>265</v>
+        <v>63</v>
       </c>
       <c r="E165" s="2"/>
-      <c r="F165" s="2">
+      <c r="F165">
         <v>163</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>374</v>
+      <c r="G165" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5936,17 +5979,17 @@
         <v>212</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="2">
+      <c r="F166">
         <v>164</v>
       </c>
-      <c r="G166" s="2" t="s">
-        <v>467</v>
+      <c r="G166" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5957,17 +6000,17 @@
         <v>212</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="E167" s="2"/>
-      <c r="F167" s="2">
+      <c r="F167">
         <v>165</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>468</v>
+      <c r="G167" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -5978,17 +6021,17 @@
         <v>212</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D168" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="E168" s="2"/>
-      <c r="F168" s="2">
+      <c r="F168">
         <v>166</v>
       </c>
-      <c r="G168" s="2" t="s">
-        <v>464</v>
+      <c r="G168" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -6002,77 +6045,77 @@
         <v>220</v>
       </c>
       <c r="D169" t="s">
+        <v>144</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169">
+        <v>167</v>
+      </c>
+      <c r="G169" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" t="s">
+        <v>212</v>
+      </c>
+      <c r="C170" t="s">
+        <v>220</v>
+      </c>
+      <c r="D170" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170">
+        <v>168</v>
+      </c>
+      <c r="G170" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>200</v>
+      </c>
+      <c r="B171" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" t="s">
+        <v>220</v>
+      </c>
+      <c r="D171" t="s">
+        <v>188</v>
+      </c>
+      <c r="E171" s="2"/>
+      <c r="F171">
+        <v>169</v>
+      </c>
+      <c r="G171" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" t="s">
+        <v>212</v>
+      </c>
+      <c r="C172" t="s">
+        <v>220</v>
+      </c>
+      <c r="D172" t="s">
         <v>192</v>
       </c>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2">
-        <v>167</v>
-      </c>
-      <c r="G169" s="2" t="s">
+      <c r="E172" s="2"/>
+      <c r="F172">
+        <v>170</v>
+      </c>
+      <c r="G172" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3">
-        <v>168</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3">
-        <v>169</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3">
-        <v>170</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6083,17 +6126,17 @@
         <v>215</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3">
         <v>171</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6104,80 +6147,80 @@
         <v>215</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3">
         <v>172</v>
       </c>
       <c r="G174" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3">
+        <v>173</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3">
+        <v>174</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3">
+        <v>175</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>200</v>
-      </c>
-      <c r="B175" t="s">
-        <v>215</v>
-      </c>
-      <c r="C175" t="s">
-        <v>123</v>
-      </c>
-      <c r="D175" t="s">
-        <v>29</v>
-      </c>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2">
-        <v>173</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>200</v>
-      </c>
-      <c r="B176" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176" t="s">
-        <v>47</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2">
-        <v>174</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>200</v>
-      </c>
-      <c r="B177" t="s">
-        <v>215</v>
-      </c>
-      <c r="C177" t="s">
-        <v>123</v>
-      </c>
-      <c r="D177" t="s">
-        <v>51</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2">
-        <v>175</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,14 +6234,14 @@
         <v>123</v>
       </c>
       <c r="D178" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E178" s="2"/>
-      <c r="F178" s="2">
+      <c r="F178">
         <v>176</v>
       </c>
-      <c r="G178" s="2" t="s">
-        <v>439</v>
+      <c r="G178" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6212,77 +6255,77 @@
         <v>123</v>
       </c>
       <c r="D179" t="s">
+        <v>47</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179">
+        <v>177</v>
+      </c>
+      <c r="G179" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" t="s">
+        <v>123</v>
+      </c>
+      <c r="D180" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="2"/>
+      <c r="F180">
+        <v>178</v>
+      </c>
+      <c r="G180" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" t="s">
+        <v>215</v>
+      </c>
+      <c r="C181" t="s">
+        <v>123</v>
+      </c>
+      <c r="D181" t="s">
+        <v>68</v>
+      </c>
+      <c r="E181" s="2"/>
+      <c r="F181">
+        <v>179</v>
+      </c>
+      <c r="G181" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>200</v>
+      </c>
+      <c r="B182" t="s">
+        <v>215</v>
+      </c>
+      <c r="C182" t="s">
+        <v>123</v>
+      </c>
+      <c r="D182" t="s">
         <v>73</v>
       </c>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2">
-        <v>177</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="E182" s="2"/>
+      <c r="F182">
+        <v>180</v>
+      </c>
+      <c r="G182" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3">
-        <v>178</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3">
-        <v>179</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3">
-        <v>180</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6293,17 +6336,17 @@
         <v>215</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3">
         <v>181</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -6314,17 +6357,17 @@
         <v>215</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3">
         <v>182</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6332,83 +6375,83 @@
         <v>200</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3">
         <v>183</v>
       </c>
       <c r="G185" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3">
+        <v>184</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3">
+        <v>185</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3">
+        <v>186</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>200</v>
-      </c>
-      <c r="B186" t="s">
-        <v>208</v>
-      </c>
-      <c r="C186" t="s">
-        <v>223</v>
-      </c>
-      <c r="D186" t="s">
-        <v>244</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2">
-        <v>184</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>200</v>
-      </c>
-      <c r="B187" t="s">
-        <v>208</v>
-      </c>
-      <c r="C187" t="s">
-        <v>223</v>
-      </c>
-      <c r="D187" t="s">
-        <v>27</v>
-      </c>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2">
-        <v>185</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>200</v>
-      </c>
-      <c r="B188" t="s">
-        <v>208</v>
-      </c>
-      <c r="C188" t="s">
-        <v>223</v>
-      </c>
-      <c r="D188" t="s">
-        <v>247</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2">
-        <v>186</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6422,14 +6465,14 @@
         <v>223</v>
       </c>
       <c r="D189" t="s">
-        <v>117</v>
+        <v>244</v>
       </c>
       <c r="E189" s="2"/>
-      <c r="F189" s="2">
+      <c r="F189">
         <v>187</v>
       </c>
-      <c r="G189" s="2" t="s">
-        <v>391</v>
+      <c r="G189" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6443,14 +6486,14 @@
         <v>223</v>
       </c>
       <c r="D190" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="E190" s="2"/>
-      <c r="F190" s="2">
+      <c r="F190">
         <v>188</v>
       </c>
-      <c r="G190" s="2" t="s">
-        <v>393</v>
+      <c r="G190" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6461,59 +6504,59 @@
         <v>208</v>
       </c>
       <c r="C191" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="2">
+      <c r="F191">
         <v>189</v>
       </c>
-      <c r="G191" s="2" t="s">
-        <v>396</v>
+      <c r="G191" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B192" s="2" t="s">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" t="s">
         <v>208</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>524</v>
+      <c r="C192" t="s">
+        <v>223</v>
+      </c>
+      <c r="D192" t="s">
+        <v>117</v>
       </c>
       <c r="E192" s="2"/>
-      <c r="F192" s="2">
+      <c r="F192">
         <v>190</v>
       </c>
-      <c r="G192" s="2" t="s">
-        <v>529</v>
+      <c r="G192" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" s="3" t="s">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" t="s">
         <v>208</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3">
+      <c r="C193" t="s">
+        <v>223</v>
+      </c>
+      <c r="D193" t="s">
+        <v>124</v>
+      </c>
+      <c r="E193" s="2"/>
+      <c r="F193">
         <v>191</v>
       </c>
-      <c r="G193" s="3" t="s">
-        <v>389</v>
+      <c r="G193" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -6521,62 +6564,62 @@
         <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="D194" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="E194" s="2"/>
-      <c r="F194" s="2">
+      <c r="F194">
         <v>192</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>460</v>
+      <c r="G194" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3">
+      <c r="A195" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2">
         <v>193</v>
       </c>
-      <c r="G195" s="3" t="s">
-        <v>412</v>
+      <c r="G195" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" t="s">
-        <v>233</v>
-      </c>
-      <c r="C196" t="s">
-        <v>134</v>
-      </c>
-      <c r="D196" t="s">
-        <v>164</v>
-      </c>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2">
+      <c r="A196" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3">
         <v>194</v>
       </c>
-      <c r="G196" s="2" t="s">
-        <v>458</v>
+      <c r="G196" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -6590,14 +6633,14 @@
         <v>134</v>
       </c>
       <c r="D197" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="E197" s="2"/>
-      <c r="F197" s="2">
+      <c r="F197">
         <v>195</v>
       </c>
-      <c r="G197" s="2" t="s">
-        <v>457</v>
+      <c r="G197" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -6608,38 +6651,38 @@
         <v>233</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3">
         <v>196</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>459</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>233</v>
+      </c>
+      <c r="C199" t="s">
+        <v>134</v>
+      </c>
+      <c r="D199" t="s">
+        <v>164</v>
+      </c>
+      <c r="E199" s="2"/>
+      <c r="F199">
         <v>197</v>
       </c>
-      <c r="G199" s="3" t="s">
-        <v>357</v>
+      <c r="G199" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -6647,62 +6690,62 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
+        <v>233</v>
+      </c>
+      <c r="C200" t="s">
+        <v>134</v>
+      </c>
+      <c r="D200" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="2"/>
+      <c r="F200">
+        <v>198</v>
+      </c>
+      <c r="G200" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3">
         <v>199</v>
       </c>
-      <c r="C200" t="s">
-        <v>23</v>
-      </c>
-      <c r="D200" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2">
-        <v>198</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
+      <c r="G201" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C201" t="s">
-        <v>23</v>
-      </c>
-      <c r="D201" t="s">
-        <v>23</v>
-      </c>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2">
-        <v>199</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" t="s">
-        <v>199</v>
-      </c>
-      <c r="C202" t="s">
-        <v>24</v>
-      </c>
-      <c r="D202" t="s">
-        <v>24</v>
-      </c>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2">
-        <v>200</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>350</v>
+      <c r="C202" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3">
+        <v>200</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,17 +6756,17 @@
         <v>199</v>
       </c>
       <c r="C203" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E203" s="2"/>
-      <c r="F203" s="2">
+      <c r="F203">
         <v>201</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>336</v>
+      <c r="G203" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,17 +6777,17 @@
         <v>199</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D204" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E204" s="2"/>
-      <c r="F204" s="2">
+      <c r="F204">
         <v>202</v>
       </c>
-      <c r="G204" s="2" t="s">
-        <v>351</v>
+      <c r="G204" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6755,17 +6798,17 @@
         <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E205" s="2"/>
-      <c r="F205" s="2">
-        <v>203</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>341</v>
+      <c r="F205">
+        <v>203</v>
+      </c>
+      <c r="G205" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6776,17 +6819,17 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D206" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206" s="2">
+      <c r="F206">
         <v>204</v>
       </c>
-      <c r="G206" s="2" t="s">
-        <v>338</v>
+      <c r="G206" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6797,17 +6840,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D207" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E207" s="2"/>
-      <c r="F207" s="2">
+      <c r="F207">
         <v>205</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>342</v>
+      <c r="G207" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6818,17 +6861,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D208" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E208" s="2"/>
-      <c r="F208" s="2">
+      <c r="F208">
         <v>206</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>360</v>
+      <c r="G208" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6839,17 +6882,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D209" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E209" s="2"/>
-      <c r="F209" s="2">
+      <c r="F209">
         <v>207</v>
       </c>
-      <c r="G209" s="2" t="s">
-        <v>356</v>
+      <c r="G209" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -6860,17 +6903,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D210" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E210" s="2"/>
-      <c r="F210" s="2">
+      <c r="F210">
         <v>208</v>
       </c>
-      <c r="G210" s="2" t="s">
-        <v>345</v>
+      <c r="G210" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -6881,17 +6924,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D211" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E211" s="2"/>
-      <c r="F211" s="2">
+      <c r="F211">
         <v>209</v>
       </c>
-      <c r="G211" s="2" t="s">
-        <v>364</v>
+      <c r="G211" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -6902,17 +6945,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E212" s="2"/>
-      <c r="F212" s="2">
+      <c r="F212">
         <v>210</v>
       </c>
-      <c r="G212" s="2" t="s">
-        <v>366</v>
+      <c r="G212" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -6923,17 +6966,17 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D213" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E213" s="2"/>
-      <c r="F213" s="2">
+      <c r="F213">
         <v>211</v>
       </c>
-      <c r="G213" s="2" t="s">
-        <v>365</v>
+      <c r="G213" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -6947,14 +6990,14 @@
         <v>93</v>
       </c>
       <c r="D214" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="E214" s="2"/>
-      <c r="F214" s="2">
+      <c r="F214">
         <v>212</v>
       </c>
-      <c r="G214" s="2" t="s">
-        <v>367</v>
+      <c r="G214" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -6968,14 +7011,14 @@
         <v>93</v>
       </c>
       <c r="D215" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E215" s="2"/>
-      <c r="F215" s="2">
+      <c r="F215">
         <v>213</v>
       </c>
-      <c r="G215" s="2" t="s">
-        <v>363</v>
+      <c r="G215" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,17 +7029,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D216" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="E216" s="2"/>
-      <c r="F216" s="2">
+      <c r="F216">
         <v>214</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>343</v>
+      <c r="G216" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,17 +7050,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D217" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="E217" s="2"/>
-      <c r="F217" s="2">
+      <c r="F217">
         <v>215</v>
       </c>
-      <c r="G217" s="2" t="s">
-        <v>347</v>
+      <c r="G217" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7028,17 +7071,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D218" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E218" s="2"/>
-      <c r="F218" s="2">
+      <c r="F218">
         <v>216</v>
       </c>
-      <c r="G218" s="2" t="s">
-        <v>349</v>
+      <c r="G218" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7049,17 +7092,17 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D219" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219" s="2">
+      <c r="F219">
         <v>217</v>
       </c>
-      <c r="G219" s="2" t="s">
-        <v>335</v>
+      <c r="G219" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7070,17 +7113,17 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D220" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E220" s="2"/>
-      <c r="F220" s="2">
+      <c r="F220">
         <v>218</v>
       </c>
-      <c r="G220" s="2" t="s">
-        <v>362</v>
+      <c r="G220" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7091,17 +7134,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D221" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E221" s="2"/>
-      <c r="F221" s="2">
+      <c r="F221">
         <v>219</v>
       </c>
-      <c r="G221" s="2" t="s">
-        <v>337</v>
+      <c r="G221" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7112,17 +7155,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D222" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E222" s="2"/>
-      <c r="F222" s="2">
+      <c r="F222">
         <v>220</v>
       </c>
-      <c r="G222" s="2" t="s">
-        <v>361</v>
+      <c r="G222" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7133,17 +7176,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D223" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E223" s="2"/>
-      <c r="F223" s="2">
+      <c r="F223">
         <v>221</v>
       </c>
-      <c r="G223" s="2" t="s">
-        <v>348</v>
+      <c r="G223" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7154,17 +7197,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D224" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E224" s="2"/>
-      <c r="F224" s="2">
+      <c r="F224">
         <v>222</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>340</v>
+      <c r="G224" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -7175,17 +7218,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D225" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E225" s="2"/>
-      <c r="F225" s="2">
+      <c r="F225">
         <v>223</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>368</v>
+      <c r="G225" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -7196,17 +7239,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D226" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E226" s="2"/>
-      <c r="F226" s="2">
+      <c r="F226">
         <v>224</v>
       </c>
-      <c r="G226" s="2" t="s">
-        <v>353</v>
+      <c r="G226" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -7217,17 +7260,17 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D227" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E227" s="2"/>
-      <c r="F227" s="2">
+      <c r="F227">
         <v>225</v>
       </c>
-      <c r="G227" s="2" t="s">
-        <v>344</v>
+      <c r="G227" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -7238,17 +7281,17 @@
         <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D228" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E228" s="2"/>
-      <c r="F228" s="2">
+      <c r="F228">
         <v>226</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>354</v>
+      <c r="G228" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -7259,17 +7302,17 @@
         <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="D229" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="E229" s="2"/>
-      <c r="F229" s="2">
+      <c r="F229">
         <v>227</v>
       </c>
-      <c r="G229" s="2" t="s">
-        <v>443</v>
+      <c r="G229" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7280,17 +7323,17 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D230" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E230" s="2"/>
-      <c r="F230" s="2">
+      <c r="F230">
         <v>228</v>
       </c>
-      <c r="G230" s="2" t="s">
-        <v>339</v>
+      <c r="G230" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -7301,17 +7344,17 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="D231" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E231" s="2"/>
-      <c r="F231" s="2">
+      <c r="F231">
         <v>229</v>
       </c>
-      <c r="G231" s="2" t="s">
-        <v>355</v>
+      <c r="G231" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -7322,17 +7365,17 @@
         <v>199</v>
       </c>
       <c r="C232" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D232" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="F232" s="2">
+      <c r="F232">
         <v>230</v>
       </c>
-      <c r="G232" s="2" t="s">
-        <v>359</v>
+      <c r="G232" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -7343,17 +7386,17 @@
         <v>199</v>
       </c>
       <c r="C233" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D233" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E233" s="2"/>
-      <c r="F233" s="2">
+      <c r="F233">
         <v>231</v>
       </c>
-      <c r="G233" s="2" t="s">
-        <v>346</v>
+      <c r="G233" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -7364,17 +7407,17 @@
         <v>199</v>
       </c>
       <c r="C234" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D234" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E234" s="2"/>
-      <c r="F234" s="2">
+      <c r="F234">
         <v>232</v>
       </c>
-      <c r="G234" s="2" t="s">
-        <v>352</v>
+      <c r="G234" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -7382,20 +7425,20 @@
         <v>200</v>
       </c>
       <c r="B235" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C235" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="D235" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="E235" s="2"/>
-      <c r="F235" s="2">
+      <c r="F235">
         <v>233</v>
       </c>
-      <c r="G235" s="2" t="s">
-        <v>388</v>
+      <c r="G235" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -7403,20 +7446,20 @@
         <v>200</v>
       </c>
       <c r="B236" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C236" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="D236" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="E236" s="2"/>
-      <c r="F236" s="2">
+      <c r="F236">
         <v>234</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>402</v>
+      <c r="G236" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -7424,20 +7467,20 @@
         <v>200</v>
       </c>
       <c r="B237" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C237" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="D237" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="E237" s="2"/>
-      <c r="F237" s="2">
+      <c r="F237">
         <v>235</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>399</v>
+      <c r="G237" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -7448,17 +7491,17 @@
         <v>201</v>
       </c>
       <c r="C238" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D238" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="E238" s="2"/>
-      <c r="F238" s="2">
+      <c r="F238">
         <v>236</v>
       </c>
-      <c r="G238" s="2" t="s">
-        <v>401</v>
+      <c r="G238" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -7469,17 +7512,17 @@
         <v>201</v>
       </c>
       <c r="C239" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="D239" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E239" s="2"/>
-      <c r="F239" s="2">
+      <c r="F239">
         <v>237</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>406</v>
+      <c r="G239" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -7490,17 +7533,17 @@
         <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D240" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E240" s="2"/>
-      <c r="F240" s="2">
+      <c r="F240">
         <v>238</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>405</v>
+      <c r="G240" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -7511,17 +7554,17 @@
         <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D241" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E241" s="2"/>
-      <c r="F241" s="2">
+      <c r="F241">
         <v>239</v>
       </c>
-      <c r="G241" s="2" t="s">
-        <v>398</v>
+      <c r="G241" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -7532,17 +7575,17 @@
         <v>201</v>
       </c>
       <c r="C242" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D242" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E242" s="2"/>
-      <c r="F242" s="2">
+      <c r="F242">
         <v>240</v>
       </c>
-      <c r="G242" s="2" t="s">
-        <v>400</v>
+      <c r="G242" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -7550,20 +7593,20 @@
         <v>200</v>
       </c>
       <c r="B243" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C243" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D243" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E243" s="2"/>
-      <c r="F243" s="2">
+      <c r="F243">
         <v>241</v>
       </c>
-      <c r="G243" s="2" t="s">
-        <v>489</v>
+      <c r="G243" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7571,20 +7614,20 @@
         <v>200</v>
       </c>
       <c r="B244" t="s">
-        <v>205</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="C244" t="s">
+        <v>137</v>
+      </c>
+      <c r="D244" t="s">
+        <v>137</v>
       </c>
       <c r="E244" s="2"/>
-      <c r="F244" s="2">
+      <c r="F244">
         <v>242</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>530</v>
+      <c r="G244" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -7592,20 +7635,20 @@
         <v>200</v>
       </c>
       <c r="B245" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C245" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D245" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="E245" s="2"/>
-      <c r="F245" s="2">
+      <c r="F245">
         <v>243</v>
       </c>
-      <c r="G245" s="2" t="s">
-        <v>486</v>
+      <c r="G245" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7619,14 +7662,14 @@
         <v>224</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="F246" s="2">
+      <c r="F246">
         <v>244</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>485</v>
+      <c r="G246" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -7636,18 +7679,18 @@
       <c r="B247" t="s">
         <v>205</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D247" t="s">
-        <v>46</v>
+      <c r="D247" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <v>245</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7661,14 +7704,14 @@
         <v>224</v>
       </c>
       <c r="D248" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E248" s="2"/>
-      <c r="F248" s="2">
+      <c r="F248">
         <v>246</v>
       </c>
-      <c r="G248" s="2" t="s">
-        <v>488</v>
+      <c r="G248" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,14 +7725,14 @@
         <v>224</v>
       </c>
       <c r="D249" t="s">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="E249" s="2"/>
-      <c r="F249" s="2">
+      <c r="F249">
         <v>247</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>491</v>
+      <c r="G249" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7703,14 +7746,14 @@
         <v>224</v>
       </c>
       <c r="D250" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E250" s="2"/>
-      <c r="F250" s="2">
+      <c r="F250">
         <v>248</v>
       </c>
-      <c r="G250" s="2" t="s">
-        <v>483</v>
+      <c r="G250" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7724,14 +7767,14 @@
         <v>224</v>
       </c>
       <c r="D251" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="E251" s="2"/>
-      <c r="F251" s="2">
+      <c r="F251">
         <v>249</v>
       </c>
-      <c r="G251" s="2" t="s">
-        <v>484</v>
+      <c r="G251" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,14 +7788,14 @@
         <v>224</v>
       </c>
       <c r="D252" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E252" s="2"/>
-      <c r="F252" s="2">
+      <c r="F252">
         <v>250</v>
       </c>
-      <c r="G252" s="2" t="s">
-        <v>490</v>
+      <c r="G252" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -7762,18 +7805,18 @@
       <c r="B253" t="s">
         <v>205</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" t="s">
         <v>224</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>527</v>
+      <c r="D253" t="s">
+        <v>110</v>
       </c>
       <c r="E253" s="2"/>
-      <c r="F253" s="2">
+      <c r="F253">
         <v>251</v>
       </c>
-      <c r="G253" s="2" t="s">
-        <v>533</v>
+      <c r="G253" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -7784,17 +7827,17 @@
         <v>205</v>
       </c>
       <c r="C254" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D254" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E254" s="2"/>
-      <c r="F254" s="2">
+      <c r="F254">
         <v>252</v>
       </c>
-      <c r="G254" s="2" t="s">
-        <v>312</v>
+      <c r="G254" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,17 +7848,17 @@
         <v>205</v>
       </c>
       <c r="C255" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D255" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="E255" s="2"/>
-      <c r="F255" s="2">
+      <c r="F255">
         <v>253</v>
       </c>
-      <c r="G255" s="2" t="s">
-        <v>454</v>
+      <c r="G255" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -7825,18 +7868,18 @@
       <c r="B256" t="s">
         <v>205</v>
       </c>
-      <c r="C256" t="s">
-        <v>204</v>
-      </c>
-      <c r="D256" t="s">
-        <v>49</v>
+      <c r="C256" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256" s="2">
         <v>254</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -7850,14 +7893,14 @@
         <v>204</v>
       </c>
       <c r="D257" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="E257" s="2"/>
-      <c r="F257" s="2">
+      <c r="F257">
         <v>255</v>
       </c>
-      <c r="G257" s="2" t="s">
-        <v>455</v>
+      <c r="G257" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -7871,14 +7914,14 @@
         <v>204</v>
       </c>
       <c r="D258" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="F258" s="2">
+      <c r="F258">
         <v>256</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>334</v>
+      <c r="G258" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -7889,16 +7932,79 @@
         <v>205</v>
       </c>
       <c r="C259" t="s">
+        <v>204</v>
+      </c>
+      <c r="D259" t="s">
+        <v>49</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259">
+        <v>257</v>
+      </c>
+      <c r="G259" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>200</v>
+      </c>
+      <c r="B260" t="s">
+        <v>205</v>
+      </c>
+      <c r="C260" t="s">
+        <v>204</v>
+      </c>
+      <c r="D260" t="s">
+        <v>142</v>
+      </c>
+      <c r="E260" s="2"/>
+      <c r="F260">
+        <v>258</v>
+      </c>
+      <c r="G260" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>200</v>
+      </c>
+      <c r="B261" t="s">
+        <v>205</v>
+      </c>
+      <c r="C261" t="s">
+        <v>204</v>
+      </c>
+      <c r="D261" t="s">
+        <v>169</v>
+      </c>
+      <c r="E261" s="2"/>
+      <c r="F261">
+        <v>259</v>
+      </c>
+      <c r="G261" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>200</v>
+      </c>
+      <c r="B262" t="s">
+        <v>205</v>
+      </c>
+      <c r="C262" t="s">
         <v>264</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D262" t="s">
         <v>264</v>
       </c>
-      <c r="E259" s="2"/>
-      <c r="F259" s="2">
-        <v>257</v>
-      </c>
-      <c r="G259" s="2" t="s">
+      <c r="E262" s="2"/>
+      <c r="F262">
+        <v>260</v>
+      </c>
+      <c r="G262" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -2356,9 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD346E2-14D5-429D-BED2-F8B7D9CEF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="651">
   <si>
     <t>Level1</t>
   </si>
@@ -1952,13 +1953,28 @@
   </si>
   <si>
     <t>Schistosomiasis</t>
+  </si>
+  <si>
+    <t>intest_paratyph</t>
+  </si>
+  <si>
+    <t>Paratyphoid fever</t>
+  </si>
+  <si>
+    <t>A.2.01.13</t>
+  </si>
+  <si>
+    <t>Polycystic ovarian syndrome</t>
+  </si>
+  <si>
+    <t>gyne_polycystic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1969,6 +1985,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2049,19 +2071,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G262" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G262"/>
-  <sortState ref="A2:G243">
-    <sortCondition ref="E1:E243"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G264" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G245">
+    <sortCondition ref="E1:E245"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Level1" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Level2" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Level3" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Level4" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="Outline" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="ID" dataDxfId="0"/>
-    <tableColumn id="6" name="Code" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Level2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Level3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Level4" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Outline" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ID" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Code" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2143,6 +2165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2178,6 +2217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2353,20 +2409,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G262"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="40.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="40.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2447,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -2412,7 +2470,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>203</v>
       </c>
@@ -2435,7 +2493,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>203</v>
       </c>
@@ -2458,7 +2516,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -2481,7 +2539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -2504,7 +2562,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2527,7 +2585,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -2550,7 +2608,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -2573,7 +2631,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -2596,7 +2654,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -2619,7 +2677,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -2642,7 +2700,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -2665,7 +2723,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -2688,7 +2746,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -2711,7 +2769,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -2734,7 +2792,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -2757,7 +2815,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -2780,30 +2838,27 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -2811,22 +2866,22 @@
         <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -2837,19 +2892,19 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -2860,19 +2915,19 @@
         <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -2883,19 +2938,19 @@
         <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>203</v>
       </c>
@@ -2906,19 +2961,19 @@
         <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -2926,45 +2981,45 @@
         <v>213</v>
       </c>
       <c r="C25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
         <v>632</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>632</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>23</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F26" s="3">
-        <v>24</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>203</v>
       </c>
@@ -2972,45 +3027,45 @@
         <v>213</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" s="3">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>25</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>203</v>
-      </c>
-      <c r="B28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F28">
-        <v>26</v>
-      </c>
-      <c r="G28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>203</v>
       </c>
@@ -3021,19 +3076,19 @@
         <v>232</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F29">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -3044,19 +3099,19 @@
         <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F30">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -3066,43 +3121,43 @@
       <c r="C31" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F32" s="2">
         <v>29</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F32" s="3">
-        <v>30</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>203</v>
       </c>
@@ -3110,22 +3165,22 @@
         <v>213</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F33" s="3">
-        <v>31</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>203</v>
       </c>
@@ -3133,22 +3188,22 @@
         <v>213</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>288</v>
+        <v>586</v>
       </c>
       <c r="F34" s="3">
-        <v>32</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>203</v>
       </c>
@@ -3156,22 +3211,22 @@
         <v>213</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>562</v>
+        <v>288</v>
       </c>
       <c r="F35" s="3">
-        <v>33</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>203</v>
       </c>
@@ -3179,22 +3234,22 @@
         <v>213</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>535</v>
+        <v>194</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F36" s="3">
-        <v>34</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>203</v>
       </c>
@@ -3202,45 +3257,45 @@
         <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F37" s="3">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F38" s="3">
         <v>35</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F38" s="3">
-        <v>36</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>203</v>
       </c>
@@ -3248,22 +3303,22 @@
         <v>225</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>631</v>
+        <v>96</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>589</v>
+        <v>96</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39" s="3">
-        <v>37</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>203</v>
       </c>
@@ -3274,19 +3329,19 @@
         <v>631</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>589</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F40" s="3">
-        <v>38</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>203</v>
       </c>
@@ -3297,19 +3352,19 @@
         <v>631</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" s="3">
-        <v>39</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>203</v>
       </c>
@@ -3320,19 +3375,19 @@
         <v>631</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>601</v>
+        <v>248</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>567</v>
+        <v>292</v>
       </c>
       <c r="F42" s="3">
-        <v>40</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>203</v>
       </c>
@@ -3343,19 +3398,19 @@
         <v>631</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F43" s="3">
-        <v>41</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>203</v>
       </c>
@@ -3366,19 +3421,19 @@
         <v>631</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="F44" s="3">
-        <v>42</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>203</v>
       </c>
@@ -3389,19 +3444,19 @@
         <v>631</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F45" s="3">
-        <v>43</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>203</v>
       </c>
@@ -3412,19 +3467,19 @@
         <v>631</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>609</v>
+        <v>543</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F46" s="3">
-        <v>44</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>203</v>
       </c>
@@ -3435,19 +3490,19 @@
         <v>631</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F47" s="3">
-        <v>45</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>203</v>
       </c>
@@ -3458,19 +3513,19 @@
         <v>631</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="F48" s="3">
-        <v>46</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>203</v>
       </c>
@@ -3481,19 +3536,19 @@
         <v>631</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="F49" s="3">
-        <v>47</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>203</v>
       </c>
@@ -3504,42 +3559,42 @@
         <v>631</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F50" s="3">
+        <v>47</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F51" s="3">
         <v>48</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F51" s="3">
-        <v>49</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -3547,22 +3602,22 @@
         <v>231</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>560</v>
+        <v>98</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>203</v>
       </c>
@@ -3570,22 +3625,22 @@
         <v>231</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F53" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>203</v>
       </c>
@@ -3593,22 +3648,22 @@
         <v>231</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>249</v>
+        <v>561</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F54" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>203</v>
       </c>
@@ -3616,22 +3671,22 @@
         <v>231</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>559</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>203</v>
       </c>
@@ -3639,22 +3694,22 @@
         <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>132</v>
+        <v>559</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>203</v>
       </c>
@@ -3662,22 +3717,22 @@
         <v>231</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>558</v>
+        <v>132</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>538</v>
+        <v>132</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>564</v>
+        <v>299</v>
       </c>
       <c r="F57" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>203</v>
       </c>
@@ -3685,22 +3740,22 @@
         <v>231</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F58" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>203</v>
       </c>
@@ -3711,19 +3766,19 @@
         <v>556</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F59" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>203</v>
       </c>
@@ -3731,45 +3786,45 @@
         <v>231</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F60" s="3">
+        <v>57</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F61" s="3">
         <v>58</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" s="3">
-        <v>59</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>203</v>
       </c>
@@ -3777,22 +3832,22 @@
         <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>203</v>
       </c>
@@ -3800,22 +3855,22 @@
         <v>234</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F63" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>203</v>
       </c>
@@ -3823,22 +3878,22 @@
         <v>234</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F64" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>203</v>
       </c>
@@ -3846,45 +3901,45 @@
         <v>234</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="3">
+        <v>62</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F66" s="3">
         <v>63</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F66" s="3">
-        <v>64</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>203</v>
       </c>
@@ -3892,22 +3947,22 @@
         <v>229</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F67" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>203</v>
       </c>
@@ -3915,22 +3970,22 @@
         <v>229</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F68" s="3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>203</v>
       </c>
@@ -3938,64 +3993,66 @@
         <v>229</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" s="3">
+        <v>66</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F70" s="3">
         <v>67</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1">
+      <c r="E71" s="1"/>
+      <c r="F71" s="1">
         <v>68</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71">
-        <v>69</v>
-      </c>
-      <c r="G71" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -4006,17 +4063,17 @@
         <v>74</v>
       </c>
       <c r="D72" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -4027,17 +4084,17 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>243</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -4048,59 +4105,59 @@
         <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74">
+        <v>71</v>
+      </c>
+      <c r="G74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>522</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75">
         <v>72</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G75" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3">
+      <c r="E76" s="3"/>
+      <c r="F76" s="3">
         <v>73</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>203</v>
-      </c>
-      <c r="B76" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" t="s">
-        <v>128</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -4111,17 +4168,17 @@
         <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -4132,17 +4189,17 @@
         <v>128</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -4153,17 +4210,17 @@
         <v>128</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -4174,17 +4231,17 @@
         <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -4195,17 +4252,17 @@
         <v>128</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>203</v>
       </c>
@@ -4213,20 +4270,20 @@
         <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>203</v>
       </c>
@@ -4236,18 +4293,18 @@
       <c r="C83" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>624</v>
+      <c r="D83" t="s">
+        <v>175</v>
       </c>
       <c r="E83" s="2"/>
-      <c r="F83" s="2">
-        <v>81</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -4258,17 +4315,17 @@
         <v>175</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -4279,17 +4336,17 @@
         <v>175</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>203</v>
       </c>
@@ -4300,17 +4357,17 @@
         <v>175</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -4321,38 +4378,38 @@
         <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2">
+        <v>84</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>175</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2">
         <v>85</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>207</v>
-      </c>
-      <c r="B88" t="s">
-        <v>219</v>
-      </c>
-      <c r="C88" t="s">
-        <v>218</v>
-      </c>
-      <c r="D88" t="s">
-        <v>16</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -4363,17 +4420,17 @@
         <v>218</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>207</v>
       </c>
@@ -4384,17 +4441,17 @@
         <v>218</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -4404,18 +4461,18 @@
       <c r="C91" t="s">
         <v>218</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>536</v>
+      <c r="D91" t="s">
+        <v>18</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="2">
-        <v>89</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -4423,20 +4480,20 @@
         <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" t="s">
-        <v>171</v>
+        <v>218</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="E92" s="2"/>
-      <c r="F92">
-        <v>90</v>
-      </c>
-      <c r="G92" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <v>89</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>207</v>
       </c>
@@ -4447,17 +4504,17 @@
         <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G93" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -4468,17 +4525,17 @@
         <v>240</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G94" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>207</v>
       </c>
@@ -4489,59 +4546,59 @@
         <v>240</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95">
+        <v>92</v>
+      </c>
+      <c r="G95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96">
         <v>93</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3">
+      <c r="E97" s="3"/>
+      <c r="F97" s="3">
         <v>94</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>207</v>
-      </c>
-      <c r="B97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C97" t="s">
-        <v>143</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97">
-        <v>95</v>
-      </c>
-      <c r="G97" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -4549,20 +4606,20 @@
         <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G98" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -4573,17 +4630,17 @@
         <v>237</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G99" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>207</v>
       </c>
@@ -4594,17 +4651,17 @@
         <v>237</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G100" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>207</v>
       </c>
@@ -4615,59 +4672,59 @@
         <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101">
+        <v>98</v>
+      </c>
+      <c r="G101" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>237</v>
+      </c>
+      <c r="D102" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102">
         <v>99</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>160</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103">
-        <v>101</v>
-      </c>
-      <c r="G103" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -4675,20 +4732,20 @@
         <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G104" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -4699,38 +4756,38 @@
         <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105">
+        <v>102</v>
+      </c>
+      <c r="G105" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" t="s">
+        <v>197</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106">
         <v>103</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G106" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3">
-        <v>104</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>207</v>
       </c>
@@ -4738,62 +4795,62 @@
         <v>206</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3">
+        <v>104</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3">
         <v>105</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" t="s">
-        <v>206</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2">
-        <v>106</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="C109" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" t="s">
-        <v>126</v>
+      <c r="C109" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="E109" s="2"/>
-      <c r="F109">
-        <v>107</v>
-      </c>
-      <c r="G109" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="2">
+        <v>106</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -4804,17 +4861,17 @@
         <v>221</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G110" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -4825,38 +4882,38 @@
         <v>221</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111">
+        <v>108</v>
+      </c>
+      <c r="G111" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" t="s">
+        <v>206</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+      <c r="D112" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112">
         <v>109</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3">
-        <v>110</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>207</v>
       </c>
@@ -4864,41 +4921,41 @@
         <v>206</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3">
+        <v>110</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3">
         <v>111</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>207</v>
-      </c>
-      <c r="B114" t="s">
-        <v>206</v>
-      </c>
-      <c r="C114" t="s">
-        <v>226</v>
-      </c>
-      <c r="D114" t="s">
-        <v>62</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114">
-        <v>112</v>
-      </c>
-      <c r="G114" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -4909,17 +4966,17 @@
         <v>226</v>
       </c>
       <c r="D115" t="s">
-        <v>594</v>
+        <v>62</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G115" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>207</v>
       </c>
@@ -4927,20 +4984,20 @@
         <v>206</v>
       </c>
       <c r="C116" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>594</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G116" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -4951,17 +5008,17 @@
         <v>239</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G117" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -4972,59 +5029,59 @@
         <v>239</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118">
+        <v>115</v>
+      </c>
+      <c r="G118" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119">
         <v>116</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G119" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3">
-        <v>117</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>200</v>
       </c>
@@ -5032,20 +5089,20 @@
         <v>210</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>200</v>
       </c>
@@ -5053,41 +5110,41 @@
         <v>210</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
+        <v>119</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3">
         <v>120</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>200</v>
-      </c>
-      <c r="B123" t="s">
-        <v>210</v>
-      </c>
-      <c r="C123" t="s">
-        <v>230</v>
-      </c>
-      <c r="D123" t="s">
-        <v>72</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123">
-        <v>121</v>
-      </c>
-      <c r="G123" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>200</v>
       </c>
@@ -5098,17 +5155,17 @@
         <v>230</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G124" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -5119,38 +5176,38 @@
         <v>230</v>
       </c>
       <c r="D125" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125">
+        <v>122</v>
+      </c>
+      <c r="G125" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>200</v>
+      </c>
+      <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126">
         <v>123</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G126" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3">
-        <v>124</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>200</v>
       </c>
@@ -5158,20 +5215,20 @@
         <v>210</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>200</v>
       </c>
@@ -5179,41 +5236,41 @@
         <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3">
+        <v>125</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3">
         <v>126</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>200</v>
-      </c>
-      <c r="B129" t="s">
-        <v>210</v>
-      </c>
-      <c r="C129" t="s">
-        <v>119</v>
-      </c>
-      <c r="D129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129">
-        <v>127</v>
-      </c>
-      <c r="G129" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>200</v>
       </c>
@@ -5224,17 +5281,17 @@
         <v>119</v>
       </c>
       <c r="D130" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -5245,17 +5302,17 @@
         <v>119</v>
       </c>
       <c r="D131" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G131" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>200</v>
       </c>
@@ -5266,38 +5323,38 @@
         <v>119</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132">
+        <v>129</v>
+      </c>
+      <c r="G132" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
+      </c>
+      <c r="D133" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133">
         <v>130</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G133" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3">
-        <v>131</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>200</v>
       </c>
@@ -5305,41 +5362,41 @@
         <v>210</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>200</v>
       </c>
@@ -5347,20 +5404,20 @@
         <v>217</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>200</v>
       </c>
@@ -5368,41 +5425,41 @@
         <v>217</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3">
+        <v>134</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3">
         <v>135</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>200</v>
-      </c>
-      <c r="B138" t="s">
-        <v>217</v>
-      </c>
-      <c r="C138" t="s">
-        <v>120</v>
-      </c>
-      <c r="D138" t="s">
-        <v>33</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138">
-        <v>136</v>
-      </c>
-      <c r="G138" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>200</v>
       </c>
@@ -5413,17 +5470,17 @@
         <v>120</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G139" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>200</v>
       </c>
@@ -5434,17 +5491,17 @@
         <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G140" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>200</v>
       </c>
@@ -5455,17 +5512,17 @@
         <v>120</v>
       </c>
       <c r="D141" t="s">
-        <v>622</v>
+        <v>178</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G141" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>200</v>
       </c>
@@ -5473,20 +5530,20 @@
         <v>217</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>622</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G142" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>200</v>
       </c>
@@ -5497,17 +5554,17 @@
         <v>216</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G143" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>200</v>
       </c>
@@ -5518,17 +5575,17 @@
         <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G144" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -5539,80 +5596,80 @@
         <v>216</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145">
+        <v>142</v>
+      </c>
+      <c r="G145" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146">
         <v>143</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G146" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B146" s="3" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3">
-        <v>144</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3">
+        <v>144</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3">
         <v>145</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" t="s">
-        <v>212</v>
-      </c>
-      <c r="C148" t="s">
-        <v>38</v>
-      </c>
-      <c r="D148" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148">
-        <v>146</v>
-      </c>
-      <c r="G148" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>200</v>
       </c>
@@ -5623,17 +5680,17 @@
         <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G149" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>200</v>
       </c>
@@ -5644,17 +5701,17 @@
         <v>38</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G150" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>200</v>
       </c>
@@ -5665,38 +5722,38 @@
         <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151">
+        <v>148</v>
+      </c>
+      <c r="G151" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" t="s">
+        <v>212</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
+        <v>37</v>
+      </c>
+      <c r="E152" s="2"/>
+      <c r="F152">
         <v>149</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G152" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3">
-        <v>150</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>200</v>
       </c>
@@ -5704,41 +5761,41 @@
         <v>212</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3">
+        <v>150</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3">
         <v>151</v>
       </c>
-      <c r="G153" s="3" t="s">
+      <c r="G154" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>200</v>
-      </c>
-      <c r="B154" t="s">
-        <v>212</v>
-      </c>
-      <c r="C154" t="s">
-        <v>236</v>
-      </c>
-      <c r="D154" t="s">
-        <v>81</v>
-      </c>
-      <c r="E154" s="2"/>
-      <c r="F154">
-        <v>152</v>
-      </c>
-      <c r="G154" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -5749,17 +5806,17 @@
         <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E155" s="2"/>
       <c r="F155">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G155" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -5770,17 +5827,17 @@
         <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G156" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -5791,17 +5848,17 @@
         <v>236</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G157" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>200</v>
       </c>
@@ -5812,17 +5869,17 @@
         <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G158" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -5830,20 +5887,20 @@
         <v>212</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D159" t="s">
-        <v>599</v>
+        <v>125</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G159" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>200</v>
       </c>
@@ -5853,18 +5910,18 @@
       <c r="C160" t="s">
         <v>227</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>600</v>
+      <c r="D160" t="s">
+        <v>599</v>
       </c>
       <c r="E160" s="2"/>
-      <c r="F160" s="2">
-        <v>158</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>157</v>
+      </c>
+      <c r="G160" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -5874,18 +5931,18 @@
       <c r="C161" t="s">
         <v>227</v>
       </c>
-      <c r="D161" t="s">
-        <v>69</v>
+      <c r="D161" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="E161" s="2"/>
-      <c r="F161">
-        <v>159</v>
-      </c>
-      <c r="G161" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F161" s="2">
+        <v>158</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>200</v>
       </c>
@@ -5896,17 +5953,17 @@
         <v>227</v>
       </c>
       <c r="D162" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G162" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>200</v>
       </c>
@@ -5917,17 +5974,17 @@
         <v>227</v>
       </c>
       <c r="D163" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G163" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>200</v>
       </c>
@@ -5935,41 +5992,37 @@
         <v>212</v>
       </c>
       <c r="C164" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G164" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>200</v>
-      </c>
-      <c r="B165" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C165" t="s">
-        <v>211</v>
-      </c>
-      <c r="D165" t="s">
-        <v>63</v>
-      </c>
-      <c r="E165" s="2"/>
-      <c r="F165">
-        <v>163</v>
-      </c>
-      <c r="G165" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C165" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>200</v>
       </c>
@@ -5980,17 +6033,17 @@
         <v>211</v>
       </c>
       <c r="D166" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E166" s="2"/>
       <c r="F166">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G166" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -6001,17 +6054,17 @@
         <v>211</v>
       </c>
       <c r="D167" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G167" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>200</v>
       </c>
@@ -6022,17 +6075,17 @@
         <v>211</v>
       </c>
       <c r="D168" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G168" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>200</v>
       </c>
@@ -6040,20 +6093,20 @@
         <v>212</v>
       </c>
       <c r="C169" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D169" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G169" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>200</v>
       </c>
@@ -6061,20 +6114,20 @@
         <v>212</v>
       </c>
       <c r="C170" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G170" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>200</v>
       </c>
@@ -6085,17 +6138,17 @@
         <v>220</v>
       </c>
       <c r="D171" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G171" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>200</v>
       </c>
@@ -6106,59 +6159,59 @@
         <v>220</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172">
+        <v>168</v>
+      </c>
+      <c r="G172" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>200</v>
+      </c>
+      <c r="B173" t="s">
+        <v>212</v>
+      </c>
+      <c r="C173" t="s">
+        <v>220</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173">
+        <v>169</v>
+      </c>
+      <c r="G173" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" t="s">
+        <v>212</v>
+      </c>
+      <c r="C174" t="s">
+        <v>220</v>
+      </c>
+      <c r="D174" t="s">
+        <v>192</v>
+      </c>
+      <c r="E174" s="2"/>
+      <c r="F174">
         <v>170</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G174" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3">
-        <v>171</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3">
-        <v>172</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>200</v>
       </c>
@@ -6166,20 +6219,20 @@
         <v>215</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>200</v>
       </c>
@@ -6187,20 +6240,20 @@
         <v>215</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>200</v>
       </c>
@@ -6208,62 +6261,62 @@
         <v>215</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3">
+        <v>173</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3">
+        <v>174</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3">
         <v>175</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>200</v>
-      </c>
-      <c r="B178" t="s">
-        <v>215</v>
-      </c>
-      <c r="C178" t="s">
-        <v>123</v>
-      </c>
-      <c r="D178" t="s">
-        <v>29</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178">
-        <v>176</v>
-      </c>
-      <c r="G178" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>200</v>
-      </c>
-      <c r="B179" t="s">
-        <v>215</v>
-      </c>
-      <c r="C179" t="s">
-        <v>123</v>
-      </c>
-      <c r="D179" t="s">
-        <v>47</v>
-      </c>
-      <c r="E179" s="2"/>
-      <c r="F179">
-        <v>177</v>
-      </c>
-      <c r="G179" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>200</v>
       </c>
@@ -6274,17 +6327,17 @@
         <v>123</v>
       </c>
       <c r="D180" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G180" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -6295,17 +6348,17 @@
         <v>123</v>
       </c>
       <c r="D181" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G181" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>200</v>
       </c>
@@ -6316,59 +6369,59 @@
         <v>123</v>
       </c>
       <c r="D182" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182">
+        <v>178</v>
+      </c>
+      <c r="G182" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" t="s">
+        <v>123</v>
+      </c>
+      <c r="D183" t="s">
+        <v>68</v>
+      </c>
+      <c r="E183" s="2"/>
+      <c r="F183">
+        <v>179</v>
+      </c>
+      <c r="G183" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>200</v>
+      </c>
+      <c r="B184" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" t="s">
+        <v>123</v>
+      </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184">
         <v>180</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G184" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3">
-        <v>181</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3">
-        <v>182</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>200</v>
       </c>
@@ -6376,20 +6429,20 @@
         <v>215</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>200</v>
       </c>
@@ -6397,20 +6450,20 @@
         <v>215</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>200</v>
       </c>
@@ -6418,83 +6471,83 @@
         <v>215</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3">
+        <v>184</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3">
+        <v>185</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3">
         <v>186</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>200</v>
-      </c>
-      <c r="B189" t="s">
-        <v>208</v>
-      </c>
-      <c r="C189" t="s">
-        <v>223</v>
-      </c>
-      <c r="D189" t="s">
-        <v>244</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189">
-        <v>187</v>
-      </c>
-      <c r="G189" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>200</v>
-      </c>
-      <c r="B190" t="s">
-        <v>208</v>
-      </c>
-      <c r="C190" t="s">
-        <v>223</v>
-      </c>
-      <c r="D190" t="s">
-        <v>27</v>
-      </c>
-      <c r="E190" s="2"/>
-      <c r="F190">
-        <v>188</v>
-      </c>
-      <c r="G190" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>200</v>
       </c>
@@ -6505,17 +6558,17 @@
         <v>223</v>
       </c>
       <c r="D191" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G191" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>200</v>
       </c>
@@ -6526,17 +6579,17 @@
         <v>223</v>
       </c>
       <c r="D192" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G192" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -6547,17 +6600,17 @@
         <v>223</v>
       </c>
       <c r="D193" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G193" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -6565,104 +6618,104 @@
         <v>208</v>
       </c>
       <c r="C194" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194">
+        <v>190</v>
+      </c>
+      <c r="G194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C195" t="s">
+        <v>223</v>
+      </c>
+      <c r="D195" t="s">
+        <v>124</v>
+      </c>
+      <c r="E195" s="2"/>
+      <c r="F195">
+        <v>191</v>
+      </c>
+      <c r="G195" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" t="s">
+        <v>209</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="2"/>
+      <c r="F196">
         <v>192</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G196" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B195" s="2" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D197" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E195" s="2"/>
-      <c r="F195" s="2">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2">
         <v>193</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="G197" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196" s="3" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3">
-        <v>194</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" t="s">
-        <v>233</v>
-      </c>
-      <c r="C197" t="s">
-        <v>134</v>
-      </c>
-      <c r="D197" t="s">
-        <v>118</v>
-      </c>
-      <c r="E197" s="2"/>
-      <c r="F197">
-        <v>195</v>
-      </c>
-      <c r="G197" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>200</v>
       </c>
@@ -6673,122 +6726,122 @@
         <v>134</v>
       </c>
       <c r="D199" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199">
+        <v>195</v>
+      </c>
+      <c r="G199" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3">
+        <v>196</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+      <c r="C201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D201" t="s">
+        <v>164</v>
+      </c>
+      <c r="E201" s="2"/>
+      <c r="F201">
         <v>197</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G201" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
         <v>233</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C202" t="s">
         <v>134</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D202" t="s">
         <v>182</v>
       </c>
-      <c r="E200" s="2"/>
-      <c r="F200">
+      <c r="E202" s="2"/>
+      <c r="F202">
         <v>198</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G202" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="3" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D203" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3">
+      <c r="E203" s="3"/>
+      <c r="F203" s="3">
         <v>199</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G203" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B202" s="3" t="s">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D204" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3">
-        <v>200</v>
-      </c>
-      <c r="G202" s="3" t="s">
+      <c r="E204" s="3"/>
+      <c r="F204" s="3">
+        <v>200</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" t="s">
-        <v>199</v>
-      </c>
-      <c r="C203" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" t="s">
-        <v>22</v>
-      </c>
-      <c r="E203" s="2"/>
-      <c r="F203">
-        <v>201</v>
-      </c>
-      <c r="G203" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>200</v>
-      </c>
-      <c r="B204" t="s">
-        <v>199</v>
-      </c>
-      <c r="C204" t="s">
-        <v>23</v>
-      </c>
-      <c r="D204" t="s">
-        <v>23</v>
-      </c>
-      <c r="E204" s="2"/>
-      <c r="F204">
-        <v>202</v>
-      </c>
-      <c r="G204" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>200</v>
       </c>
@@ -6796,20 +6849,20 @@
         <v>199</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E205" s="2"/>
       <c r="F205">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G205" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>200</v>
       </c>
@@ -6817,20 +6870,20 @@
         <v>199</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E206" s="2"/>
       <c r="F206">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G206" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>200</v>
       </c>
@@ -6838,20 +6891,20 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G207" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>200</v>
       </c>
@@ -6859,20 +6912,20 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D208" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G208" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>200</v>
       </c>
@@ -6880,20 +6933,20 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D209" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G209" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>200</v>
       </c>
@@ -6901,20 +6954,20 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D210" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G210" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>200</v>
       </c>
@@ -6922,20 +6975,20 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G211" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>200</v>
       </c>
@@ -6943,20 +6996,20 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D212" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G212" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -6964,20 +7017,20 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G213" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>200</v>
       </c>
@@ -6985,20 +7038,20 @@
         <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D214" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G214" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>200</v>
       </c>
@@ -7006,20 +7059,20 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G215" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>200</v>
       </c>
@@ -7030,17 +7083,17 @@
         <v>93</v>
       </c>
       <c r="D216" t="s">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G216" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -7051,17 +7104,17 @@
         <v>93</v>
       </c>
       <c r="D217" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G217" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>200</v>
       </c>
@@ -7072,17 +7125,17 @@
         <v>93</v>
       </c>
       <c r="D218" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G218" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>200</v>
       </c>
@@ -7090,20 +7143,20 @@
         <v>199</v>
       </c>
       <c r="C219" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D219" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G219" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>200</v>
       </c>
@@ -7111,20 +7164,20 @@
         <v>199</v>
       </c>
       <c r="C220" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D220" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G220" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>200</v>
       </c>
@@ -7132,20 +7185,20 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D221" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G221" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>200</v>
       </c>
@@ -7153,20 +7206,20 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D222" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G222" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>200</v>
       </c>
@@ -7174,20 +7227,20 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G223" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>200</v>
       </c>
@@ -7195,20 +7248,20 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D224" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G224" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>200</v>
       </c>
@@ -7216,20 +7269,20 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D225" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G225" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>200</v>
       </c>
@@ -7237,20 +7290,20 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D226" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G226" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>200</v>
       </c>
@@ -7258,20 +7311,20 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D227" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G227" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>200</v>
       </c>
@@ -7279,20 +7332,20 @@
         <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D228" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G228" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>200</v>
       </c>
@@ -7300,20 +7353,20 @@
         <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D229" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G229" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>200</v>
       </c>
@@ -7321,20 +7374,20 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D230" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G230" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>200</v>
       </c>
@@ -7342,20 +7395,20 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D231" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G231" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>200</v>
       </c>
@@ -7363,20 +7416,20 @@
         <v>199</v>
       </c>
       <c r="C232" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D232" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="E232" s="2"/>
       <c r="F232">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G232" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>200</v>
       </c>
@@ -7384,20 +7437,20 @@
         <v>199</v>
       </c>
       <c r="C233" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D233" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E233" s="2"/>
       <c r="F233">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G233" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>200</v>
       </c>
@@ -7405,20 +7458,20 @@
         <v>199</v>
       </c>
       <c r="C234" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D234" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="E234" s="2"/>
       <c r="F234">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G234" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>200</v>
       </c>
@@ -7426,20 +7479,20 @@
         <v>199</v>
       </c>
       <c r="C235" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D235" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G235" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>200</v>
       </c>
@@ -7447,20 +7500,20 @@
         <v>199</v>
       </c>
       <c r="C236" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D236" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G236" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>200</v>
       </c>
@@ -7468,62 +7521,62 @@
         <v>199</v>
       </c>
       <c r="C237" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D237" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G237" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>200</v>
       </c>
       <c r="B238" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C238" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="D238" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G238" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>200</v>
       </c>
       <c r="B239" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C239" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="D239" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G239" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>200</v>
       </c>
@@ -7531,20 +7584,20 @@
         <v>201</v>
       </c>
       <c r="C240" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G240" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>200</v>
       </c>
@@ -7552,20 +7605,20 @@
         <v>201</v>
       </c>
       <c r="C241" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D241" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G241" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>200</v>
       </c>
@@ -7573,20 +7626,20 @@
         <v>201</v>
       </c>
       <c r="C242" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D242" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G242" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>200</v>
       </c>
@@ -7594,20 +7647,20 @@
         <v>201</v>
       </c>
       <c r="C243" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D243" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G243" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>200</v>
       </c>
@@ -7618,17 +7671,17 @@
         <v>137</v>
       </c>
       <c r="D244" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G244" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>200</v>
       </c>
@@ -7636,62 +7689,62 @@
         <v>201</v>
       </c>
       <c r="C245" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D245" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G245" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>200</v>
       </c>
       <c r="B246" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C246" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G246" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>205</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>525</v>
+        <v>201</v>
+      </c>
+      <c r="C247" t="s">
+        <v>150</v>
+      </c>
+      <c r="D247" t="s">
+        <v>150</v>
       </c>
       <c r="E247" s="2"/>
-      <c r="F247" s="2">
-        <v>245</v>
-      </c>
-      <c r="G247" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>243</v>
+      </c>
+      <c r="G247" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>200</v>
       </c>
@@ -7702,38 +7755,38 @@
         <v>224</v>
       </c>
       <c r="D248" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G248" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>200</v>
       </c>
       <c r="B249" t="s">
         <v>205</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D249" t="s">
-        <v>45</v>
+      <c r="D249" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E249" s="2"/>
-      <c r="F249">
-        <v>247</v>
-      </c>
-      <c r="G249" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F249" s="2">
+        <v>245</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>200</v>
       </c>
@@ -7744,17 +7797,17 @@
         <v>224</v>
       </c>
       <c r="D250" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G250" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>200</v>
       </c>
@@ -7765,17 +7818,17 @@
         <v>224</v>
       </c>
       <c r="D251" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G251" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>200</v>
       </c>
@@ -7786,17 +7839,17 @@
         <v>224</v>
       </c>
       <c r="D252" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G252" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>200</v>
       </c>
@@ -7807,17 +7860,17 @@
         <v>224</v>
       </c>
       <c r="D253" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G253" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>200</v>
       </c>
@@ -7828,17 +7881,17 @@
         <v>224</v>
       </c>
       <c r="D254" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G254" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>200</v>
       </c>
@@ -7849,38 +7902,38 @@
         <v>224</v>
       </c>
       <c r="D255" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G255" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>200</v>
       </c>
       <c r="B256" t="s">
         <v>205</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s">
         <v>224</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>527</v>
+      <c r="D256" t="s">
+        <v>121</v>
       </c>
       <c r="E256" s="2"/>
-      <c r="F256" s="2">
-        <v>254</v>
-      </c>
-      <c r="G256" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F256">
+        <v>252</v>
+      </c>
+      <c r="G256" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>200</v>
       </c>
@@ -7888,41 +7941,41 @@
         <v>205</v>
       </c>
       <c r="C257" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D257" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G257" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>200</v>
       </c>
       <c r="B258" t="s">
         <v>205</v>
       </c>
-      <c r="C258" t="s">
-        <v>204</v>
-      </c>
-      <c r="D258" t="s">
-        <v>30</v>
+      <c r="C258" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="F258">
-        <v>256</v>
-      </c>
-      <c r="G258" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F258" s="2">
+        <v>254</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>200</v>
       </c>
@@ -7933,17 +7986,17 @@
         <v>204</v>
       </c>
       <c r="D259" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G259" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>200</v>
       </c>
@@ -7954,17 +8007,17 @@
         <v>204</v>
       </c>
       <c r="D260" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G260" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>200</v>
       </c>
@@ -7975,17 +8028,17 @@
         <v>204</v>
       </c>
       <c r="D261" t="s">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G261" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>200</v>
       </c>
@@ -7993,20 +8046,63 @@
         <v>205</v>
       </c>
       <c r="C262" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D262" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262">
+        <v>258</v>
+      </c>
+      <c r="G262" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>200</v>
+      </c>
+      <c r="B263" t="s">
+        <v>205</v>
+      </c>
+      <c r="C263" t="s">
+        <v>204</v>
+      </c>
+      <c r="D263" t="s">
+        <v>169</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263">
+        <v>259</v>
+      </c>
+      <c r="G263" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>200</v>
+      </c>
+      <c r="B264" t="s">
+        <v>205</v>
+      </c>
+      <c r="C264" t="s">
+        <v>264</v>
+      </c>
+      <c r="D264" t="s">
+        <v>264</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="F264">
         <v>260</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G264" t="s">
         <v>492</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD346E2-14D5-429D-BED2-F8B7D9CEF913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514004A4-F7C8-44CD-AE2D-5C0305C9ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="683">
   <si>
     <t>Level1</t>
   </si>
@@ -1968,6 +1973,102 @@
   </si>
   <si>
     <t>gyne_polycystic</t>
+  </si>
+  <si>
+    <t>Small intestine cancer</t>
+  </si>
+  <si>
+    <t>neo_smallintestine_cancer</t>
+  </si>
+  <si>
+    <t>Thorax cancer</t>
+  </si>
+  <si>
+    <t>Bone and articular cartilage cancers</t>
+  </si>
+  <si>
+    <t>neo_bone_cancer</t>
+  </si>
+  <si>
+    <t>Soft tissues cancer</t>
+  </si>
+  <si>
+    <t>Other female organs cancer</t>
+  </si>
+  <si>
+    <t>Vulva cancer</t>
+  </si>
+  <si>
+    <t>Vaginal cancer</t>
+  </si>
+  <si>
+    <t>Placenta cancer</t>
+  </si>
+  <si>
+    <t>Ureter cancer</t>
+  </si>
+  <si>
+    <t>neo_ureter_cancer</t>
+  </si>
+  <si>
+    <t>Penile cancer</t>
+  </si>
+  <si>
+    <t>neo_penile_cancer</t>
+  </si>
+  <si>
+    <t>Eye and adnexa cancers</t>
+  </si>
+  <si>
+    <t>neo_eye_cancer</t>
+  </si>
+  <si>
+    <t>Peripheral nerves and autonomic nervous system cancer</t>
+  </si>
+  <si>
+    <t>Retroperitoneum and peritoneum cancer</t>
+  </si>
+  <si>
+    <t>Other connective and soft tissue cancer</t>
+  </si>
+  <si>
+    <t>Thymus cancer</t>
+  </si>
+  <si>
+    <t>Heart, mediastinum and pleura cancer</t>
+  </si>
+  <si>
+    <t>Bone and articular cartilage cancers, nos</t>
+  </si>
+  <si>
+    <t>Bone and articular cartilage of limbs cancers</t>
+  </si>
+  <si>
+    <t>neo_bone_cancer_nos</t>
+  </si>
+  <si>
+    <t>neo_thymus_cancer</t>
+  </si>
+  <si>
+    <t>neo_heart_cancer</t>
+  </si>
+  <si>
+    <t>neo_softtissue_cancer_nerves</t>
+  </si>
+  <si>
+    <t>neo_softtissue_cancer_peritoneum</t>
+  </si>
+  <si>
+    <t>neo_softtissue_cancer_other</t>
+  </si>
+  <si>
+    <t>neo_female_cancer_vulva</t>
+  </si>
+  <si>
+    <t>neo_female_cancer_vaginal</t>
+  </si>
+  <si>
+    <t>neo_female_cancer_placenta</t>
   </si>
 </sst>
 </file>
@@ -2071,10 +2172,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G264" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G264" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G245">
-    <sortCondition ref="E1:E245"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G278" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G278" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G259">
+    <sortCondition ref="E1:E259"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level1" dataCellStyle="Normal"/>
@@ -2410,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView tabSelected="1" topLeftCell="C209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,23 +2939,23 @@
         <v>554</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>646</v>
       </c>
     </row>
@@ -6005,20 +6106,20 @@
         <v>471</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B165" s="5" t="s">
+    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="G165" s="2" t="s">
         <v>650</v>
       </c>
     </row>
@@ -6841,46 +6942,38 @@
         <v>357</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>200</v>
-      </c>
-      <c r="B205" t="s">
+    <row r="205" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C205" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205" t="s">
-        <v>22</v>
-      </c>
-      <c r="E205" s="2"/>
-      <c r="F205">
-        <v>201</v>
-      </c>
-      <c r="G205" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>200</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="C205" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C206" t="s">
-        <v>23</v>
-      </c>
-      <c r="D206" t="s">
-        <v>23</v>
-      </c>
-      <c r="E206" s="2"/>
-      <c r="F206">
-        <v>202</v>
-      </c>
-      <c r="G206" t="s">
-        <v>358</v>
+      <c r="C206" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -6891,17 +6984,17 @@
         <v>199</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G207" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
@@ -6912,17 +7005,17 @@
         <v>199</v>
       </c>
       <c r="C208" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E208" s="2"/>
       <c r="F208">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G208" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
@@ -6933,17 +7026,17 @@
         <v>199</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E209" s="2"/>
       <c r="F209">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G209" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
@@ -6954,17 +7047,17 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D210" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G210" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
@@ -6975,17 +7068,17 @@
         <v>199</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D211" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G211" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
@@ -6996,17 +7089,17 @@
         <v>199</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D212" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G212" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
@@ -7017,38 +7110,34 @@
         <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G213" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>200</v>
-      </c>
-      <c r="B214" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C214" t="s">
-        <v>91</v>
-      </c>
-      <c r="D214" t="s">
-        <v>91</v>
-      </c>
-      <c r="E214" s="2"/>
-      <c r="F214">
-        <v>210</v>
-      </c>
-      <c r="G214" t="s">
-        <v>356</v>
+      <c r="C214" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -7059,17 +7148,17 @@
         <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="D215" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G215" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
@@ -7080,17 +7169,17 @@
         <v>199</v>
       </c>
       <c r="C216" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G216" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
@@ -7101,17 +7190,17 @@
         <v>199</v>
       </c>
       <c r="C217" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G217" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
@@ -7122,17 +7211,17 @@
         <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D218" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G218" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
@@ -7146,14 +7235,14 @@
         <v>93</v>
       </c>
       <c r="D219" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G219" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
@@ -7167,14 +7256,14 @@
         <v>93</v>
       </c>
       <c r="D220" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
@@ -7185,17 +7274,17 @@
         <v>199</v>
       </c>
       <c r="C221" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D221" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G221" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
@@ -7206,17 +7295,17 @@
         <v>199</v>
       </c>
       <c r="C222" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D222" t="s">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G222" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
@@ -7227,17 +7316,17 @@
         <v>199</v>
       </c>
       <c r="C223" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D223" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G223" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
@@ -7248,17 +7337,17 @@
         <v>199</v>
       </c>
       <c r="C224" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D224" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G224" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
@@ -7269,17 +7358,17 @@
         <v>199</v>
       </c>
       <c r="C225" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D225" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G225" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
@@ -7290,17 +7379,17 @@
         <v>199</v>
       </c>
       <c r="C226" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D226" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G226" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
@@ -7311,17 +7400,17 @@
         <v>199</v>
       </c>
       <c r="C227" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D227" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E227" s="2"/>
       <c r="F227">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G227" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
@@ -7332,17 +7421,17 @@
         <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D228" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G228" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
@@ -7353,17 +7442,17 @@
         <v>199</v>
       </c>
       <c r="C229" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="D229" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G229" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
@@ -7374,17 +7463,17 @@
         <v>199</v>
       </c>
       <c r="C230" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D230" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E230" s="2"/>
       <c r="F230">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G230" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
@@ -7395,80 +7484,68 @@
         <v>199</v>
       </c>
       <c r="C231" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D231" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G231" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>200</v>
-      </c>
-      <c r="B232" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C232" t="s">
-        <v>147</v>
-      </c>
-      <c r="D232" t="s">
-        <v>147</v>
-      </c>
-      <c r="E232" s="2"/>
-      <c r="F232">
-        <v>228</v>
-      </c>
-      <c r="G232" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>200</v>
-      </c>
-      <c r="B233" t="s">
+      <c r="C232" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B233" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C233" t="s">
-        <v>161</v>
-      </c>
-      <c r="D233" t="s">
-        <v>161</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233">
-        <v>229</v>
-      </c>
-      <c r="G233" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>200</v>
-      </c>
-      <c r="B234" t="s">
+      <c r="C233" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G233" s="5" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C234" t="s">
-        <v>179</v>
-      </c>
-      <c r="D234" t="s">
-        <v>263</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234">
-        <v>230</v>
-      </c>
-      <c r="G234" t="s">
-        <v>443</v>
+      <c r="C234" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
@@ -7479,17 +7556,17 @@
         <v>199</v>
       </c>
       <c r="C235" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D235" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G235" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -7500,17 +7577,17 @@
         <v>199</v>
       </c>
       <c r="C236" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D236" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G236" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -7521,17 +7598,17 @@
         <v>199</v>
       </c>
       <c r="C237" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D237" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G237" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7542,38 +7619,34 @@
         <v>199</v>
       </c>
       <c r="C238" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D238" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G238" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>200</v>
-      </c>
-      <c r="B239" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C239" t="s">
-        <v>193</v>
-      </c>
-      <c r="D239" t="s">
-        <v>193</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239">
-        <v>235</v>
-      </c>
-      <c r="G239" t="s">
-        <v>352</v>
+      <c r="C239" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
@@ -7581,104 +7654,88 @@
         <v>200</v>
       </c>
       <c r="B240" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="D240" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G240" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>200</v>
-      </c>
-      <c r="B241" t="s">
-        <v>201</v>
-      </c>
-      <c r="C241" t="s">
-        <v>57</v>
-      </c>
-      <c r="D241" t="s">
-        <v>57</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241">
-        <v>237</v>
-      </c>
-      <c r="G241" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>200</v>
-      </c>
-      <c r="B242" t="s">
-        <v>201</v>
-      </c>
-      <c r="C242" t="s">
-        <v>101</v>
-      </c>
-      <c r="D242" t="s">
-        <v>101</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242">
-        <v>238</v>
-      </c>
-      <c r="G242" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>200</v>
-      </c>
-      <c r="B243" t="s">
-        <v>201</v>
-      </c>
-      <c r="C243" t="s">
-        <v>106</v>
-      </c>
-      <c r="D243" t="s">
-        <v>106</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243">
-        <v>239</v>
-      </c>
-      <c r="G243" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>200</v>
-      </c>
-      <c r="B244" t="s">
-        <v>201</v>
-      </c>
-      <c r="C244" t="s">
-        <v>137</v>
-      </c>
-      <c r="D244" t="s">
-        <v>60</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244">
-        <v>240</v>
-      </c>
-      <c r="G244" t="s">
-        <v>406</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -7686,20 +7743,20 @@
         <v>200</v>
       </c>
       <c r="B245" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C245" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D245" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G245" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7707,20 +7764,20 @@
         <v>200</v>
       </c>
       <c r="B246" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C246" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="D246" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="G246" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7728,20 +7785,20 @@
         <v>200</v>
       </c>
       <c r="B247" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C247" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="D247" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G247" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7749,62 +7806,54 @@
         <v>200</v>
       </c>
       <c r="B248" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C248" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D248" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G248" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" t="s">
-        <v>205</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" s="2">
-        <v>245</v>
-      </c>
-      <c r="G249" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>200</v>
-      </c>
-      <c r="B250" t="s">
-        <v>205</v>
-      </c>
-      <c r="C250" t="s">
-        <v>224</v>
-      </c>
-      <c r="D250" t="s">
-        <v>44</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250">
-        <v>246</v>
-      </c>
-      <c r="G250" t="s">
-        <v>486</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G249" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
@@ -7812,41 +7861,37 @@
         <v>200</v>
       </c>
       <c r="B251" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C251" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D251" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G251" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>200</v>
-      </c>
-      <c r="B252" t="s">
-        <v>205</v>
-      </c>
-      <c r="C252" t="s">
-        <v>224</v>
-      </c>
-      <c r="D252" t="s">
-        <v>46</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252">
-        <v>248</v>
-      </c>
-      <c r="G252" t="s">
-        <v>487</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
@@ -7854,20 +7899,20 @@
         <v>200</v>
       </c>
       <c r="B253" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C253" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D253" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G253" t="s">
-        <v>488</v>
+        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7875,20 +7920,20 @@
         <v>200</v>
       </c>
       <c r="B254" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C254" t="s">
-        <v>224</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>254</v>
+        <v>10</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G254" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7896,20 +7941,20 @@
         <v>200</v>
       </c>
       <c r="B255" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C255" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="D255" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G255" t="s">
-        <v>483</v>
+        <v>402</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7917,20 +7962,20 @@
         <v>200</v>
       </c>
       <c r="B256" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="D256" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="G256" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7938,20 +7983,20 @@
         <v>200</v>
       </c>
       <c r="B257" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C257" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="D257" t="s">
-        <v>266</v>
+        <v>106</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="G257" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -7959,20 +8004,20 @@
         <v>200</v>
       </c>
       <c r="B258" t="s">
-        <v>205</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>527</v>
+        <v>201</v>
+      </c>
+      <c r="C258" t="s">
+        <v>137</v>
+      </c>
+      <c r="D258" t="s">
+        <v>60</v>
       </c>
       <c r="E258" s="2"/>
-      <c r="F258" s="2">
-        <v>254</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>533</v>
+      <c r="F258">
+        <v>240</v>
+      </c>
+      <c r="G258" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -7980,20 +8025,20 @@
         <v>200</v>
       </c>
       <c r="B259" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C259" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="D259" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="G259" t="s">
-        <v>312</v>
+        <v>405</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -8001,20 +8046,20 @@
         <v>200</v>
       </c>
       <c r="B260" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C260" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="D260" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="G260" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -8022,20 +8067,20 @@
         <v>200</v>
       </c>
       <c r="B261" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C261" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D261" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G261" t="s">
-        <v>456</v>
+        <v>400</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -8046,17 +8091,17 @@
         <v>205</v>
       </c>
       <c r="C262" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D262" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G262" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -8066,18 +8111,18 @@
       <c r="B263" t="s">
         <v>205</v>
       </c>
-      <c r="C263" t="s">
-        <v>204</v>
-      </c>
-      <c r="D263" t="s">
-        <v>169</v>
+      <c r="C263" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E263" s="2"/>
-      <c r="F263">
-        <v>259</v>
-      </c>
-      <c r="G263" t="s">
-        <v>334</v>
+      <c r="F263" s="2">
+        <v>245</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -8088,16 +8133,310 @@
         <v>205</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D264" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="E264" s="2"/>
       <c r="F264">
+        <v>246</v>
+      </c>
+      <c r="G264" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>200</v>
+      </c>
+      <c r="B265" t="s">
+        <v>205</v>
+      </c>
+      <c r="C265" t="s">
+        <v>224</v>
+      </c>
+      <c r="D265" t="s">
+        <v>45</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265">
+        <v>247</v>
+      </c>
+      <c r="G265" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>200</v>
+      </c>
+      <c r="B266" t="s">
+        <v>205</v>
+      </c>
+      <c r="C266" t="s">
+        <v>224</v>
+      </c>
+      <c r="D266" t="s">
+        <v>46</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266">
+        <v>248</v>
+      </c>
+      <c r="G266" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>200</v>
+      </c>
+      <c r="B267" t="s">
+        <v>205</v>
+      </c>
+      <c r="C267" t="s">
+        <v>224</v>
+      </c>
+      <c r="D267" t="s">
+        <v>52</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267">
+        <v>249</v>
+      </c>
+      <c r="G267" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>200</v>
+      </c>
+      <c r="B268" t="s">
+        <v>205</v>
+      </c>
+      <c r="C268" t="s">
+        <v>224</v>
+      </c>
+      <c r="D268" t="s">
+        <v>254</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268">
+        <v>250</v>
+      </c>
+      <c r="G268" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>200</v>
+      </c>
+      <c r="B269" t="s">
+        <v>205</v>
+      </c>
+      <c r="C269" t="s">
+        <v>224</v>
+      </c>
+      <c r="D269" t="s">
+        <v>110</v>
+      </c>
+      <c r="E269" s="2"/>
+      <c r="F269">
+        <v>251</v>
+      </c>
+      <c r="G269" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>200</v>
+      </c>
+      <c r="B270" t="s">
+        <v>205</v>
+      </c>
+      <c r="C270" t="s">
+        <v>224</v>
+      </c>
+      <c r="D270" t="s">
+        <v>121</v>
+      </c>
+      <c r="E270" s="2"/>
+      <c r="F270">
+        <v>252</v>
+      </c>
+      <c r="G270" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>200</v>
+      </c>
+      <c r="B271" t="s">
+        <v>205</v>
+      </c>
+      <c r="C271" t="s">
+        <v>224</v>
+      </c>
+      <c r="D271" t="s">
+        <v>266</v>
+      </c>
+      <c r="E271" s="2"/>
+      <c r="F271">
+        <v>253</v>
+      </c>
+      <c r="G271" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>200</v>
+      </c>
+      <c r="B272" t="s">
+        <v>205</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2">
+        <v>254</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>200</v>
+      </c>
+      <c r="B273" t="s">
+        <v>205</v>
+      </c>
+      <c r="C273" t="s">
+        <v>204</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="2"/>
+      <c r="F273">
+        <v>255</v>
+      </c>
+      <c r="G273" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>200</v>
+      </c>
+      <c r="B274" t="s">
+        <v>205</v>
+      </c>
+      <c r="C274" t="s">
+        <v>204</v>
+      </c>
+      <c r="D274" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="2"/>
+      <c r="F274">
+        <v>256</v>
+      </c>
+      <c r="G274" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>200</v>
+      </c>
+      <c r="B275" t="s">
+        <v>205</v>
+      </c>
+      <c r="C275" t="s">
+        <v>204</v>
+      </c>
+      <c r="D275" t="s">
+        <v>49</v>
+      </c>
+      <c r="E275" s="2"/>
+      <c r="F275">
+        <v>257</v>
+      </c>
+      <c r="G275" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>200</v>
+      </c>
+      <c r="B276" t="s">
+        <v>205</v>
+      </c>
+      <c r="C276" t="s">
+        <v>204</v>
+      </c>
+      <c r="D276" t="s">
+        <v>142</v>
+      </c>
+      <c r="E276" s="2"/>
+      <c r="F276">
+        <v>258</v>
+      </c>
+      <c r="G276" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>200</v>
+      </c>
+      <c r="B277" t="s">
+        <v>205</v>
+      </c>
+      <c r="C277" t="s">
+        <v>204</v>
+      </c>
+      <c r="D277" t="s">
+        <v>169</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277">
+        <v>259</v>
+      </c>
+      <c r="G277" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>200</v>
+      </c>
+      <c r="B278" t="s">
+        <v>205</v>
+      </c>
+      <c r="C278" t="s">
+        <v>264</v>
+      </c>
+      <c r="D278" t="s">
+        <v>264</v>
+      </c>
+      <c r="E278" s="2"/>
+      <c r="F278">
         <v>260</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G278" t="s">
         <v>492</v>
       </c>
     </row>

--- a/data-raw/mastercauselist.xlsx
+++ b/data-raw/mastercauselist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514004A4-F7C8-44CD-AE2D-5C0305C9ECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFAD0ED-6995-487A-B2DB-1353850DC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="683">
   <si>
     <t>Level1</t>
   </si>
@@ -1993,9 +1993,6 @@
     <t>Soft tissues cancer</t>
   </si>
   <si>
-    <t>Other female organs cancer</t>
-  </si>
-  <si>
     <t>Vulva cancer</t>
   </si>
   <si>
@@ -2035,15 +2032,9 @@
     <t>Thymus cancer</t>
   </si>
   <si>
-    <t>Heart, mediastinum and pleura cancer</t>
-  </si>
-  <si>
     <t>Bone and articular cartilage cancers, nos</t>
   </si>
   <si>
-    <t>Bone and articular cartilage of limbs cancers</t>
-  </si>
-  <si>
     <t>neo_bone_cancer_nos</t>
   </si>
   <si>
@@ -2069,6 +2060,15 @@
   </si>
   <si>
     <t>neo_female_cancer_placenta</t>
+  </si>
+  <si>
+    <t>Other female genital organs</t>
+  </si>
+  <si>
+    <t>neo_otherfemale_cancer</t>
+  </si>
+  <si>
+    <t>Heart, mediastinum and pleura cancers</t>
   </si>
 </sst>
 </file>
@@ -2172,10 +2172,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G278" totalsRowShown="0" dataCellStyle="Normal">
-  <autoFilter ref="A1:G278" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G259">
-    <sortCondition ref="E1:E259"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G279" totalsRowShown="0" dataCellStyle="Normal">
+  <autoFilter ref="A1:G279" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G260">
+    <sortCondition ref="E1:E260"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level1" dataCellStyle="Normal"/>
@@ -2511,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G278"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I212" sqref="I212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6953,7 +6953,7 @@
         <v>654</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>655</v>
@@ -6970,10 +6970,10 @@
         <v>654</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
@@ -7131,13 +7131,13 @@
         <v>199</v>
       </c>
       <c r="C214" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="D214" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
@@ -7505,13 +7505,13 @@
         <v>199</v>
       </c>
       <c r="C232" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D232" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D232" s="5" t="s">
-        <v>658</v>
-      </c>
       <c r="G232" s="5" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7522,13 +7522,13 @@
         <v>199</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7539,34 +7539,30 @@
         <v>199</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G234" s="5" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>200</v>
-      </c>
-      <c r="B235" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C235" t="s">
-        <v>131</v>
-      </c>
-      <c r="D235" t="s">
-        <v>131</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235">
-        <v>225</v>
-      </c>
-      <c r="G235" t="s">
-        <v>340</v>
+      <c r="C235" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
@@ -7577,17 +7573,17 @@
         <v>199</v>
       </c>
       <c r="C236" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D236" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G236" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
@@ -7598,17 +7594,17 @@
         <v>199</v>
       </c>
       <c r="C237" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D237" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G237" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
@@ -7619,72 +7615,76 @@
         <v>199</v>
       </c>
       <c r="C238" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D238" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238">
+        <v>227</v>
+      </c>
+      <c r="G238" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>200</v>
+      </c>
+      <c r="B239" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239" t="s">
+        <v>147</v>
+      </c>
+      <c r="D239" t="s">
+        <v>147</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239">
         <v>228</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G239" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B239" s="5" t="s">
+    <row r="240" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="C240" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G240" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D239" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="G239" s="5" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>200</v>
-      </c>
-      <c r="B240" t="s">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>200</v>
+      </c>
+      <c r="B241" t="s">
         <v>199</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>161</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>161</v>
       </c>
-      <c r="E240" s="2"/>
-      <c r="F240">
+      <c r="E241" s="2"/>
+      <c r="F241">
         <v>229</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G241" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D241" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7695,13 +7695,13 @@
         <v>199</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7715,10 +7715,10 @@
         <v>656</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7732,31 +7732,27 @@
         <v>656</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>200</v>
-      </c>
-      <c r="B245" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B245" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C245" t="s">
-        <v>179</v>
-      </c>
-      <c r="D245" t="s">
-        <v>263</v>
-      </c>
-      <c r="E245" s="2"/>
-      <c r="F245">
-        <v>230</v>
-      </c>
-      <c r="G245" t="s">
-        <v>443</v>
+      <c r="C245" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
@@ -7770,14 +7766,14 @@
         <v>179</v>
       </c>
       <c r="D246" t="s">
-        <v>179</v>
+        <v>263</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G246" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
@@ -7788,17 +7784,17 @@
         <v>199</v>
       </c>
       <c r="C247" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D247" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G247" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
@@ -7809,34 +7805,38 @@
         <v>199</v>
       </c>
       <c r="C248" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D248" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248">
+        <v>232</v>
+      </c>
+      <c r="G248" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>200</v>
+      </c>
+      <c r="B249" t="s">
+        <v>199</v>
+      </c>
+      <c r="C249" t="s">
+        <v>185</v>
+      </c>
+      <c r="D249" t="s">
+        <v>185</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249">
         <v>233</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G249" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="D249" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="250" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7850,69 +7850,65 @@
         <v>653</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>200</v>
-      </c>
-      <c r="B251" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>200</v>
+      </c>
+      <c r="B252" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" t="s">
         <v>186</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>186</v>
       </c>
-      <c r="E251" s="2"/>
-      <c r="F251">
+      <c r="E252" s="2"/>
+      <c r="F252">
         <v>234</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G252" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B252" s="5" t="s">
+    <row r="253" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C253" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="G253" s="5" t="s">
         <v>661</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>200</v>
-      </c>
-      <c r="B253" t="s">
-        <v>199</v>
-      </c>
-      <c r="C253" t="s">
-        <v>193</v>
-      </c>
-      <c r="D253" t="s">
-        <v>193</v>
-      </c>
-      <c r="E253" s="2"/>
-      <c r="F253">
-        <v>235</v>
-      </c>
-      <c r="G253" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
@@ -7920,20 +7916,20 @@
         <v>200</v>
       </c>
       <c r="B254" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C254" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="D254" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="E254" s="2"/>
       <c r="F254">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G254" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
@@ -7944,17 +7940,17 @@
         <v>201</v>
       </c>
       <c r="C255" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G255" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
@@ -7965,17 +7961,17 @@
         <v>201</v>
       </c>
       <c r="C256" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D256" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="E256" s="2"/>
       <c r="F256">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G256" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
@@ -7986,17 +7982,17 @@
         <v>201</v>
       </c>
       <c r="C257" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D257" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G257" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
@@ -8007,17 +8003,17 @@
         <v>201</v>
       </c>
       <c r="C258" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D258" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G258" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
@@ -8031,14 +8027,14 @@
         <v>137</v>
       </c>
       <c r="D259" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G259" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
@@ -8052,14 +8048,14 @@
         <v>137</v>
       </c>
       <c r="D260" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G260" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
@@ -8070,17 +8066,17 @@
         <v>201</v>
       </c>
       <c r="C261" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D261" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G261" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
@@ -8088,20 +8084,20 @@
         <v>200</v>
       </c>
       <c r="B262" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C262" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D262" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="E262" s="2"/>
       <c r="F262">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G262" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
@@ -8111,18 +8107,18 @@
       <c r="B263" t="s">
         <v>205</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" t="s">
         <v>224</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>525</v>
+      <c r="D263" t="s">
+        <v>32</v>
       </c>
       <c r="E263" s="2"/>
-      <c r="F263" s="2">
-        <v>245</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>530</v>
+      <c r="F263">
+        <v>244</v>
+      </c>
+      <c r="G263" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
@@ -8132,18 +8128,18 @@
       <c r="B264" t="s">
         <v>205</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D264" t="s">
-        <v>44</v>
+      <c r="D264" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="E264" s="2"/>
-      <c r="F264">
-        <v>246</v>
-      </c>
-      <c r="G264" t="s">
-        <v>486</v>
+      <c r="F264" s="2">
+        <v>245</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
@@ -8157,14 +8153,14 @@
         <v>224</v>
       </c>
       <c r="D265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E265" s="2"/>
       <c r="F265">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G265" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
@@ -8178,14 +8174,14 @@
         <v>224</v>
       </c>
       <c r="D266" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G266" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
@@ -8199,14 +8195,14 @@
         <v>224</v>
       </c>
       <c r="D267" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G267" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
@@ -8220,14 +8216,14 @@
         <v>224</v>
       </c>
       <c r="D268" t="s">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G268" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
@@ -8241,14 +8237,14 @@
         <v>224</v>
       </c>
       <c r="D269" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G269" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
@@ -8262,14 +8258,14 @@
         <v>224</v>
       </c>
       <c r="D270" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G270" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
@@ -8283,14 +8279,14 @@
         <v>224</v>
       </c>
       <c r="D271" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G271" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
@@ -8300,18 +8296,18 @@
       <c r="B272" t="s">
         <v>205</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" t="s">
         <v>224</v>
       </c>
-      <c r="D272" s="2" t="s">
-        <v>527</v>
+      <c r="D272" t="s">
+        <v>266</v>
       </c>
       <c r="E272" s="2"/>
-      <c r="F272" s="2">
-        <v>254</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>533</v>
+      <c r="F272">
+        <v>253</v>
+      </c>
+      <c r="G272" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -8321,18 +8317,18 @@
       <c r="B273" t="s">
         <v>205</v>
       </c>
-      <c r="C273" t="s">
-        <v>204</v>
-      </c>
-      <c r="D273" t="s">
-        <v>4</v>
+      <c r="C273" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="E273" s="2"/>
-      <c r="F273">
-        <v>255</v>
-      </c>
-      <c r="G273" t="s">
-        <v>312</v>
+      <c r="F273" s="2">
+        <v>254</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -8346,14 +8342,14 @@
         <v>204</v>
       </c>
       <c r="D274" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E274" s="2"/>
       <c r="F274">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G274" t="s">
-        <v>454</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -8367,14 +8363,14 @@
         <v>204</v>
       </c>
       <c r="D275" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E275" s="2"/>
       <c r="F275">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G275" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -8388,14 +8384,14 @@
         <v>204</v>
       </c>
       <c r="D276" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="E276" s="2"/>
       <c r="F276">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G276" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -8409,14 +8405,14 @@
         <v>204</v>
       </c>
       <c r="D277" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="E277" s="2"/>
       <c r="F277">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G277" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -8427,16 +8423,37 @@
         <v>205</v>
       </c>
       <c r="C278" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D278" t="s">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c r="E278" s="2"/>
       <c r="F278">
+        <v>259</v>
+      </c>
+      <c r="G278" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>200</v>
+      </c>
+      <c r="B279" t="s">
+        <v>205</v>
+      </c>
+      <c r="C279" t="s">
+        <v>264</v>
+      </c>
+      <c r="D279" t="s">
+        <v>264</v>
+      </c>
+      <c r="E279" s="2"/>
+      <c r="F279">
         <v>260</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G279" t="s">
         <v>492</v>
       </c>
     </row>
